--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC0D8C4-F06C-4CB9-BE86-0745A191F210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2AE2D7-CF26-4E42-934B-4A4C3E380982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="314">
   <si>
     <t>PROJETO</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>KIT VERÃO</t>
+  </si>
+  <si>
+    <t>BERMUDA</t>
+  </si>
+  <si>
+    <t>KIT UNIFORME</t>
   </si>
 </sst>
 </file>
@@ -1474,21 +1480,21 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
@@ -1584,7 +1590,7 @@
       <c r="S2" s="10"/>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -1618,7 +1624,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
@@ -1652,7 +1658,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
@@ -1686,7 +1692,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>143</v>
       </c>
@@ -1720,7 +1726,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>143</v>
       </c>
@@ -1754,7 +1760,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>143</v>
       </c>
@@ -1788,7 +1794,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>143</v>
       </c>
@@ -1822,7 +1828,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -1856,7 +1862,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>143</v>
       </c>
@@ -1890,7 +1896,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>143</v>
       </c>
@@ -1924,7 +1930,7 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>143</v>
       </c>
@@ -1958,7 +1964,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>143</v>
       </c>
@@ -1992,7 +1998,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>143</v>
       </c>
@@ -2026,7 +2032,7 @@
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>143</v>
       </c>
@@ -2060,7 +2066,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>143</v>
       </c>
@@ -2094,7 +2100,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>143</v>
       </c>
@@ -2128,7 +2134,7 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2162,7 +2168,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
@@ -2196,7 +2202,7 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
@@ -2230,7 +2236,7 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
@@ -2264,7 +2270,7 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>143</v>
       </c>
@@ -2298,7 +2304,7 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>143</v>
       </c>
@@ -2332,7 +2338,7 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -2366,7 +2372,7 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
@@ -2400,7 +2406,7 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
@@ -2434,7 +2440,7 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>143</v>
       </c>
@@ -2468,7 +2474,7 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>143</v>
       </c>
@@ -2502,7 +2508,7 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>143</v>
       </c>
@@ -2536,7 +2542,7 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
@@ -2570,7 +2576,7 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>143</v>
       </c>
@@ -2589,7 +2595,9 @@
       <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2604,7 +2612,7 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>143</v>
       </c>
@@ -2638,7 +2646,7 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -2672,7 +2680,7 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>143</v>
       </c>
@@ -2706,7 +2714,7 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>143</v>
       </c>
@@ -2740,7 +2748,7 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>143</v>
       </c>
@@ -2774,7 +2782,7 @@
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>143</v>
       </c>
@@ -2808,7 +2816,7 @@
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -2842,7 +2850,7 @@
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>143</v>
       </c>
@@ -2876,7 +2884,7 @@
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>143</v>
       </c>
@@ -2910,7 +2918,7 @@
       <c r="S41" s="10"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>143</v>
       </c>
@@ -2944,7 +2952,7 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>143</v>
       </c>
@@ -2978,7 +2986,7 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="9"/>
@@ -3000,7 +3008,7 @@
       <c r="S44" s="10"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>143</v>
       </c>
@@ -3034,7 +3042,7 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>143</v>
       </c>
@@ -3068,7 +3076,7 @@
       <c r="S46" s="10"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>143</v>
       </c>
@@ -3102,7 +3110,7 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>143</v>
       </c>
@@ -3136,7 +3144,7 @@
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>143</v>
       </c>
@@ -3170,7 +3178,7 @@
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
@@ -3204,7 +3212,7 @@
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>143</v>
       </c>
@@ -3238,7 +3246,7 @@
       <c r="S51" s="10"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>143</v>
       </c>
@@ -3272,7 +3280,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="9"/>
@@ -3294,7 +3302,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>143</v>
       </c>
@@ -3328,7 +3336,7 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>143</v>
       </c>
@@ -3362,7 +3370,7 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>143</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>143</v>
       </c>
@@ -3430,7 +3438,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>143</v>
       </c>
@@ -3464,7 +3472,7 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>143</v>
       </c>
@@ -3498,7 +3506,7 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>133</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>84</v>
@@ -3521,7 +3529,9 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="K60" s="10">
+        <v>2</v>
+      </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -3532,7 +3542,7 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>143</v>
       </c>
@@ -3566,7 +3576,7 @@
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>143</v>
       </c>
@@ -3600,7 +3610,7 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>143</v>
       </c>
@@ -3634,7 +3644,7 @@
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>143</v>
       </c>
@@ -3668,7 +3678,7 @@
       <c r="S64" s="10"/>
       <c r="T64" s="10"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>143</v>
       </c>
@@ -3687,46 +3697,22 @@
       <c r="F65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="5">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>9</v>
-      </c>
-      <c r="I65" s="5">
-        <v>63</v>
-      </c>
-      <c r="J65" s="5">
-        <v>142</v>
-      </c>
-      <c r="K65" s="5">
-        <v>116</v>
-      </c>
-      <c r="L65" s="5">
-        <v>75</v>
-      </c>
-      <c r="M65" s="5">
-        <v>79</v>
-      </c>
-      <c r="N65" s="5">
-        <v>34</v>
-      </c>
-      <c r="O65" s="5">
-        <v>17</v>
-      </c>
-      <c r="P65" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q65" s="5">
-        <v>1</v>
-      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
-      <c r="T65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>143</v>
       </c>
@@ -3746,43 +3732,21 @@
         <v>30</v>
       </c>
       <c r="G66" s="5"/>
-      <c r="H66" s="5">
-        <v>8</v>
-      </c>
-      <c r="I66" s="5">
-        <v>105</v>
-      </c>
-      <c r="J66" s="5">
-        <v>205</v>
-      </c>
-      <c r="K66" s="5">
-        <v>174</v>
-      </c>
-      <c r="L66" s="5">
-        <v>151</v>
-      </c>
-      <c r="M66" s="5">
-        <v>135</v>
-      </c>
-      <c r="N66" s="5">
-        <v>60</v>
-      </c>
-      <c r="O66" s="5">
-        <v>21</v>
-      </c>
-      <c r="P66" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="5">
-        <v>2</v>
-      </c>
-      <c r="R66" s="5">
-        <v>2</v>
-      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
       <c r="S66" s="5"/>
       <c r="T66" s="5"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>143</v>
       </c>
@@ -3802,39 +3766,21 @@
         <v>31</v>
       </c>
       <c r="G67" s="5"/>
-      <c r="H67" s="5">
-        <v>7</v>
-      </c>
-      <c r="I67" s="5">
-        <v>81</v>
-      </c>
-      <c r="J67" s="5">
-        <v>154</v>
-      </c>
-      <c r="K67" s="5">
-        <v>146</v>
-      </c>
-      <c r="L67" s="5">
-        <v>57</v>
-      </c>
-      <c r="M67" s="5">
-        <v>40</v>
-      </c>
-      <c r="N67" s="5">
-        <v>12</v>
-      </c>
-      <c r="O67" s="5">
-        <v>5</v>
-      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="5">
-        <v>1</v>
-      </c>
+      <c r="S67" s="5"/>
       <c r="T67" s="5"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>143</v>
       </c>
@@ -3868,7 +3814,7 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>143</v>
       </c>
@@ -3888,39 +3834,21 @@
         <v>33</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="5">
-        <v>3</v>
-      </c>
-      <c r="I69" s="5">
-        <v>43</v>
-      </c>
-      <c r="J69" s="5">
-        <v>96</v>
-      </c>
-      <c r="K69" s="5">
-        <v>63</v>
-      </c>
-      <c r="L69" s="5">
-        <v>63</v>
-      </c>
-      <c r="M69" s="5">
-        <v>36</v>
-      </c>
-      <c r="N69" s="5">
-        <v>15</v>
-      </c>
-      <c r="O69" s="5">
-        <v>8</v>
-      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
       <c r="P69" s="5"/>
-      <c r="Q69" s="5">
-        <v>1</v>
-      </c>
+      <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>143</v>
       </c>
@@ -3940,45 +3868,21 @@
         <v>34</v>
       </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="5">
-        <v>1</v>
-      </c>
-      <c r="I70" s="5">
-        <v>5</v>
-      </c>
-      <c r="J70" s="5">
-        <v>43</v>
-      </c>
-      <c r="K70" s="5">
-        <v>61</v>
-      </c>
-      <c r="L70" s="5">
-        <v>81</v>
-      </c>
-      <c r="M70" s="5">
-        <v>71</v>
-      </c>
-      <c r="N70" s="5">
-        <v>32</v>
-      </c>
-      <c r="O70" s="5">
-        <v>9</v>
-      </c>
-      <c r="P70" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q70" s="5">
-        <v>1</v>
-      </c>
-      <c r="R70" s="5">
-        <v>1</v>
-      </c>
-      <c r="S70" s="5">
-        <v>1</v>
-      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
       <c r="T70" s="5"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
@@ -3998,43 +3902,21 @@
         <v>35</v>
       </c>
       <c r="G71" s="5"/>
-      <c r="H71" s="5">
-        <v>2</v>
-      </c>
-      <c r="I71" s="5">
-        <v>34</v>
-      </c>
-      <c r="J71" s="5">
-        <v>84</v>
-      </c>
-      <c r="K71" s="5">
-        <v>91</v>
-      </c>
-      <c r="L71" s="5">
-        <v>80</v>
-      </c>
-      <c r="M71" s="5">
-        <v>73</v>
-      </c>
-      <c r="N71" s="5">
-        <v>36</v>
-      </c>
-      <c r="O71" s="5">
-        <v>13</v>
-      </c>
-      <c r="P71" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>4</v>
-      </c>
-      <c r="R71" s="5">
-        <v>2</v>
-      </c>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>143</v>
       </c>
@@ -4054,41 +3936,21 @@
         <v>36</v>
       </c>
       <c r="G72" s="5"/>
-      <c r="H72" s="5">
-        <v>7</v>
-      </c>
-      <c r="I72" s="5">
-        <v>43</v>
-      </c>
-      <c r="J72" s="5">
-        <v>73</v>
-      </c>
-      <c r="K72" s="5">
-        <v>81</v>
-      </c>
-      <c r="L72" s="5">
-        <v>71</v>
-      </c>
-      <c r="M72" s="5">
-        <v>44</v>
-      </c>
-      <c r="N72" s="5">
-        <v>25</v>
-      </c>
-      <c r="O72" s="5">
-        <v>14</v>
-      </c>
-      <c r="P72" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q72" s="5">
-        <v>1</v>
-      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
@@ -4108,47 +3970,21 @@
         <v>37</v>
       </c>
       <c r="G73" s="5"/>
-      <c r="H73" s="5">
-        <v>5</v>
-      </c>
-      <c r="I73" s="5">
-        <v>46</v>
-      </c>
-      <c r="J73" s="5">
-        <v>111</v>
-      </c>
-      <c r="K73" s="5">
-        <v>140</v>
-      </c>
-      <c r="L73" s="5">
-        <v>111</v>
-      </c>
-      <c r="M73" s="5">
-        <v>74</v>
-      </c>
-      <c r="N73" s="5">
-        <v>34</v>
-      </c>
-      <c r="O73" s="5">
-        <v>21</v>
-      </c>
-      <c r="P73" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q73" s="5">
-        <v>1</v>
-      </c>
-      <c r="R73" s="5">
-        <v>2</v>
-      </c>
-      <c r="S73" s="5">
-        <v>1</v>
-      </c>
-      <c r="T73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>143</v>
       </c>
@@ -4168,41 +4004,21 @@
         <v>38</v>
       </c>
       <c r="G74" s="5"/>
-      <c r="H74" s="5">
-        <v>5</v>
-      </c>
-      <c r="I74" s="5">
-        <v>55</v>
-      </c>
-      <c r="J74" s="5">
-        <v>70</v>
-      </c>
-      <c r="K74" s="5">
-        <v>63</v>
-      </c>
-      <c r="L74" s="5">
-        <v>67</v>
-      </c>
-      <c r="M74" s="5">
-        <v>46</v>
-      </c>
-      <c r="N74" s="5">
-        <v>17</v>
-      </c>
-      <c r="O74" s="5">
-        <v>11</v>
-      </c>
-      <c r="P74" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="5">
-        <v>2</v>
-      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>143</v>
       </c>
@@ -4222,41 +4038,21 @@
         <v>39</v>
       </c>
       <c r="G75" s="5"/>
-      <c r="H75" s="5">
-        <v>4</v>
-      </c>
-      <c r="I75" s="5">
-        <v>97</v>
-      </c>
-      <c r="J75" s="5">
-        <v>213</v>
-      </c>
-      <c r="K75" s="5">
-        <v>171</v>
-      </c>
-      <c r="L75" s="5">
-        <v>137</v>
-      </c>
-      <c r="M75" s="5">
-        <v>149</v>
-      </c>
-      <c r="N75" s="5">
-        <v>48</v>
-      </c>
-      <c r="O75" s="5">
-        <v>20</v>
-      </c>
-      <c r="P75" s="5">
-        <v>5</v>
-      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-      <c r="S75" s="5">
-        <v>2</v>
-      </c>
+      <c r="S75" s="5"/>
       <c r="T75" s="5"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>143</v>
       </c>
@@ -4275,46 +4071,22 @@
       <c r="F76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="5">
-        <v>1</v>
-      </c>
-      <c r="H76" s="5">
-        <v>2</v>
-      </c>
-      <c r="I76" s="5">
-        <v>48</v>
-      </c>
-      <c r="J76" s="5">
-        <v>74</v>
-      </c>
-      <c r="K76" s="5">
-        <v>62</v>
-      </c>
-      <c r="L76" s="5">
-        <v>62</v>
-      </c>
-      <c r="M76" s="5">
-        <v>44</v>
-      </c>
-      <c r="N76" s="5">
-        <v>14</v>
-      </c>
-      <c r="O76" s="5">
-        <v>10</v>
-      </c>
-      <c r="P76" s="5">
-        <v>3</v>
-      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
-      <c r="R76" s="5">
-        <v>1</v>
-      </c>
-      <c r="S76" s="5">
-        <v>1</v>
-      </c>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
       <c r="T76" s="5"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>143</v>
       </c>
@@ -4348,7 +4120,7 @@
       <c r="S77" s="10"/>
       <c r="T77" s="10"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>143</v>
       </c>
@@ -4382,7 +4154,7 @@
       <c r="S78" s="10"/>
       <c r="T78" s="10"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>143</v>
       </c>
@@ -4416,7 +4188,7 @@
       <c r="S79" s="10"/>
       <c r="T79" s="10"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>143</v>
       </c>
@@ -4436,45 +4208,21 @@
         <v>44</v>
       </c>
       <c r="G80" s="5"/>
-      <c r="H80" s="5">
-        <v>2</v>
-      </c>
-      <c r="I80" s="5">
-        <v>38</v>
-      </c>
-      <c r="J80" s="5">
-        <v>63</v>
-      </c>
-      <c r="K80" s="5">
-        <v>57</v>
-      </c>
-      <c r="L80" s="5">
-        <v>40</v>
-      </c>
-      <c r="M80" s="5">
-        <v>32</v>
-      </c>
-      <c r="N80" s="5">
-        <v>20</v>
-      </c>
-      <c r="O80" s="5">
-        <v>12</v>
-      </c>
-      <c r="P80" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>1</v>
-      </c>
-      <c r="R80" s="5">
-        <v>3</v>
-      </c>
-      <c r="S80" s="5">
-        <v>1</v>
-      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
       <c r="T80" s="5"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>143</v>
       </c>
@@ -4494,43 +4242,21 @@
         <v>45</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="5">
-        <v>3</v>
-      </c>
-      <c r="I81" s="5">
-        <v>22</v>
-      </c>
-      <c r="J81" s="5">
-        <v>47</v>
-      </c>
-      <c r="K81" s="5">
-        <v>52</v>
-      </c>
-      <c r="L81" s="5">
-        <v>48</v>
-      </c>
-      <c r="M81" s="5">
-        <v>18</v>
-      </c>
-      <c r="N81" s="5">
-        <v>15</v>
-      </c>
-      <c r="O81" s="5">
-        <v>4</v>
-      </c>
-      <c r="P81" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="5">
-        <v>2</v>
-      </c>
-      <c r="R81" s="5">
-        <v>2</v>
-      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
       <c r="S81" s="5"/>
       <c r="T81" s="5"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>143</v>
       </c>
@@ -4564,7 +4290,7 @@
       <c r="S82" s="10"/>
       <c r="T82" s="10"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>143</v>
       </c>
@@ -4598,7 +4324,7 @@
       <c r="S83" s="10"/>
       <c r="T83" s="10"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>143</v>
       </c>
@@ -4619,40 +4345,20 @@
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="5">
-        <v>3</v>
-      </c>
-      <c r="J84" s="5">
-        <v>11</v>
-      </c>
-      <c r="K84" s="5">
-        <v>45</v>
-      </c>
-      <c r="L84" s="5">
-        <v>43</v>
-      </c>
-      <c r="M84" s="5">
-        <v>51</v>
-      </c>
-      <c r="N84" s="5">
-        <v>24</v>
-      </c>
-      <c r="O84" s="5">
-        <v>5</v>
-      </c>
-      <c r="P84" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q84" s="5">
-        <v>2</v>
-      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-      <c r="S84" s="5">
-        <v>1</v>
-      </c>
+      <c r="S84" s="5"/>
       <c r="T84" s="5"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>143</v>
       </c>
@@ -4686,7 +4392,7 @@
       <c r="S85" s="10"/>
       <c r="T85" s="10"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>143</v>
       </c>
@@ -4706,43 +4412,21 @@
         <v>50</v>
       </c>
       <c r="G86" s="5"/>
-      <c r="H86" s="5">
-        <v>3</v>
-      </c>
-      <c r="I86" s="5">
-        <v>31</v>
-      </c>
-      <c r="J86" s="5">
-        <v>78</v>
-      </c>
-      <c r="K86" s="5">
-        <v>111</v>
-      </c>
-      <c r="L86" s="5">
-        <v>88</v>
-      </c>
-      <c r="M86" s="5">
-        <v>67</v>
-      </c>
-      <c r="N86" s="5">
-        <v>36</v>
-      </c>
-      <c r="O86" s="5">
-        <v>18</v>
-      </c>
-      <c r="P86" s="5">
-        <v>4</v>
-      </c>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
-      <c r="R86" s="5">
-        <v>3</v>
-      </c>
+      <c r="R86" s="5"/>
       <c r="S86" s="5"/>
-      <c r="T86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>143</v>
       </c>
@@ -4776,7 +4460,7 @@
       <c r="S87" s="10"/>
       <c r="T87" s="10"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>143</v>
       </c>
@@ -4810,7 +4494,7 @@
       <c r="S88" s="10"/>
       <c r="T88" s="10"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>143</v>
       </c>
@@ -4830,45 +4514,21 @@
         <v>53</v>
       </c>
       <c r="G89" s="5"/>
-      <c r="H89" s="5">
-        <v>3</v>
-      </c>
-      <c r="I89" s="5">
-        <v>52</v>
-      </c>
-      <c r="J89" s="5">
-        <v>127</v>
-      </c>
-      <c r="K89" s="5">
-        <v>97</v>
-      </c>
-      <c r="L89" s="5">
-        <v>80</v>
-      </c>
-      <c r="M89" s="5">
-        <v>58</v>
-      </c>
-      <c r="N89" s="5">
-        <v>36</v>
-      </c>
-      <c r="O89" s="5">
-        <v>19</v>
-      </c>
-      <c r="P89" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q89" s="5">
-        <v>3</v>
-      </c>
-      <c r="R89" s="5">
-        <v>1</v>
-      </c>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
       <c r="S89" s="5"/>
-      <c r="T89" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>143</v>
       </c>
@@ -4889,36 +4549,20 @@
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="5">
-        <v>2</v>
-      </c>
-      <c r="J90" s="5">
-        <v>23</v>
-      </c>
-      <c r="K90" s="5">
-        <v>75</v>
-      </c>
-      <c r="L90" s="5">
-        <v>96</v>
-      </c>
-      <c r="M90" s="5">
-        <v>67</v>
-      </c>
-      <c r="N90" s="5">
-        <v>33</v>
-      </c>
-      <c r="O90" s="5">
-        <v>13</v>
-      </c>
-      <c r="P90" s="5">
-        <v>5</v>
-      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
       <c r="T90" s="5"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>143</v>
       </c>
@@ -4952,7 +4596,7 @@
       <c r="S91" s="10"/>
       <c r="T91" s="10"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>143</v>
       </c>
@@ -4973,42 +4617,20 @@
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
-      <c r="I92" s="5">
-        <v>4</v>
-      </c>
-      <c r="J92" s="5">
-        <v>26</v>
-      </c>
-      <c r="K92" s="5">
-        <v>71</v>
-      </c>
-      <c r="L92" s="5">
-        <v>100</v>
-      </c>
-      <c r="M92" s="5">
-        <v>110</v>
-      </c>
-      <c r="N92" s="5">
-        <v>61</v>
-      </c>
-      <c r="O92" s="5">
-        <v>27</v>
-      </c>
-      <c r="P92" s="5">
-        <v>13</v>
-      </c>
-      <c r="Q92" s="5">
-        <v>7</v>
-      </c>
-      <c r="R92" s="5">
-        <v>2</v>
-      </c>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
       <c r="S92" s="5"/>
-      <c r="T92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>143</v>
       </c>
@@ -5028,45 +4650,21 @@
         <v>57</v>
       </c>
       <c r="G93" s="5"/>
-      <c r="H93" s="5">
-        <v>1</v>
-      </c>
-      <c r="I93" s="5">
-        <v>1</v>
-      </c>
-      <c r="J93" s="5">
-        <v>7</v>
-      </c>
-      <c r="K93" s="5">
-        <v>52</v>
-      </c>
-      <c r="L93" s="5">
-        <v>75</v>
-      </c>
-      <c r="M93" s="5">
-        <v>62</v>
-      </c>
-      <c r="N93" s="5">
-        <v>51</v>
-      </c>
-      <c r="O93" s="5">
-        <v>20</v>
-      </c>
-      <c r="P93" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q93" s="5">
-        <v>1</v>
-      </c>
-      <c r="R93" s="5">
-        <v>1</v>
-      </c>
-      <c r="S93" s="5">
-        <v>1</v>
-      </c>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5"/>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="R93" s="5"/>
+      <c r="S93" s="5"/>
       <c r="T93" s="5"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>143</v>
       </c>
@@ -5100,7 +4698,7 @@
       <c r="S94" s="10"/>
       <c r="T94" s="10"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>143</v>
       </c>
@@ -5121,38 +4719,20 @@
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="5">
-        <v>3</v>
-      </c>
-      <c r="J95" s="5">
-        <v>12</v>
-      </c>
-      <c r="K95" s="5">
-        <v>38</v>
-      </c>
-      <c r="L95" s="5">
-        <v>71</v>
-      </c>
-      <c r="M95" s="5">
-        <v>63</v>
-      </c>
-      <c r="N95" s="5">
-        <v>43</v>
-      </c>
-      <c r="O95" s="5">
-        <v>18</v>
-      </c>
-      <c r="P95" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q95" s="5">
-        <v>3</v>
-      </c>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
       <c r="T95" s="5"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -5173,42 +4753,20 @@
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="5">
-        <v>7</v>
-      </c>
-      <c r="J96" s="5">
-        <v>32</v>
-      </c>
-      <c r="K96" s="5">
-        <v>103</v>
-      </c>
-      <c r="L96" s="5">
-        <v>129</v>
-      </c>
-      <c r="M96" s="5">
-        <v>113</v>
-      </c>
-      <c r="N96" s="5">
-        <v>65</v>
-      </c>
-      <c r="O96" s="5">
-        <v>30</v>
-      </c>
-      <c r="P96" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q96" s="5">
-        <v>3</v>
-      </c>
-      <c r="R96" s="5">
-        <v>4</v>
-      </c>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
       <c r="S96" s="5"/>
-      <c r="T96" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>143</v>
       </c>
@@ -5219,7 +4777,7 @@
         <v>265</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>84</v>
@@ -5228,7 +4786,9 @@
         <v>61</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+      <c r="H97" s="10">
+        <v>6</v>
+      </c>
       <c r="I97" s="10"/>
       <c r="J97" s="10"/>
       <c r="K97" s="10"/>
@@ -5242,7 +4802,7 @@
       <c r="S97" s="10"/>
       <c r="T97" s="10"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>143</v>
       </c>
@@ -5276,7 +4836,7 @@
       <c r="S98" s="10"/>
       <c r="T98" s="10"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>143</v>
       </c>
@@ -5310,7 +4870,7 @@
       <c r="S99" s="10"/>
       <c r="T99" s="10"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>143</v>
       </c>
@@ -5331,40 +4891,20 @@
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="5">
-        <v>39</v>
-      </c>
-      <c r="J100" s="5">
-        <v>84</v>
-      </c>
-      <c r="K100" s="5">
-        <v>125</v>
-      </c>
-      <c r="L100" s="5">
-        <v>101</v>
-      </c>
-      <c r="M100" s="5">
-        <v>114</v>
-      </c>
-      <c r="N100" s="5">
-        <v>61</v>
-      </c>
-      <c r="O100" s="5">
-        <v>30</v>
-      </c>
-      <c r="P100" s="5">
-        <v>12</v>
-      </c>
-      <c r="Q100" s="5">
-        <v>7</v>
-      </c>
-      <c r="R100" s="5">
-        <v>4</v>
-      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>143</v>
       </c>
@@ -5385,38 +4925,20 @@
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
-      <c r="I101" s="5">
-        <v>38</v>
-      </c>
-      <c r="J101" s="5">
-        <v>59</v>
-      </c>
-      <c r="K101" s="5">
-        <v>73</v>
-      </c>
-      <c r="L101" s="5">
-        <v>53</v>
-      </c>
-      <c r="M101" s="5">
-        <v>48</v>
-      </c>
-      <c r="N101" s="5">
-        <v>24</v>
-      </c>
-      <c r="O101" s="5">
-        <v>18</v>
-      </c>
-      <c r="P101" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q101" s="5">
-        <v>2</v>
-      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>143</v>
       </c>
@@ -5436,43 +4958,21 @@
         <v>66</v>
       </c>
       <c r="G102" s="5"/>
-      <c r="H102" s="5">
-        <v>4</v>
-      </c>
-      <c r="I102" s="5">
-        <v>38</v>
-      </c>
-      <c r="J102" s="5">
-        <v>84</v>
-      </c>
-      <c r="K102" s="5">
-        <v>121</v>
-      </c>
-      <c r="L102" s="5">
-        <v>124</v>
-      </c>
-      <c r="M102" s="5">
-        <v>143</v>
-      </c>
-      <c r="N102" s="5">
-        <v>57</v>
-      </c>
-      <c r="O102" s="5">
-        <v>28</v>
-      </c>
-      <c r="P102" s="5">
-        <v>11</v>
-      </c>
-      <c r="Q102" s="5">
-        <v>5</v>
-      </c>
-      <c r="R102" s="5">
-        <v>1</v>
-      </c>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>143</v>
       </c>
@@ -5492,43 +4992,21 @@
         <v>67</v>
       </c>
       <c r="G103" s="5"/>
-      <c r="H103" s="5">
-        <v>7</v>
-      </c>
-      <c r="I103" s="5">
-        <v>55</v>
-      </c>
-      <c r="J103" s="5">
-        <v>140</v>
-      </c>
-      <c r="K103" s="5">
-        <v>173</v>
-      </c>
-      <c r="L103" s="5">
-        <v>152</v>
-      </c>
-      <c r="M103" s="5">
-        <v>108</v>
-      </c>
-      <c r="N103" s="5">
-        <v>60</v>
-      </c>
-      <c r="O103" s="5">
-        <v>22</v>
-      </c>
-      <c r="P103" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q103" s="5">
-        <v>1</v>
-      </c>
-      <c r="R103" s="5">
-        <v>1</v>
-      </c>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5548,43 +5026,21 @@
         <v>68</v>
       </c>
       <c r="G104" s="5"/>
-      <c r="H104" s="5">
-        <v>10</v>
-      </c>
-      <c r="I104" s="5">
-        <v>93</v>
-      </c>
-      <c r="J104" s="5">
-        <v>194</v>
-      </c>
-      <c r="K104" s="5">
-        <v>171</v>
-      </c>
-      <c r="L104" s="5">
-        <v>111</v>
-      </c>
-      <c r="M104" s="5">
-        <v>60</v>
-      </c>
-      <c r="N104" s="5">
-        <v>31</v>
-      </c>
-      <c r="O104" s="5">
-        <v>22</v>
-      </c>
-      <c r="P104" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q104" s="5">
-        <v>4</v>
-      </c>
-      <c r="R104" s="5">
-        <v>2</v>
-      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
       <c r="S104" s="5"/>
       <c r="T104" s="5"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>143</v>
       </c>
@@ -5605,38 +5061,20 @@
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
-      <c r="I105" s="5">
-        <v>2</v>
-      </c>
-      <c r="J105" s="5">
-        <v>22</v>
-      </c>
-      <c r="K105" s="5">
-        <v>65</v>
-      </c>
-      <c r="L105" s="5">
-        <v>82</v>
-      </c>
-      <c r="M105" s="5">
-        <v>60</v>
-      </c>
-      <c r="N105" s="5">
-        <v>27</v>
-      </c>
-      <c r="O105" s="5">
-        <v>17</v>
-      </c>
-      <c r="P105" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q105" s="5">
-        <v>3</v>
-      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
@@ -5657,40 +5095,20 @@
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
-      <c r="I106" s="5">
-        <v>2</v>
-      </c>
-      <c r="J106" s="5">
-        <v>10</v>
-      </c>
-      <c r="K106" s="5">
-        <v>36</v>
-      </c>
-      <c r="L106" s="5">
-        <v>78</v>
-      </c>
-      <c r="M106" s="5">
-        <v>51</v>
-      </c>
-      <c r="N106" s="5">
-        <v>37</v>
-      </c>
-      <c r="O106" s="5">
-        <v>24</v>
-      </c>
-      <c r="P106" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q106" s="5">
-        <v>2</v>
-      </c>
-      <c r="R106" s="5">
-        <v>1</v>
-      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
       <c r="S106" s="5"/>
       <c r="T106" s="5"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>143</v>
       </c>
@@ -5710,41 +5128,21 @@
         <v>71</v>
       </c>
       <c r="G107" s="5"/>
-      <c r="H107" s="5">
-        <v>5</v>
-      </c>
-      <c r="I107" s="5">
-        <v>39</v>
-      </c>
-      <c r="J107" s="5">
-        <v>86</v>
-      </c>
-      <c r="K107" s="5">
-        <v>84</v>
-      </c>
-      <c r="L107" s="5">
-        <v>91</v>
-      </c>
-      <c r="M107" s="5">
-        <v>72</v>
-      </c>
-      <c r="N107" s="5">
-        <v>39</v>
-      </c>
-      <c r="O107" s="5">
-        <v>20</v>
-      </c>
-      <c r="P107" s="5">
-        <v>7</v>
-      </c>
-      <c r="Q107" s="5">
-        <v>1</v>
-      </c>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="S107" s="5"/>
       <c r="T107" s="5"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>143</v>
       </c>
@@ -5765,42 +5163,20 @@
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="5">
-        <v>68</v>
-      </c>
-      <c r="J108" s="5">
-        <v>104</v>
-      </c>
-      <c r="K108" s="5">
-        <v>55</v>
-      </c>
-      <c r="L108" s="5">
-        <v>33</v>
-      </c>
-      <c r="M108" s="5">
-        <v>24</v>
-      </c>
-      <c r="N108" s="5">
-        <v>13</v>
-      </c>
-      <c r="O108" s="5">
-        <v>15</v>
-      </c>
-      <c r="P108" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="5">
-        <v>3</v>
-      </c>
-      <c r="R108" s="5">
-        <v>2</v>
-      </c>
-      <c r="S108" s="5">
-        <v>1</v>
-      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
       <c r="T108" s="5"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>143</v>
       </c>
@@ -5821,38 +5197,20 @@
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="5">
-        <v>24</v>
-      </c>
-      <c r="J109" s="5">
-        <v>66</v>
-      </c>
-      <c r="K109" s="5">
-        <v>66</v>
-      </c>
-      <c r="L109" s="5">
-        <v>70</v>
-      </c>
-      <c r="M109" s="5">
-        <v>72</v>
-      </c>
-      <c r="N109" s="5">
-        <v>26</v>
-      </c>
-      <c r="O109" s="5">
-        <v>17</v>
-      </c>
-      <c r="P109" s="5">
-        <v>3</v>
-      </c>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
-      <c r="R109" s="5">
-        <v>1</v>
-      </c>
+      <c r="R109" s="5"/>
       <c r="S109" s="5"/>
       <c r="T109" s="5"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>143</v>
       </c>
@@ -5872,45 +5230,21 @@
         <v>74</v>
       </c>
       <c r="G110" s="5"/>
-      <c r="H110" s="5">
-        <v>3</v>
-      </c>
-      <c r="I110" s="5">
-        <v>42</v>
-      </c>
-      <c r="J110" s="5">
-        <v>99</v>
-      </c>
-      <c r="K110" s="5">
-        <v>80</v>
-      </c>
-      <c r="L110" s="5">
-        <v>51</v>
-      </c>
-      <c r="M110" s="5">
-        <v>57</v>
-      </c>
-      <c r="N110" s="5">
-        <v>21</v>
-      </c>
-      <c r="O110" s="5">
-        <v>11</v>
-      </c>
-      <c r="P110" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="5">
-        <v>1</v>
-      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="5">
-        <v>1</v>
-      </c>
-      <c r="T110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>143</v>
       </c>
@@ -5930,39 +5264,21 @@
         <v>75</v>
       </c>
       <c r="G111" s="5"/>
-      <c r="H111" s="5">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5">
-        <v>27</v>
-      </c>
-      <c r="J111" s="5">
-        <v>39</v>
-      </c>
-      <c r="K111" s="5">
-        <v>51</v>
-      </c>
-      <c r="L111" s="5">
-        <v>49</v>
-      </c>
-      <c r="M111" s="5">
-        <v>37</v>
-      </c>
-      <c r="N111" s="5">
-        <v>25</v>
-      </c>
-      <c r="O111" s="5">
-        <v>17</v>
-      </c>
-      <c r="P111" s="5">
-        <v>4</v>
-      </c>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="5"/>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5"/>
       <c r="T111" s="5"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>143</v>
       </c>
@@ -5982,39 +5298,21 @@
         <v>76</v>
       </c>
       <c r="G112" s="5"/>
-      <c r="H112" s="5">
-        <v>2</v>
-      </c>
-      <c r="I112" s="5">
-        <v>60</v>
-      </c>
-      <c r="J112" s="5">
-        <v>98</v>
-      </c>
-      <c r="K112" s="5">
-        <v>79</v>
-      </c>
-      <c r="L112" s="5">
-        <v>78</v>
-      </c>
-      <c r="M112" s="5">
-        <v>76</v>
-      </c>
-      <c r="N112" s="5">
-        <v>35</v>
-      </c>
-      <c r="O112" s="5">
-        <v>11</v>
-      </c>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
       <c r="P112" s="5"/>
-      <c r="Q112" s="5">
-        <v>2</v>
-      </c>
+      <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
       <c r="T112" s="5"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>143</v>
       </c>
@@ -6034,45 +5332,21 @@
         <v>77</v>
       </c>
       <c r="G113" s="5"/>
-      <c r="H113" s="5">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5">
-        <v>29</v>
-      </c>
-      <c r="J113" s="5">
-        <v>76</v>
-      </c>
-      <c r="K113" s="5">
-        <v>102</v>
-      </c>
-      <c r="L113" s="5">
-        <v>104</v>
-      </c>
-      <c r="M113" s="5">
-        <v>87</v>
-      </c>
-      <c r="N113" s="5">
-        <v>34</v>
-      </c>
-      <c r="O113" s="5">
-        <v>20</v>
-      </c>
-      <c r="P113" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="5">
-        <v>7</v>
-      </c>
-      <c r="R113" s="5">
-        <v>1</v>
-      </c>
-      <c r="S113" s="5">
-        <v>2</v>
-      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
       <c r="T113" s="5"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>143</v>
       </c>
@@ -6093,40 +5367,20 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="5">
-        <v>5</v>
-      </c>
-      <c r="J114" s="5">
-        <v>20</v>
-      </c>
-      <c r="K114" s="5">
-        <v>58</v>
-      </c>
-      <c r="L114" s="5">
-        <v>76</v>
-      </c>
-      <c r="M114" s="5">
-        <v>74</v>
-      </c>
-      <c r="N114" s="5">
-        <v>43</v>
-      </c>
-      <c r="O114" s="5">
-        <v>24</v>
-      </c>
-      <c r="P114" s="5">
-        <v>6</v>
-      </c>
-      <c r="Q114" s="5">
-        <v>8</v>
-      </c>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
-      <c r="S114" s="5">
-        <v>2</v>
-      </c>
+      <c r="S114" s="5"/>
       <c r="T114" s="5"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>143</v>
       </c>
@@ -6146,39 +5400,21 @@
         <v>79</v>
       </c>
       <c r="G115" s="5"/>
-      <c r="H115" s="5">
-        <v>7</v>
-      </c>
-      <c r="I115" s="5">
-        <v>58</v>
-      </c>
-      <c r="J115" s="5">
-        <v>113</v>
-      </c>
-      <c r="K115" s="5">
-        <v>94</v>
-      </c>
-      <c r="L115" s="5">
-        <v>95</v>
-      </c>
-      <c r="M115" s="5">
-        <v>53</v>
-      </c>
-      <c r="N115" s="5">
-        <v>23</v>
-      </c>
-      <c r="O115" s="5">
-        <v>11</v>
-      </c>
-      <c r="P115" s="5">
-        <v>5</v>
-      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
       <c r="T115" s="5"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>143</v>
       </c>
@@ -6198,43 +5434,21 @@
         <v>80</v>
       </c>
       <c r="G116" s="5"/>
-      <c r="H116" s="5">
-        <v>3</v>
-      </c>
-      <c r="I116" s="5">
-        <v>62</v>
-      </c>
-      <c r="J116" s="5">
-        <v>79</v>
-      </c>
-      <c r="K116" s="5">
-        <v>54</v>
-      </c>
-      <c r="L116" s="5">
-        <v>44</v>
-      </c>
-      <c r="M116" s="5">
-        <v>24</v>
-      </c>
-      <c r="N116" s="5">
-        <v>20</v>
-      </c>
-      <c r="O116" s="5">
-        <v>5</v>
-      </c>
-      <c r="P116" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q116" s="5">
-        <v>1</v>
-      </c>
-      <c r="R116" s="5">
-        <v>1</v>
-      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="R116" s="5"/>
       <c r="S116" s="5"/>
       <c r="T116" s="5"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>143</v>
       </c>
@@ -6254,41 +5468,21 @@
         <v>81</v>
       </c>
       <c r="G117" s="5"/>
-      <c r="H117" s="5">
-        <v>2</v>
-      </c>
-      <c r="I117" s="5">
-        <v>15</v>
-      </c>
-      <c r="J117" s="5">
-        <v>53</v>
-      </c>
-      <c r="K117" s="5">
-        <v>55</v>
-      </c>
-      <c r="L117" s="5">
-        <v>63</v>
-      </c>
-      <c r="M117" s="5">
-        <v>58</v>
-      </c>
-      <c r="N117" s="5">
-        <v>18</v>
-      </c>
-      <c r="O117" s="5">
-        <v>13</v>
-      </c>
-      <c r="P117" s="5">
-        <v>1</v>
-      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
-      <c r="R117" s="5">
-        <v>2</v>
-      </c>
+      <c r="R117" s="5"/>
       <c r="S117" s="5"/>
       <c r="T117" s="5"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>143</v>
       </c>
@@ -6309,38 +5503,20 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
-      <c r="I118" s="5">
-        <v>51</v>
-      </c>
-      <c r="J118" s="5">
-        <v>122</v>
-      </c>
-      <c r="K118" s="5">
-        <v>104</v>
-      </c>
-      <c r="L118" s="5">
-        <v>92</v>
-      </c>
-      <c r="M118" s="5">
-        <v>79</v>
-      </c>
-      <c r="N118" s="5">
-        <v>28</v>
-      </c>
-      <c r="O118" s="5">
-        <v>16</v>
-      </c>
-      <c r="P118" s="5">
-        <v>4</v>
-      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5"/>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
-      <c r="R118" s="5">
-        <v>1</v>
-      </c>
+      <c r="R118" s="5"/>
       <c r="S118" s="5"/>
       <c r="T118" s="5"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>143</v>
       </c>
@@ -6360,45 +5536,21 @@
         <v>83</v>
       </c>
       <c r="G119" s="5"/>
-      <c r="H119" s="5">
-        <v>2</v>
-      </c>
-      <c r="I119" s="5">
-        <v>24</v>
-      </c>
-      <c r="J119" s="5">
-        <v>71</v>
-      </c>
-      <c r="K119" s="5">
-        <v>56</v>
-      </c>
-      <c r="L119" s="5">
-        <v>71</v>
-      </c>
-      <c r="M119" s="5">
-        <v>48</v>
-      </c>
-      <c r="N119" s="5">
-        <v>22</v>
-      </c>
-      <c r="O119" s="5">
-        <v>14</v>
-      </c>
-      <c r="P119" s="5">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="5">
-        <v>5</v>
-      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="5"/>
+      <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
-      <c r="S119" s="5">
-        <v>1</v>
-      </c>
-      <c r="T119" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S119" s="5"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
@@ -6420,7 +5572,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
@@ -6442,7 +5594,7 @@
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
@@ -6464,7 +5616,7 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
@@ -6486,7 +5638,7 @@
       <c r="S123" s="10"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
@@ -6508,7 +5660,7 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
@@ -6530,7 +5682,7 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
@@ -6552,7 +5704,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
@@ -6574,7 +5726,7 @@
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
@@ -6596,7 +5748,7 @@
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
@@ -6618,7 +5770,7 @@
       <c r="S129" s="10"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
@@ -6640,7 +5792,7 @@
       <c r="S130" s="10"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
@@ -6662,7 +5814,7 @@
       <c r="S131" s="10"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
@@ -6684,7 +5836,7 @@
       <c r="S132" s="10"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
@@ -6706,7 +5858,7 @@
       <c r="S133" s="10"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
@@ -6728,7 +5880,7 @@
       <c r="S134" s="10"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
@@ -6750,7 +5902,7 @@
       <c r="S135" s="10"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
@@ -6772,7 +5924,7 @@
       <c r="S136" s="10"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
@@ -6794,7 +5946,7 @@
       <c r="S137" s="10"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
@@ -6816,7 +5968,7 @@
       <c r="S138" s="10"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
@@ -6838,7 +5990,7 @@
       <c r="S139" s="10"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
@@ -6860,7 +6012,7 @@
       <c r="S140" s="10"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
@@ -6882,7 +6034,7 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
@@ -6904,7 +6056,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
@@ -6926,7 +6078,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
@@ -6948,7 +6100,7 @@
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="11"/>
@@ -6970,7 +6122,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
@@ -6992,7 +6144,7 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
@@ -7014,7 +6166,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
@@ -7036,7 +6188,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
@@ -7058,7 +6210,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
@@ -7080,7 +6232,7 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
@@ -7102,7 +6254,7 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="11"/>
@@ -7124,7 +6276,7 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
@@ -7146,7 +6298,7 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="11"/>
@@ -7168,7 +6320,7 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="11"/>
@@ -7190,7 +6342,7 @@
       <c r="S155" s="10"/>
       <c r="T155" s="10"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
@@ -7212,7 +6364,7 @@
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
@@ -7234,7 +6386,7 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
@@ -7256,7 +6408,7 @@
       <c r="S158" s="10"/>
       <c r="T158" s="10"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
@@ -7278,7 +6430,7 @@
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
@@ -7300,7 +6452,7 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
@@ -7322,7 +6474,7 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="11"/>
@@ -7344,7 +6496,7 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
@@ -7366,7 +6518,7 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="11"/>
@@ -7388,7 +6540,7 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="11"/>
@@ -7410,7 +6562,7 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
@@ -7432,7 +6584,7 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
@@ -7454,7 +6606,7 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
@@ -7476,7 +6628,7 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
@@ -7498,7 +6650,7 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
@@ -7520,7 +6672,7 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
@@ -7542,7 +6694,7 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="11"/>
@@ -7564,7 +6716,7 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
@@ -7586,7 +6738,7 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="11"/>
@@ -7608,7 +6760,7 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="11"/>
@@ -7630,7 +6782,7 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
@@ -7652,7 +6804,7 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
@@ -7674,7 +6826,7 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
@@ -7696,7 +6848,7 @@
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
@@ -7718,7 +6870,7 @@
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
@@ -7740,7 +6892,7 @@
       <c r="S180" s="10"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
@@ -7762,7 +6914,7 @@
       <c r="S181" s="10"/>
       <c r="T181" s="10"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="11"/>
@@ -7784,7 +6936,7 @@
       <c r="S182" s="10"/>
       <c r="T182" s="10"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
@@ -7806,7 +6958,7 @@
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
@@ -7828,7 +6980,7 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
@@ -7850,7 +7002,7 @@
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="11"/>
@@ -7872,7 +7024,7 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="11"/>
@@ -7894,7 +7046,7 @@
       <c r="S187" s="10"/>
       <c r="T187" s="10"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="11"/>
@@ -7916,7 +7068,7 @@
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="11"/>
@@ -7938,7 +7090,7 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
@@ -7960,7 +7112,7 @@
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="11"/>
@@ -7982,7 +7134,7 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="11"/>
@@ -8004,7 +7156,7 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="11"/>
@@ -8026,7 +7178,7 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="11"/>
@@ -8048,7 +7200,7 @@
       <c r="S194" s="10"/>
       <c r="T194" s="10"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="11"/>
@@ -8070,7 +7222,7 @@
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="11"/>
@@ -8092,7 +7244,7 @@
       <c r="S196" s="10"/>
       <c r="T196" s="10"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="11"/>
@@ -8114,7 +7266,7 @@
       <c r="S197" s="10"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="11"/>
@@ -8136,7 +7288,7 @@
       <c r="S198" s="10"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="11"/>
@@ -8158,7 +7310,7 @@
       <c r="S199" s="10"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
@@ -8180,7 +7332,7 @@
       <c r="S200" s="10"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="11"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9E6762-96FF-4E22-B06C-F52498ED8E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533BAE7-6699-4075-9E96-4D34387BC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,6 +1018,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1129,7 +1136,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1153,6 +1160,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,8 +1493,8 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1569,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>143</v>
       </c>
@@ -1578,22 +1588,22 @@
       <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>143</v>
       </c>
@@ -1612,22 +1622,22 @@
       <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
@@ -1646,22 +1656,22 @@
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
@@ -1680,22 +1690,22 @@
       <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>143</v>
       </c>
@@ -1714,22 +1724,22 @@
       <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+    </row>
+    <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>143</v>
       </c>
@@ -1748,22 +1758,22 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+    </row>
+    <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>143</v>
       </c>
@@ -1782,22 +1792,22 @@
       <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>143</v>
       </c>
@@ -1816,22 +1826,22 @@
       <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
@@ -1850,22 +1860,22 @@
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+    </row>
+    <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>143</v>
       </c>
@@ -1884,22 +1894,22 @@
       <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+    </row>
+    <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>143</v>
       </c>
@@ -1918,22 +1928,22 @@
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+    </row>
+    <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>143</v>
       </c>
@@ -1952,22 +1962,22 @@
       <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>143</v>
       </c>
@@ -1986,22 +1996,22 @@
       <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="1:20" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>143</v>
       </c>
@@ -2020,22 +2030,22 @@
       <c r="F15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>143</v>
       </c>
@@ -2054,22 +2064,22 @@
       <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+    </row>
+    <row r="17" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>143</v>
       </c>
@@ -2088,22 +2098,22 @@
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>143</v>
       </c>
@@ -2122,22 +2132,22 @@
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+    </row>
+    <row r="19" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>143</v>
       </c>
@@ -2156,22 +2166,22 @@
       <c r="F19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>143</v>
       </c>
@@ -2190,22 +2200,22 @@
       <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>143</v>
       </c>
@@ -2224,24 +2234,22 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+    </row>
+    <row r="22" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>143</v>
       </c>
@@ -2260,22 +2268,22 @@
       <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>143</v>
       </c>
@@ -2294,22 +2302,22 @@
       <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+    </row>
+    <row r="24" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>143</v>
       </c>
@@ -2328,26 +2336,22 @@
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5">
-        <v>27</v>
-      </c>
-      <c r="J24" s="5">
-        <v>7</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
@@ -2366,22 +2370,22 @@
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>143</v>
       </c>
@@ -2400,22 +2404,22 @@
       <c r="F26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>143</v>
       </c>
@@ -2434,22 +2438,22 @@
       <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>143</v>
       </c>
@@ -2468,22 +2472,22 @@
       <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>143</v>
       </c>
@@ -2502,22 +2506,22 @@
       <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>143</v>
       </c>
@@ -2536,22 +2540,22 @@
       <c r="F30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>143</v>
       </c>
@@ -2570,22 +2574,22 @@
       <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>143</v>
       </c>
@@ -2604,22 +2608,22 @@
       <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>143</v>
       </c>
@@ -2638,22 +2642,22 @@
       <c r="F33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>143</v>
       </c>
@@ -2672,22 +2676,22 @@
       <c r="F34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>143</v>
       </c>
@@ -2706,22 +2710,22 @@
       <c r="F35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>143</v>
       </c>
@@ -2740,22 +2744,22 @@
       <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>143</v>
       </c>
@@ -2774,22 +2778,22 @@
       <c r="F37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>143</v>
       </c>
@@ -2808,22 +2812,22 @@
       <c r="F38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+    </row>
+    <row r="39" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>143</v>
       </c>
@@ -2842,22 +2846,22 @@
       <c r="F39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+    </row>
+    <row r="40" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>143</v>
       </c>
@@ -2876,22 +2880,22 @@
       <c r="F40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+    </row>
+    <row r="41" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>143</v>
       </c>
@@ -2910,22 +2914,22 @@
       <c r="F41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+    </row>
+    <row r="42" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>143</v>
       </c>
@@ -2944,22 +2948,22 @@
       <c r="F42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>143</v>
       </c>
@@ -2978,44 +2982,44 @@
       <c r="F43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="9"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+    </row>
+    <row r="45" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>143</v>
       </c>
@@ -3034,22 +3038,22 @@
       <c r="F45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+    </row>
+    <row r="46" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>143</v>
       </c>
@@ -3068,22 +3072,22 @@
       <c r="F46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+    </row>
+    <row r="47" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>143</v>
       </c>
@@ -3102,22 +3106,22 @@
       <c r="F47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+    </row>
+    <row r="48" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>143</v>
       </c>
@@ -3136,22 +3140,22 @@
       <c r="F48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+    </row>
+    <row r="49" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>143</v>
       </c>
@@ -3170,22 +3174,22 @@
       <c r="F49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+    </row>
+    <row r="50" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
@@ -3204,22 +3208,22 @@
       <c r="F50" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+    </row>
+    <row r="51" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>143</v>
       </c>
@@ -3238,22 +3242,22 @@
       <c r="F51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+    </row>
+    <row r="52" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>143</v>
       </c>
@@ -3272,44 +3276,44 @@
       <c r="F52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+    </row>
+    <row r="53" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="9"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+    </row>
+    <row r="54" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>143</v>
       </c>
@@ -3328,22 +3332,22 @@
       <c r="F54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+    </row>
+    <row r="55" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>143</v>
       </c>
@@ -3362,22 +3366,22 @@
       <c r="F55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+    </row>
+    <row r="56" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>143</v>
       </c>
@@ -3396,22 +3400,22 @@
       <c r="F56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+    </row>
+    <row r="57" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>143</v>
       </c>
@@ -3430,22 +3434,22 @@
       <c r="F57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+    </row>
+    <row r="58" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>143</v>
       </c>
@@ -3464,22 +3468,22 @@
       <c r="F58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+    </row>
+    <row r="59" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>143</v>
       </c>
@@ -3498,22 +3502,22 @@
       <c r="F59" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+    </row>
+    <row r="60" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
@@ -3532,22 +3536,22 @@
       <c r="F60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+    </row>
+    <row r="61" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>143</v>
       </c>
@@ -3566,22 +3570,22 @@
       <c r="F61" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+    </row>
+    <row r="62" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>143</v>
       </c>
@@ -3600,22 +3604,22 @@
       <c r="F62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+    </row>
+    <row r="63" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>143</v>
       </c>
@@ -3634,22 +3638,22 @@
       <c r="F63" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+    </row>
+    <row r="64" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>143</v>
       </c>
@@ -3668,22 +3672,22 @@
       <c r="F64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="15"/>
+    </row>
+    <row r="65" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>143</v>
       </c>
@@ -3702,22 +3706,22 @@
       <c r="F65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+    </row>
+    <row r="66" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>143</v>
       </c>
@@ -3736,22 +3740,22 @@
       <c r="F66" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+    </row>
+    <row r="67" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>143</v>
       </c>
@@ -3770,22 +3774,22 @@
       <c r="F67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+    </row>
+    <row r="68" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>143</v>
       </c>
@@ -3804,22 +3808,22 @@
       <c r="F68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+    </row>
+    <row r="69" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>143</v>
       </c>
@@ -3838,22 +3842,22 @@
       <c r="F69" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+    </row>
+    <row r="70" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>143</v>
       </c>
@@ -3872,22 +3876,22 @@
       <c r="F70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+    </row>
+    <row r="71" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
@@ -3906,22 +3910,22 @@
       <c r="F71" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+    </row>
+    <row r="72" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>143</v>
       </c>
@@ -3940,22 +3944,22 @@
       <c r="F72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+    </row>
+    <row r="73" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>143</v>
       </c>
@@ -3974,22 +3978,22 @@
       <c r="F73" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+    </row>
+    <row r="74" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>143</v>
       </c>
@@ -4008,22 +4012,22 @@
       <c r="F74" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+    </row>
+    <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>143</v>
       </c>
@@ -4042,22 +4046,22 @@
       <c r="F75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+    </row>
+    <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>143</v>
       </c>
@@ -4076,22 +4080,22 @@
       <c r="F76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+    </row>
+    <row r="77" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>143</v>
       </c>
@@ -4110,22 +4114,22 @@
       <c r="F77" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+    </row>
+    <row r="78" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>143</v>
       </c>
@@ -4144,22 +4148,22 @@
       <c r="F78" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+    </row>
+    <row r="79" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>143</v>
       </c>
@@ -4178,22 +4182,22 @@
       <c r="F79" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+    </row>
+    <row r="80" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>143</v>
       </c>
@@ -4212,22 +4216,22 @@
       <c r="F80" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+    </row>
+    <row r="81" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>143</v>
       </c>
@@ -4246,22 +4250,22 @@
       <c r="F81" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+    </row>
+    <row r="82" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>143</v>
       </c>
@@ -4280,22 +4284,22 @@
       <c r="F82" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+    </row>
+    <row r="83" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>143</v>
       </c>
@@ -4314,22 +4318,22 @@
       <c r="F83" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+    </row>
+    <row r="84" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>143</v>
       </c>
@@ -4348,22 +4352,22 @@
       <c r="F84" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+    </row>
+    <row r="85" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>143</v>
       </c>
@@ -4382,22 +4386,22 @@
       <c r="F85" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+    </row>
+    <row r="86" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>143</v>
       </c>
@@ -4416,22 +4420,22 @@
       <c r="F86" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+    </row>
+    <row r="87" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>143</v>
       </c>
@@ -4450,22 +4454,22 @@
       <c r="F87" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+    </row>
+    <row r="88" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>143</v>
       </c>
@@ -4484,22 +4488,22 @@
       <c r="F88" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+    </row>
+    <row r="89" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>143</v>
       </c>
@@ -4518,22 +4522,22 @@
       <c r="F89" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+    </row>
+    <row r="90" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>143</v>
       </c>
@@ -4552,22 +4556,22 @@
       <c r="F90" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+    </row>
+    <row r="91" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>143</v>
       </c>
@@ -4586,22 +4590,22 @@
       <c r="F91" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+    </row>
+    <row r="92" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>143</v>
       </c>
@@ -4620,22 +4624,22 @@
       <c r="F92" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+    </row>
+    <row r="93" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>143</v>
       </c>
@@ -4654,22 +4658,22 @@
       <c r="F93" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+    </row>
+    <row r="94" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>143</v>
       </c>
@@ -4688,22 +4692,22 @@
       <c r="F94" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="10"/>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+    </row>
+    <row r="95" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>143</v>
       </c>
@@ -4722,22 +4726,22 @@
       <c r="F95" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+    </row>
+    <row r="96" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>143</v>
       </c>
@@ -4756,22 +4760,22 @@
       <c r="F96" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+    </row>
+    <row r="97" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>143</v>
       </c>
@@ -4790,22 +4794,22 @@
       <c r="F97" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-      <c r="R97" s="10"/>
-      <c r="S97" s="10"/>
-      <c r="T97" s="10"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="15"/>
+      <c r="T97" s="15"/>
+    </row>
+    <row r="98" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>143</v>
       </c>
@@ -4824,22 +4828,22 @@
       <c r="F98" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="10"/>
-      <c r="S98" s="10"/>
-      <c r="T98" s="10"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="15"/>
+    </row>
+    <row r="99" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>143</v>
       </c>
@@ -4858,22 +4862,22 @@
       <c r="F99" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-      <c r="R99" s="10"/>
-      <c r="S99" s="10"/>
-      <c r="T99" s="10"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="15"/>
+    </row>
+    <row r="100" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>143</v>
       </c>
@@ -4892,22 +4896,22 @@
       <c r="F100" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+    </row>
+    <row r="101" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>143</v>
       </c>
@@ -4926,22 +4930,22 @@
       <c r="F101" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="17"/>
+      <c r="T101" s="17"/>
+    </row>
+    <row r="102" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>143</v>
       </c>
@@ -4960,22 +4964,22 @@
       <c r="F102" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+    </row>
+    <row r="103" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>143</v>
       </c>
@@ -4994,22 +4998,22 @@
       <c r="F103" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="17"/>
+      <c r="T103" s="17"/>
+    </row>
+    <row r="104" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>143</v>
       </c>
@@ -5028,22 +5032,22 @@
       <c r="F104" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+    </row>
+    <row r="105" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>143</v>
       </c>
@@ -5062,22 +5066,22 @@
       <c r="F105" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="17"/>
+      <c r="T105" s="17"/>
+    </row>
+    <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>143</v>
       </c>
@@ -5096,22 +5100,22 @@
       <c r="F106" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+    </row>
+    <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>143</v>
       </c>
@@ -5130,22 +5134,22 @@
       <c r="F107" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="17"/>
+    </row>
+    <row r="108" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>143</v>
       </c>
@@ -5164,22 +5168,22 @@
       <c r="F108" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+    </row>
+    <row r="109" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>143</v>
       </c>
@@ -5198,22 +5202,22 @@
       <c r="F109" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+    </row>
+    <row r="110" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>143</v>
       </c>
@@ -5232,22 +5236,22 @@
       <c r="F110" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+    </row>
+    <row r="111" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>143</v>
       </c>
@@ -5266,22 +5270,22 @@
       <c r="F111" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+    </row>
+    <row r="112" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>143</v>
       </c>
@@ -5300,22 +5304,22 @@
       <c r="F112" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+    </row>
+    <row r="113" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>143</v>
       </c>
@@ -5334,22 +5338,22 @@
       <c r="F113" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+    </row>
+    <row r="114" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>143</v>
       </c>
@@ -5368,22 +5372,22 @@
       <c r="F114" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+    </row>
+    <row r="115" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>143</v>
       </c>
@@ -5402,22 +5406,22 @@
       <c r="F115" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+    </row>
+    <row r="116" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>143</v>
       </c>
@@ -5436,22 +5440,22 @@
       <c r="F116" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+    </row>
+    <row r="117" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>143</v>
       </c>
@@ -5470,22 +5474,22 @@
       <c r="F117" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+    </row>
+    <row r="118" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>143</v>
       </c>
@@ -5504,22 +5508,22 @@
       <c r="F118" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+    </row>
+    <row r="119" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>143</v>
       </c>
@@ -5538,1824 +5542,1824 @@
       <c r="F119" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+    </row>
+    <row r="120" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-      <c r="Q120" s="10"/>
-      <c r="R120" s="10"/>
-      <c r="S120" s="10"/>
-      <c r="T120" s="10"/>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="15"/>
+      <c r="S120" s="15"/>
+      <c r="T120" s="15"/>
+    </row>
+    <row r="121" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
-      <c r="Q121" s="10"/>
-      <c r="R121" s="10"/>
-      <c r="S121" s="10"/>
-      <c r="T121" s="10"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="15"/>
+      <c r="S121" s="15"/>
+      <c r="T121" s="15"/>
+    </row>
+    <row r="122" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="11"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="10"/>
-      <c r="P122" s="10"/>
-      <c r="Q122" s="10"/>
-      <c r="R122" s="10"/>
-      <c r="S122" s="10"/>
-      <c r="T122" s="10"/>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="15"/>
+    </row>
+    <row r="123" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
-      <c r="Q123" s="10"/>
-      <c r="R123" s="10"/>
-      <c r="S123" s="10"/>
-      <c r="T123" s="10"/>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="15"/>
+      <c r="S123" s="15"/>
+      <c r="T123" s="15"/>
+    </row>
+    <row r="124" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="11"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-      <c r="Q124" s="10"/>
-      <c r="R124" s="10"/>
-      <c r="S124" s="10"/>
-      <c r="T124" s="10"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="15"/>
+    </row>
+    <row r="125" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="11"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10"/>
-      <c r="R125" s="10"/>
-      <c r="S125" s="10"/>
-      <c r="T125" s="10"/>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="15"/>
+    </row>
+    <row r="126" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
-      <c r="Q126" s="10"/>
-      <c r="R126" s="10"/>
-      <c r="S126" s="10"/>
-      <c r="T126" s="10"/>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+      <c r="S126" s="15"/>
+      <c r="T126" s="15"/>
+    </row>
+    <row r="127" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-      <c r="R127" s="10"/>
-      <c r="S127" s="10"/>
-      <c r="T127" s="10"/>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="15"/>
+    </row>
+    <row r="128" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="10"/>
-      <c r="R128" s="10"/>
-      <c r="S128" s="10"/>
-      <c r="T128" s="10"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
+      <c r="S128" s="15"/>
+      <c r="T128" s="15"/>
+    </row>
+    <row r="129" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="10"/>
-      <c r="S129" s="10"/>
-      <c r="T129" s="10"/>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
+      <c r="S129" s="15"/>
+      <c r="T129" s="15"/>
+    </row>
+    <row r="130" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
-      <c r="R130" s="10"/>
-      <c r="S130" s="10"/>
-      <c r="T130" s="10"/>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="15"/>
+      <c r="T130" s="15"/>
+    </row>
+    <row r="131" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="10"/>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
+      <c r="S131" s="15"/>
+      <c r="T131" s="15"/>
+    </row>
+    <row r="132" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="11"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-      <c r="R132" s="10"/>
-      <c r="S132" s="10"/>
-      <c r="T132" s="10"/>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+      <c r="S132" s="15"/>
+      <c r="T132" s="15"/>
+    </row>
+    <row r="133" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
-      <c r="T133" s="10"/>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
+      <c r="S133" s="15"/>
+      <c r="T133" s="15"/>
+    </row>
+    <row r="134" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="11"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="10"/>
-      <c r="T134" s="10"/>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+      <c r="S134" s="15"/>
+      <c r="T134" s="15"/>
+    </row>
+    <row r="135" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="11"/>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="10"/>
-      <c r="R135" s="10"/>
-      <c r="S135" s="10"/>
-      <c r="T135" s="10"/>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="15"/>
+    </row>
+    <row r="136" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
-      <c r="Q136" s="10"/>
-      <c r="R136" s="10"/>
-      <c r="S136" s="10"/>
-      <c r="T136" s="10"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="15"/>
+      <c r="T136" s="15"/>
+    </row>
+    <row r="137" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
-      <c r="Q137" s="10"/>
-      <c r="R137" s="10"/>
-      <c r="S137" s="10"/>
-      <c r="T137" s="10"/>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
+      <c r="S137" s="15"/>
+      <c r="T137" s="15"/>
+    </row>
+    <row r="138" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
-      <c r="Q138" s="10"/>
-      <c r="R138" s="10"/>
-      <c r="S138" s="10"/>
-      <c r="T138" s="10"/>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="15"/>
+      <c r="M138" s="15"/>
+      <c r="N138" s="15"/>
+      <c r="O138" s="15"/>
+      <c r="P138" s="15"/>
+      <c r="Q138" s="15"/>
+      <c r="R138" s="15"/>
+      <c r="S138" s="15"/>
+      <c r="T138" s="15"/>
+    </row>
+    <row r="139" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
-      <c r="Q139" s="10"/>
-      <c r="R139" s="10"/>
-      <c r="S139" s="10"/>
-      <c r="T139" s="10"/>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+      <c r="Q139" s="15"/>
+      <c r="R139" s="15"/>
+      <c r="S139" s="15"/>
+      <c r="T139" s="15"/>
+    </row>
+    <row r="140" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="10"/>
-      <c r="R140" s="10"/>
-      <c r="S140" s="10"/>
-      <c r="T140" s="10"/>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15"/>
+      <c r="N140" s="15"/>
+      <c r="O140" s="15"/>
+      <c r="P140" s="15"/>
+      <c r="Q140" s="15"/>
+      <c r="R140" s="15"/>
+      <c r="S140" s="15"/>
+      <c r="T140" s="15"/>
+    </row>
+    <row r="141" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="10"/>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="15"/>
+      <c r="S141" s="15"/>
+      <c r="T141" s="15"/>
+    </row>
+    <row r="142" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="11"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10"/>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
-      <c r="T142" s="10"/>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="15"/>
+    </row>
+    <row r="143" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-      <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
-      <c r="Q143" s="10"/>
-      <c r="R143" s="10"/>
-      <c r="S143" s="10"/>
-      <c r="T143" s="10"/>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
+      <c r="S143" s="15"/>
+      <c r="T143" s="15"/>
+    </row>
+    <row r="144" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="10"/>
-      <c r="P144" s="10"/>
-      <c r="Q144" s="10"/>
-      <c r="R144" s="10"/>
-      <c r="S144" s="10"/>
-      <c r="T144" s="10"/>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
+      <c r="S144" s="15"/>
+      <c r="T144" s="15"/>
+    </row>
+    <row r="145" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="11"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-      <c r="R145" s="10"/>
-      <c r="S145" s="10"/>
-      <c r="T145" s="10"/>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="15"/>
+    </row>
+    <row r="146" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="10"/>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="15"/>
+    </row>
+    <row r="147" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-      <c r="R147" s="10"/>
-      <c r="S147" s="10"/>
-      <c r="T147" s="10"/>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
+      <c r="S147" s="15"/>
+      <c r="T147" s="15"/>
+    </row>
+    <row r="148" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
-      <c r="Q148" s="10"/>
-      <c r="R148" s="10"/>
-      <c r="S148" s="10"/>
-      <c r="T148" s="10"/>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="15"/>
+    </row>
+    <row r="149" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
-      <c r="R149" s="10"/>
-      <c r="S149" s="10"/>
-      <c r="T149" s="10"/>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="15"/>
+    </row>
+    <row r="150" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="10"/>
-      <c r="K150" s="10"/>
-      <c r="L150" s="10"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="10"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
-      <c r="R150" s="10"/>
-      <c r="S150" s="10"/>
-      <c r="T150" s="10"/>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="15"/>
+    </row>
+    <row r="151" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10"/>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="15"/>
+    </row>
+    <row r="152" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="11"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="10"/>
-      <c r="O152" s="10"/>
-      <c r="P152" s="10"/>
-      <c r="Q152" s="10"/>
-      <c r="R152" s="10"/>
-      <c r="S152" s="10"/>
-      <c r="T152" s="10"/>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
+      <c r="S152" s="15"/>
+      <c r="T152" s="15"/>
+    </row>
+    <row r="153" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="10"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="10"/>
-      <c r="Q153" s="10"/>
-      <c r="R153" s="10"/>
-      <c r="S153" s="10"/>
-      <c r="T153" s="10"/>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="15"/>
+    </row>
+    <row r="154" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="11"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
-      <c r="N154" s="10"/>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
-      <c r="Q154" s="10"/>
-      <c r="R154" s="10"/>
-      <c r="S154" s="10"/>
-      <c r="T154" s="10"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
+      <c r="S154" s="15"/>
+      <c r="T154" s="15"/>
+    </row>
+    <row r="155" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="11"/>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
-      <c r="Q155" s="10"/>
-      <c r="R155" s="10"/>
-      <c r="S155" s="10"/>
-      <c r="T155" s="10"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="15"/>
+      <c r="R155" s="15"/>
+      <c r="S155" s="15"/>
+      <c r="T155" s="15"/>
+    </row>
+    <row r="156" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10"/>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+      <c r="R156" s="15"/>
+      <c r="S156" s="15"/>
+      <c r="T156" s="15"/>
+    </row>
+    <row r="157" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
-      <c r="O157" s="10"/>
-      <c r="P157" s="10"/>
-      <c r="Q157" s="10"/>
-      <c r="R157" s="10"/>
-      <c r="S157" s="10"/>
-      <c r="T157" s="10"/>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+      <c r="R157" s="15"/>
+      <c r="S157" s="15"/>
+      <c r="T157" s="15"/>
+    </row>
+    <row r="158" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
-      <c r="Q158" s="10"/>
-      <c r="R158" s="10"/>
-      <c r="S158" s="10"/>
-      <c r="T158" s="10"/>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
+      <c r="R158" s="15"/>
+      <c r="S158" s="15"/>
+      <c r="T158" s="15"/>
+    </row>
+    <row r="159" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10"/>
-      <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
-      <c r="T159" s="10"/>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+      <c r="R159" s="15"/>
+      <c r="S159" s="15"/>
+      <c r="T159" s="15"/>
+    </row>
+    <row r="160" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
-      <c r="N160" s="10"/>
-      <c r="O160" s="10"/>
-      <c r="P160" s="10"/>
-      <c r="Q160" s="10"/>
-      <c r="R160" s="10"/>
-      <c r="S160" s="10"/>
-      <c r="T160" s="10"/>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="15"/>
+    </row>
+    <row r="161" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="10"/>
-      <c r="N161" s="10"/>
-      <c r="O161" s="10"/>
-      <c r="P161" s="10"/>
-      <c r="Q161" s="10"/>
-      <c r="R161" s="10"/>
-      <c r="S161" s="10"/>
-      <c r="T161" s="10"/>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="15"/>
+      <c r="S161" s="15"/>
+      <c r="T161" s="15"/>
+    </row>
+    <row r="162" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="11"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
-      <c r="L162" s="10"/>
-      <c r="M162" s="10"/>
-      <c r="N162" s="10"/>
-      <c r="O162" s="10"/>
-      <c r="P162" s="10"/>
-      <c r="Q162" s="10"/>
-      <c r="R162" s="10"/>
-      <c r="S162" s="10"/>
-      <c r="T162" s="10"/>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="15"/>
+      <c r="R162" s="15"/>
+      <c r="S162" s="15"/>
+      <c r="T162" s="15"/>
+    </row>
+    <row r="163" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="10"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
-      <c r="Q163" s="10"/>
-      <c r="R163" s="10"/>
-      <c r="S163" s="10"/>
-      <c r="T163" s="10"/>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+      <c r="R163" s="15"/>
+      <c r="S163" s="15"/>
+      <c r="T163" s="15"/>
+    </row>
+    <row r="164" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="11"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-      <c r="L164" s="10"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
-      <c r="Q164" s="10"/>
-      <c r="R164" s="10"/>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+      <c r="R164" s="15"/>
+      <c r="S164" s="15"/>
+      <c r="T164" s="15"/>
+    </row>
+    <row r="165" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="11"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="10"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
-      <c r="Q165" s="10"/>
-      <c r="R165" s="10"/>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+      <c r="Q165" s="15"/>
+      <c r="R165" s="15"/>
+      <c r="S165" s="15"/>
+      <c r="T165" s="15"/>
+    </row>
+    <row r="166" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="10"/>
-      <c r="M166" s="10"/>
-      <c r="N166" s="10"/>
-      <c r="O166" s="10"/>
-      <c r="P166" s="10"/>
-      <c r="Q166" s="10"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
+      <c r="Q166" s="15"/>
+      <c r="R166" s="15"/>
+      <c r="S166" s="15"/>
+      <c r="T166" s="15"/>
+    </row>
+    <row r="167" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="10"/>
-      <c r="K167" s="10"/>
-      <c r="L167" s="10"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="10"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-      <c r="R167" s="10"/>
-      <c r="S167" s="10"/>
-      <c r="T167" s="10"/>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+      <c r="Q167" s="15"/>
+      <c r="R167" s="15"/>
+      <c r="S167" s="15"/>
+      <c r="T167" s="15"/>
+    </row>
+    <row r="168" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="10"/>
-      <c r="K168" s="10"/>
-      <c r="L168" s="10"/>
-      <c r="M168" s="10"/>
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
-      <c r="P168" s="10"/>
-      <c r="Q168" s="10"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="10"/>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+      <c r="Q168" s="15"/>
+      <c r="R168" s="15"/>
+      <c r="S168" s="15"/>
+      <c r="T168" s="15"/>
+    </row>
+    <row r="169" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="10"/>
-      <c r="K169" s="10"/>
-      <c r="L169" s="10"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="10"/>
-      <c r="O169" s="10"/>
-      <c r="P169" s="10"/>
-      <c r="Q169" s="10"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="10"/>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+      <c r="Q169" s="15"/>
+      <c r="R169" s="15"/>
+      <c r="S169" s="15"/>
+      <c r="T169" s="15"/>
+    </row>
+    <row r="170" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="10"/>
-      <c r="K170" s="10"/>
-      <c r="L170" s="10"/>
-      <c r="M170" s="10"/>
-      <c r="N170" s="10"/>
-      <c r="O170" s="10"/>
-      <c r="P170" s="10"/>
-      <c r="Q170" s="10"/>
-      <c r="R170" s="10"/>
-      <c r="S170" s="10"/>
-      <c r="T170" s="10"/>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="15"/>
+      <c r="Q170" s="15"/>
+      <c r="R170" s="15"/>
+      <c r="S170" s="15"/>
+      <c r="T170" s="15"/>
+    </row>
+    <row r="171" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
-      <c r="L171" s="10"/>
-      <c r="M171" s="10"/>
-      <c r="N171" s="10"/>
-      <c r="O171" s="10"/>
-      <c r="P171" s="10"/>
-      <c r="Q171" s="10"/>
-      <c r="R171" s="10"/>
-      <c r="S171" s="10"/>
-      <c r="T171" s="10"/>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+      <c r="Q171" s="15"/>
+      <c r="R171" s="15"/>
+      <c r="S171" s="15"/>
+      <c r="T171" s="15"/>
+    </row>
+    <row r="172" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="11"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="10"/>
-      <c r="K172" s="10"/>
-      <c r="L172" s="10"/>
-      <c r="M172" s="10"/>
-      <c r="N172" s="10"/>
-      <c r="O172" s="10"/>
-      <c r="P172" s="10"/>
-      <c r="Q172" s="10"/>
-      <c r="R172" s="10"/>
-      <c r="S172" s="10"/>
-      <c r="T172" s="10"/>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="15"/>
+      <c r="Q172" s="15"/>
+      <c r="R172" s="15"/>
+      <c r="S172" s="15"/>
+      <c r="T172" s="15"/>
+    </row>
+    <row r="173" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10"/>
-      <c r="K173" s="10"/>
-      <c r="L173" s="10"/>
-      <c r="M173" s="10"/>
-      <c r="N173" s="10"/>
-      <c r="O173" s="10"/>
-      <c r="P173" s="10"/>
-      <c r="Q173" s="10"/>
-      <c r="R173" s="10"/>
-      <c r="S173" s="10"/>
-      <c r="T173" s="10"/>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="15"/>
+    </row>
+    <row r="174" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="11"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="10"/>
-      <c r="L174" s="10"/>
-      <c r="M174" s="10"/>
-      <c r="N174" s="10"/>
-      <c r="O174" s="10"/>
-      <c r="P174" s="10"/>
-      <c r="Q174" s="10"/>
-      <c r="R174" s="10"/>
-      <c r="S174" s="10"/>
-      <c r="T174" s="10"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="15"/>
+      <c r="P174" s="15"/>
+      <c r="Q174" s="15"/>
+      <c r="R174" s="15"/>
+      <c r="S174" s="15"/>
+      <c r="T174" s="15"/>
+    </row>
+    <row r="175" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="11"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="10"/>
-      <c r="K175" s="10"/>
-      <c r="L175" s="10"/>
-      <c r="M175" s="10"/>
-      <c r="N175" s="10"/>
-      <c r="O175" s="10"/>
-      <c r="P175" s="10"/>
-      <c r="Q175" s="10"/>
-      <c r="R175" s="10"/>
-      <c r="S175" s="10"/>
-      <c r="T175" s="10"/>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="15"/>
+      <c r="P175" s="15"/>
+      <c r="Q175" s="15"/>
+      <c r="R175" s="15"/>
+      <c r="S175" s="15"/>
+      <c r="T175" s="15"/>
+    </row>
+    <row r="176" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
-      <c r="K176" s="10"/>
-      <c r="L176" s="10"/>
-      <c r="M176" s="10"/>
-      <c r="N176" s="10"/>
-      <c r="O176" s="10"/>
-      <c r="P176" s="10"/>
-      <c r="Q176" s="10"/>
-      <c r="R176" s="10"/>
-      <c r="S176" s="10"/>
-      <c r="T176" s="10"/>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
+      <c r="P176" s="15"/>
+      <c r="Q176" s="15"/>
+      <c r="R176" s="15"/>
+      <c r="S176" s="15"/>
+      <c r="T176" s="15"/>
+    </row>
+    <row r="177" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="10"/>
-      <c r="K177" s="10"/>
-      <c r="L177" s="10"/>
-      <c r="M177" s="10"/>
-      <c r="N177" s="10"/>
-      <c r="O177" s="10"/>
-      <c r="P177" s="10"/>
-      <c r="Q177" s="10"/>
-      <c r="R177" s="10"/>
-      <c r="S177" s="10"/>
-      <c r="T177" s="10"/>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="15"/>
+      <c r="Q177" s="15"/>
+      <c r="R177" s="15"/>
+      <c r="S177" s="15"/>
+      <c r="T177" s="15"/>
+    </row>
+    <row r="178" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
       <c r="D178" s="10"/>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="10"/>
-      <c r="K178" s="10"/>
-      <c r="L178" s="10"/>
-      <c r="M178" s="10"/>
-      <c r="N178" s="10"/>
-      <c r="O178" s="10"/>
-      <c r="P178" s="10"/>
-      <c r="Q178" s="10"/>
-      <c r="R178" s="10"/>
-      <c r="S178" s="10"/>
-      <c r="T178" s="10"/>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="15"/>
+      <c r="N178" s="15"/>
+      <c r="O178" s="15"/>
+      <c r="P178" s="15"/>
+      <c r="Q178" s="15"/>
+      <c r="R178" s="15"/>
+      <c r="S178" s="15"/>
+      <c r="T178" s="15"/>
+    </row>
+    <row r="179" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10"/>
-      <c r="K179" s="10"/>
-      <c r="L179" s="10"/>
-      <c r="M179" s="10"/>
-      <c r="N179" s="10"/>
-      <c r="O179" s="10"/>
-      <c r="P179" s="10"/>
-      <c r="Q179" s="10"/>
-      <c r="R179" s="10"/>
-      <c r="S179" s="10"/>
-      <c r="T179" s="10"/>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="15"/>
+      <c r="Q179" s="15"/>
+      <c r="R179" s="15"/>
+      <c r="S179" s="15"/>
+      <c r="T179" s="15"/>
+    </row>
+    <row r="180" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="10"/>
-      <c r="K180" s="10"/>
-      <c r="L180" s="10"/>
-      <c r="M180" s="10"/>
-      <c r="N180" s="10"/>
-      <c r="O180" s="10"/>
-      <c r="P180" s="10"/>
-      <c r="Q180" s="10"/>
-      <c r="R180" s="10"/>
-      <c r="S180" s="10"/>
-      <c r="T180" s="10"/>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="15"/>
+      <c r="P180" s="15"/>
+      <c r="Q180" s="15"/>
+      <c r="R180" s="15"/>
+      <c r="S180" s="15"/>
+      <c r="T180" s="15"/>
+    </row>
+    <row r="181" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="10"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-      <c r="Q181" s="10"/>
-      <c r="R181" s="10"/>
-      <c r="S181" s="10"/>
-      <c r="T181" s="10"/>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="15"/>
+      <c r="P181" s="15"/>
+      <c r="Q181" s="15"/>
+      <c r="R181" s="15"/>
+      <c r="S181" s="15"/>
+      <c r="T181" s="15"/>
+    </row>
+    <row r="182" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="11"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
-      <c r="L182" s="10"/>
-      <c r="M182" s="10"/>
-      <c r="N182" s="10"/>
-      <c r="O182" s="10"/>
-      <c r="P182" s="10"/>
-      <c r="Q182" s="10"/>
-      <c r="R182" s="10"/>
-      <c r="S182" s="10"/>
-      <c r="T182" s="10"/>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="15"/>
+      <c r="O182" s="15"/>
+      <c r="P182" s="15"/>
+      <c r="Q182" s="15"/>
+      <c r="R182" s="15"/>
+      <c r="S182" s="15"/>
+      <c r="T182" s="15"/>
+    </row>
+    <row r="183" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="10"/>
-      <c r="M183" s="10"/>
-      <c r="N183" s="10"/>
-      <c r="O183" s="10"/>
-      <c r="P183" s="10"/>
-      <c r="Q183" s="10"/>
-      <c r="R183" s="10"/>
-      <c r="S183" s="10"/>
-      <c r="T183" s="10"/>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="15"/>
+      <c r="O183" s="15"/>
+      <c r="P183" s="15"/>
+      <c r="Q183" s="15"/>
+      <c r="R183" s="15"/>
+      <c r="S183" s="15"/>
+      <c r="T183" s="15"/>
+    </row>
+    <row r="184" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10"/>
-      <c r="K184" s="10"/>
-      <c r="L184" s="10"/>
-      <c r="M184" s="10"/>
-      <c r="N184" s="10"/>
-      <c r="O184" s="10"/>
-      <c r="P184" s="10"/>
-      <c r="Q184" s="10"/>
-      <c r="R184" s="10"/>
-      <c r="S184" s="10"/>
-      <c r="T184" s="10"/>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="15"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="15"/>
+      <c r="P184" s="15"/>
+      <c r="Q184" s="15"/>
+      <c r="R184" s="15"/>
+      <c r="S184" s="15"/>
+      <c r="T184" s="15"/>
+    </row>
+    <row r="185" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="11"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-      <c r="K185" s="10"/>
-      <c r="L185" s="10"/>
-      <c r="M185" s="10"/>
-      <c r="N185" s="10"/>
-      <c r="O185" s="10"/>
-      <c r="P185" s="10"/>
-      <c r="Q185" s="10"/>
-      <c r="R185" s="10"/>
-      <c r="S185" s="10"/>
-      <c r="T185" s="10"/>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="15"/>
+      <c r="P185" s="15"/>
+      <c r="Q185" s="15"/>
+      <c r="R185" s="15"/>
+      <c r="S185" s="15"/>
+      <c r="T185" s="15"/>
+    </row>
+    <row r="186" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="11"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="10"/>
-      <c r="K186" s="10"/>
-      <c r="L186" s="10"/>
-      <c r="M186" s="10"/>
-      <c r="N186" s="10"/>
-      <c r="O186" s="10"/>
-      <c r="P186" s="10"/>
-      <c r="Q186" s="10"/>
-      <c r="R186" s="10"/>
-      <c r="S186" s="10"/>
-      <c r="T186" s="10"/>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="15"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
+      <c r="P186" s="15"/>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15"/>
+      <c r="S186" s="15"/>
+      <c r="T186" s="15"/>
+    </row>
+    <row r="187" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="11"/>
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="10"/>
-      <c r="K187" s="10"/>
-      <c r="L187" s="10"/>
-      <c r="M187" s="10"/>
-      <c r="N187" s="10"/>
-      <c r="O187" s="10"/>
-      <c r="P187" s="10"/>
-      <c r="Q187" s="10"/>
-      <c r="R187" s="10"/>
-      <c r="S187" s="10"/>
-      <c r="T187" s="10"/>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
+      <c r="P187" s="15"/>
+      <c r="Q187" s="15"/>
+      <c r="R187" s="15"/>
+      <c r="S187" s="15"/>
+      <c r="T187" s="15"/>
+    </row>
+    <row r="188" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="11"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="10"/>
-      <c r="M188" s="10"/>
-      <c r="N188" s="10"/>
-      <c r="O188" s="10"/>
-      <c r="P188" s="10"/>
-      <c r="Q188" s="10"/>
-      <c r="R188" s="10"/>
-      <c r="S188" s="10"/>
-      <c r="T188" s="10"/>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="P188" s="15"/>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15"/>
+      <c r="S188" s="15"/>
+      <c r="T188" s="15"/>
+    </row>
+    <row r="189" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="11"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="10"/>
-      <c r="K189" s="10"/>
-      <c r="L189" s="10"/>
-      <c r="M189" s="10"/>
-      <c r="N189" s="10"/>
-      <c r="O189" s="10"/>
-      <c r="P189" s="10"/>
-      <c r="Q189" s="10"/>
-      <c r="R189" s="10"/>
-      <c r="S189" s="10"/>
-      <c r="T189" s="10"/>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="15"/>
+      <c r="L189" s="15"/>
+      <c r="M189" s="15"/>
+      <c r="N189" s="15"/>
+      <c r="O189" s="15"/>
+      <c r="P189" s="15"/>
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15"/>
+      <c r="S189" s="15"/>
+      <c r="T189" s="15"/>
+    </row>
+    <row r="190" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
-      <c r="L190" s="10"/>
-      <c r="M190" s="10"/>
-      <c r="N190" s="10"/>
-      <c r="O190" s="10"/>
-      <c r="P190" s="10"/>
-      <c r="Q190" s="10"/>
-      <c r="R190" s="10"/>
-      <c r="S190" s="10"/>
-      <c r="T190" s="10"/>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="15"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="15"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="15"/>
+      <c r="P190" s="15"/>
+      <c r="Q190" s="15"/>
+      <c r="R190" s="15"/>
+      <c r="S190" s="15"/>
+      <c r="T190" s="15"/>
+    </row>
+    <row r="191" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="11"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="10"/>
-      <c r="L191" s="10"/>
-      <c r="M191" s="10"/>
-      <c r="N191" s="10"/>
-      <c r="O191" s="10"/>
-      <c r="P191" s="10"/>
-      <c r="Q191" s="10"/>
-      <c r="R191" s="10"/>
-      <c r="S191" s="10"/>
-      <c r="T191" s="10"/>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+      <c r="R191" s="15"/>
+      <c r="S191" s="15"/>
+      <c r="T191" s="15"/>
+    </row>
+    <row r="192" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="11"/>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10"/>
-      <c r="K192" s="10"/>
-      <c r="L192" s="10"/>
-      <c r="M192" s="10"/>
-      <c r="N192" s="10"/>
-      <c r="O192" s="10"/>
-      <c r="P192" s="10"/>
-      <c r="Q192" s="10"/>
-      <c r="R192" s="10"/>
-      <c r="S192" s="10"/>
-      <c r="T192" s="10"/>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="15"/>
+      <c r="R192" s="15"/>
+      <c r="S192" s="15"/>
+      <c r="T192" s="15"/>
+    </row>
+    <row r="193" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="11"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-      <c r="K193" s="10"/>
-      <c r="L193" s="10"/>
-      <c r="M193" s="10"/>
-      <c r="N193" s="10"/>
-      <c r="O193" s="10"/>
-      <c r="P193" s="10"/>
-      <c r="Q193" s="10"/>
-      <c r="R193" s="10"/>
-      <c r="S193" s="10"/>
-      <c r="T193" s="10"/>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
+      <c r="N193" s="15"/>
+      <c r="O193" s="15"/>
+      <c r="P193" s="15"/>
+      <c r="Q193" s="15"/>
+      <c r="R193" s="15"/>
+      <c r="S193" s="15"/>
+      <c r="T193" s="15"/>
+    </row>
+    <row r="194" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="11"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="10"/>
-      <c r="K194" s="10"/>
-      <c r="L194" s="10"/>
-      <c r="M194" s="10"/>
-      <c r="N194" s="10"/>
-      <c r="O194" s="10"/>
-      <c r="P194" s="10"/>
-      <c r="Q194" s="10"/>
-      <c r="R194" s="10"/>
-      <c r="S194" s="10"/>
-      <c r="T194" s="10"/>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="15"/>
+      <c r="P194" s="15"/>
+      <c r="Q194" s="15"/>
+      <c r="R194" s="15"/>
+      <c r="S194" s="15"/>
+      <c r="T194" s="15"/>
+    </row>
+    <row r="195" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="11"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="10"/>
-      <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
-      <c r="Q195" s="10"/>
-      <c r="R195" s="10"/>
-      <c r="S195" s="10"/>
-      <c r="T195" s="10"/>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="15"/>
+      <c r="N195" s="15"/>
+      <c r="O195" s="15"/>
+      <c r="P195" s="15"/>
+      <c r="Q195" s="15"/>
+      <c r="R195" s="15"/>
+      <c r="S195" s="15"/>
+      <c r="T195" s="15"/>
+    </row>
+    <row r="196" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="11"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="10"/>
-      <c r="K196" s="10"/>
-      <c r="L196" s="10"/>
-      <c r="M196" s="10"/>
-      <c r="N196" s="10"/>
-      <c r="O196" s="10"/>
-      <c r="P196" s="10"/>
-      <c r="Q196" s="10"/>
-      <c r="R196" s="10"/>
-      <c r="S196" s="10"/>
-      <c r="T196" s="10"/>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="15"/>
+      <c r="N196" s="15"/>
+      <c r="O196" s="15"/>
+      <c r="P196" s="15"/>
+      <c r="Q196" s="15"/>
+      <c r="R196" s="15"/>
+      <c r="S196" s="15"/>
+      <c r="T196" s="15"/>
+    </row>
+    <row r="197" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="11"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="10"/>
-      <c r="K197" s="10"/>
-      <c r="L197" s="10"/>
-      <c r="M197" s="10"/>
-      <c r="N197" s="10"/>
-      <c r="O197" s="10"/>
-      <c r="P197" s="10"/>
-      <c r="Q197" s="10"/>
-      <c r="R197" s="10"/>
-      <c r="S197" s="10"/>
-      <c r="T197" s="10"/>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="15"/>
+      <c r="R197" s="15"/>
+      <c r="S197" s="15"/>
+      <c r="T197" s="15"/>
+    </row>
+    <row r="198" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="11"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="10"/>
-      <c r="K198" s="10"/>
-      <c r="L198" s="10"/>
-      <c r="M198" s="10"/>
-      <c r="N198" s="10"/>
-      <c r="O198" s="10"/>
-      <c r="P198" s="10"/>
-      <c r="Q198" s="10"/>
-      <c r="R198" s="10"/>
-      <c r="S198" s="10"/>
-      <c r="T198" s="10"/>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="15"/>
+      <c r="N198" s="15"/>
+      <c r="O198" s="15"/>
+      <c r="P198" s="15"/>
+      <c r="Q198" s="15"/>
+      <c r="R198" s="15"/>
+      <c r="S198" s="15"/>
+      <c r="T198" s="15"/>
+    </row>
+    <row r="199" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="11"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
-      <c r="H199" s="10"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="10"/>
-      <c r="K199" s="10"/>
-      <c r="L199" s="10"/>
-      <c r="M199" s="10"/>
-      <c r="N199" s="10"/>
-      <c r="O199" s="10"/>
-      <c r="P199" s="10"/>
-      <c r="Q199" s="10"/>
-      <c r="R199" s="10"/>
-      <c r="S199" s="10"/>
-      <c r="T199" s="10"/>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+      <c r="R199" s="15"/>
+      <c r="S199" s="15"/>
+      <c r="T199" s="15"/>
+    </row>
+    <row r="200" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="11"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="10"/>
-      <c r="K200" s="10"/>
-      <c r="L200" s="10"/>
-      <c r="M200" s="10"/>
-      <c r="N200" s="10"/>
-      <c r="O200" s="10"/>
-      <c r="P200" s="10"/>
-      <c r="Q200" s="10"/>
-      <c r="R200" s="10"/>
-      <c r="S200" s="10"/>
-      <c r="T200" s="10"/>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+      <c r="Q200" s="15"/>
+      <c r="R200" s="15"/>
+      <c r="S200" s="15"/>
+      <c r="T200" s="15"/>
+    </row>
+    <row r="201" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="11"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="10"/>
-      <c r="K201" s="10"/>
-      <c r="L201" s="10"/>
-      <c r="M201" s="10"/>
-      <c r="N201" s="10"/>
-      <c r="O201" s="10"/>
-      <c r="P201" s="10"/>
-      <c r="Q201" s="10"/>
-      <c r="R201" s="10"/>
-      <c r="S201" s="10"/>
-      <c r="T201" s="10"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+      <c r="O201" s="15"/>
+      <c r="P201" s="15"/>
+      <c r="Q201" s="15"/>
+      <c r="R201" s="15"/>
+      <c r="S201" s="15"/>
+      <c r="T201" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533BAE7-6699-4075-9E96-4D34387BC9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66219D2-270F-47A5-A577-0AF095B899C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1493,8 +1493,8 @@
   <dimension ref="A1:T201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66219D2-270F-47A5-A577-0AF095B899C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50057E-B806-4353-953E-3E4EE2F31CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="312">
   <si>
     <t>PROJETO</t>
   </si>
@@ -961,15 +961,6 @@
   </si>
   <si>
     <t>KIT VERÃO</t>
-  </si>
-  <si>
-    <t>BERMUDA</t>
-  </si>
-  <si>
-    <t>KIT UNIFORME</t>
-  </si>
-  <si>
-    <t>calça</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1111,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1135,8 +1126,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,8 +1150,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -1164,7 +1157,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{6B1DD1E0-55AB-4993-BDA4-BF2C5DB0BC4A}"/>
     <cellStyle name="Normal 2 2" xfId="6" xr:uid="{A0A313E2-3988-475F-A567-7DA6FAA2AF08}"/>
@@ -1177,8 +1170,12 @@
     <cellStyle name="Normal 4" xfId="1" xr:uid="{C9891089-5EFB-4E11-A066-36912FF9AD98}"/>
     <cellStyle name="Vírgula 2" xfId="8" xr:uid="{30F765AB-7CA5-464F-9E9B-A8A61216269C}"/>
     <cellStyle name="Vírgula 2 2" xfId="12" xr:uid="{1C5DC85E-4A0B-4FF9-885D-BEA767DF9C94}"/>
+    <cellStyle name="Vírgula 2 2 2" xfId="17" xr:uid="{566EB9C8-6753-4863-B505-67A43881FD34}"/>
+    <cellStyle name="Vírgula 2 3" xfId="15" xr:uid="{0EF3AEBE-583E-4C92-B421-DFD57E703BBB}"/>
     <cellStyle name="Vírgula 3" xfId="10" xr:uid="{C79CCFA4-BAD0-44F6-B988-C7D8A39591FF}"/>
+    <cellStyle name="Vírgula 3 2" xfId="16" xr:uid="{D8DB3BAE-DF4C-4555-9019-DAC44B16EBF3}"/>
     <cellStyle name="Vírgula 4" xfId="2" xr:uid="{DA8167EF-2319-48DF-961A-47C2AF87D515}"/>
+    <cellStyle name="Vírgula 5" xfId="14" xr:uid="{B9064A96-A84E-46B4-9C3E-FAEE8D6F1C43}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1490,11 +1487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,20 +1585,20 @@
       <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1622,20 +1619,20 @@
       <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -1656,20 +1653,20 @@
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
     </row>
     <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -1690,20 +1687,20 @@
       <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1724,20 +1721,20 @@
       <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1758,20 +1755,20 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1792,20 +1789,20 @@
       <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1826,20 +1823,20 @@
       <c r="F9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
     </row>
     <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1860,20 +1857,20 @@
       <c r="F10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
     </row>
     <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1894,20 +1891,20 @@
       <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
     </row>
     <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1928,20 +1925,20 @@
       <c r="F12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1962,20 +1959,20 @@
       <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
     </row>
     <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1996,54 +1993,54 @@
       <c r="F14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-    </row>
-    <row r="15" spans="1:20" s="14" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
     </row>
     <row r="16" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -2064,20 +2061,20 @@
       <c r="F16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
     </row>
     <row r="17" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -2098,20 +2095,20 @@
       <c r="F17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
     </row>
     <row r="18" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -2132,20 +2129,20 @@
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
     </row>
     <row r="19" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -2166,20 +2163,20 @@
       <c r="F19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
     </row>
     <row r="20" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -2200,20 +2197,20 @@
       <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -2226,7 +2223,7 @@
         <v>96</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>84</v>
@@ -2234,20 +2231,20 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -2268,20 +2265,20 @@
       <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
     </row>
     <row r="23" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -2302,20 +2299,20 @@
       <c r="F23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
     </row>
     <row r="24" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -2336,20 +2333,20 @@
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
     </row>
     <row r="25" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -2370,20 +2367,20 @@
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
     </row>
     <row r="26" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -2404,20 +2401,20 @@
       <c r="F26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
     </row>
     <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2438,20 +2435,20 @@
       <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
     </row>
     <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2472,20 +2469,20 @@
       <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
     </row>
     <row r="29" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -2506,20 +2503,20 @@
       <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
     </row>
     <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -2540,20 +2537,20 @@
       <c r="F30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
     </row>
     <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -2574,20 +2571,20 @@
       <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
     </row>
     <row r="32" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -2608,20 +2605,20 @@
       <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
     </row>
     <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
@@ -2642,20 +2639,20 @@
       <c r="F33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
     </row>
     <row r="34" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
@@ -2676,20 +2673,20 @@
       <c r="F34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
     </row>
     <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -2710,20 +2707,20 @@
       <c r="F35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
     </row>
     <row r="36" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
@@ -2744,20 +2741,20 @@
       <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
     </row>
     <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
@@ -2778,20 +2775,20 @@
       <c r="F37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
     </row>
     <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
@@ -2812,20 +2809,20 @@
       <c r="F38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
     </row>
     <row r="39" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
@@ -2846,20 +2843,20 @@
       <c r="F39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
     </row>
     <row r="40" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
@@ -2880,20 +2877,20 @@
       <c r="F40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
     </row>
     <row r="41" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
@@ -2914,20 +2911,20 @@
       <c r="F41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
     </row>
     <row r="42" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
@@ -2948,20 +2945,20 @@
       <c r="F42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
     </row>
     <row r="43" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
@@ -2982,20 +2979,20 @@
       <c r="F43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
     </row>
     <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
@@ -3004,20 +3001,20 @@
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
     </row>
     <row r="45" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
@@ -3038,20 +3035,20 @@
       <c r="F45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
     </row>
     <row r="46" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
@@ -3072,20 +3069,20 @@
       <c r="F46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="T46" s="15"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
     </row>
     <row r="47" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -3106,20 +3103,20 @@
       <c r="F47" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
     </row>
     <row r="48" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
@@ -3140,20 +3137,20 @@
       <c r="F48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
-      <c r="T48" s="15"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
     </row>
     <row r="49" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
@@ -3174,20 +3171,20 @@
       <c r="F49" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
@@ -3208,20 +3205,20 @@
       <c r="F50" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="15"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
     </row>
     <row r="51" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
@@ -3242,20 +3239,20 @@
       <c r="F51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
-      <c r="T51" s="15"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
@@ -3276,20 +3273,20 @@
       <c r="F52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
     </row>
     <row r="53" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
@@ -3298,20 +3295,20 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
-      <c r="T53" s="15"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
     </row>
     <row r="54" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
@@ -3332,20 +3329,20 @@
       <c r="F54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
     </row>
     <row r="55" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
@@ -3366,20 +3363,20 @@
       <c r="F55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
     </row>
     <row r="56" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
@@ -3400,20 +3397,20 @@
       <c r="F56" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
     </row>
     <row r="57" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
@@ -3434,20 +3431,20 @@
       <c r="F57" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
     </row>
     <row r="58" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
@@ -3468,20 +3465,20 @@
       <c r="F58" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
     </row>
     <row r="59" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
@@ -3502,20 +3499,20 @@
       <c r="F59" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
@@ -3528,7 +3525,7 @@
         <v>133</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>84</v>
@@ -3536,20 +3533,20 @@
       <c r="F60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
@@ -3570,20 +3567,20 @@
       <c r="F61" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
-      <c r="T61" s="15"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -3604,20 +3601,20 @@
       <c r="F62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
     </row>
     <row r="63" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -3638,20 +3635,20 @@
       <c r="F63" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
-      <c r="T63" s="15"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
     </row>
     <row r="64" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
@@ -3672,20 +3669,20 @@
       <c r="F64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
     </row>
     <row r="65" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
@@ -3706,20 +3703,20 @@
       <c r="F65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="15"/>
     </row>
     <row r="66" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -3740,20 +3737,20 @@
       <c r="F66" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
     </row>
     <row r="67" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
@@ -3774,20 +3771,20 @@
       <c r="F67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
     </row>
     <row r="68" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
@@ -3808,20 +3805,20 @@
       <c r="F68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
     </row>
     <row r="69" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
@@ -3842,20 +3839,20 @@
       <c r="F69" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
     </row>
     <row r="70" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
@@ -3876,20 +3873,20 @@
       <c r="F70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
     </row>
     <row r="71" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
@@ -3910,20 +3907,20 @@
       <c r="F71" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
     </row>
     <row r="72" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
@@ -3944,20 +3941,20 @@
       <c r="F72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
     </row>
     <row r="73" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -3978,20 +3975,20 @@
       <c r="F73" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
     </row>
     <row r="74" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -4012,20 +4009,20 @@
       <c r="F74" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
     </row>
     <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
@@ -4046,20 +4043,20 @@
       <c r="F75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="15"/>
     </row>
     <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
@@ -4080,20 +4077,20 @@
       <c r="F76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
     </row>
     <row r="77" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -4114,20 +4111,20 @@
       <c r="F77" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
-      <c r="T77" s="15"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
     </row>
     <row r="78" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
@@ -4148,20 +4145,20 @@
       <c r="F78" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="15"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
     </row>
     <row r="79" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
@@ -4182,20 +4179,20 @@
       <c r="F79" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
     </row>
     <row r="80" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -4216,20 +4213,20 @@
       <c r="F80" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
     </row>
     <row r="81" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -4250,20 +4247,20 @@
       <c r="F81" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="17"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="15"/>
     </row>
     <row r="82" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
@@ -4284,20 +4281,20 @@
       <c r="F82" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
-      <c r="T82" s="15"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
     </row>
     <row r="83" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
@@ -4318,20 +4315,20 @@
       <c r="F83" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
     </row>
     <row r="84" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
@@ -4352,20 +4349,20 @@
       <c r="F84" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
     </row>
     <row r="85" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -4386,20 +4383,20 @@
       <c r="F85" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
     </row>
     <row r="86" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -4420,20 +4417,20 @@
       <c r="F86" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
     </row>
     <row r="87" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -4454,20 +4451,20 @@
       <c r="F87" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
     </row>
     <row r="88" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
@@ -4488,20 +4485,20 @@
       <c r="F88" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
     </row>
     <row r="89" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
@@ -4522,20 +4519,20 @@
       <c r="F89" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
     </row>
     <row r="90" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
@@ -4556,20 +4553,20 @@
       <c r="F90" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
     </row>
     <row r="91" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -4590,20 +4587,20 @@
       <c r="F91" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
-      <c r="T91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
     </row>
     <row r="92" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -4624,20 +4621,20 @@
       <c r="F92" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
     </row>
     <row r="93" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -4658,20 +4655,20 @@
       <c r="F93" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
     </row>
     <row r="94" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -4692,20 +4689,20 @@
       <c r="F94" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
-      <c r="T94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
     </row>
     <row r="95" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
@@ -4726,20 +4723,20 @@
       <c r="F95" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="15"/>
     </row>
     <row r="96" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
@@ -4760,20 +4757,20 @@
       <c r="F96" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="15"/>
     </row>
     <row r="97" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
@@ -4786,7 +4783,7 @@
         <v>265</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>84</v>
@@ -4794,20 +4791,20 @@
       <c r="F97" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
-      <c r="S97" s="15"/>
-      <c r="T97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
     </row>
     <row r="98" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
@@ -4828,20 +4825,20 @@
       <c r="F98" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
     </row>
     <row r="99" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
@@ -4862,20 +4859,20 @@
       <c r="F99" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
     </row>
     <row r="100" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
@@ -4896,20 +4893,20 @@
       <c r="F100" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
     </row>
     <row r="101" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -4930,20 +4927,20 @@
       <c r="F101" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
-      <c r="T101" s="17"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="15"/>
+      <c r="T101" s="15"/>
     </row>
     <row r="102" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -4964,20 +4961,20 @@
       <c r="F102" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="17"/>
-      <c r="T102" s="17"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
+      <c r="S102" s="15"/>
+      <c r="T102" s="15"/>
     </row>
     <row r="103" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
@@ -4998,20 +4995,20 @@
       <c r="F103" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="17"/>
-      <c r="T103" s="17"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="15"/>
     </row>
     <row r="104" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -5032,20 +5029,20 @@
       <c r="F104" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
-      <c r="R104" s="17"/>
-      <c r="S104" s="17"/>
-      <c r="T104" s="17"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="15"/>
     </row>
     <row r="105" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
@@ -5066,20 +5063,20 @@
       <c r="F105" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
-      <c r="R105" s="17"/>
-      <c r="S105" s="17"/>
-      <c r="T105" s="17"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="15"/>
     </row>
     <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
@@ -5100,20 +5097,20 @@
       <c r="F106" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
-      <c r="R106" s="17"/>
-      <c r="S106" s="17"/>
-      <c r="T106" s="17"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="15"/>
     </row>
     <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -5134,20 +5131,20 @@
       <c r="F107" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
-      <c r="R107" s="17"/>
-      <c r="S107" s="17"/>
-      <c r="T107" s="17"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="15"/>
     </row>
     <row r="108" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -5168,20 +5165,20 @@
       <c r="F108" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
-      <c r="R108" s="17"/>
-      <c r="S108" s="17"/>
-      <c r="T108" s="17"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="15"/>
     </row>
     <row r="109" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
@@ -5202,20 +5199,20 @@
       <c r="F109" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="17"/>
-      <c r="S109" s="17"/>
-      <c r="T109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="15"/>
     </row>
     <row r="110" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
@@ -5236,20 +5233,20 @@
       <c r="F110" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
-      <c r="R110" s="17"/>
-      <c r="S110" s="17"/>
-      <c r="T110" s="17"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="15"/>
+      <c r="T110" s="15"/>
     </row>
     <row r="111" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
@@ -5270,20 +5267,20 @@
       <c r="F111" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
-      <c r="R111" s="17"/>
-      <c r="S111" s="17"/>
-      <c r="T111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="15"/>
+      <c r="T111" s="15"/>
     </row>
     <row r="112" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
@@ -5304,20 +5301,20 @@
       <c r="F112" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
-      <c r="R112" s="17"/>
-      <c r="S112" s="17"/>
-      <c r="T112" s="17"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
+      <c r="S112" s="15"/>
+      <c r="T112" s="15"/>
     </row>
     <row r="113" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
@@ -5338,20 +5335,20 @@
       <c r="F113" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
-      <c r="R113" s="17"/>
-      <c r="S113" s="17"/>
-      <c r="T113" s="17"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="15"/>
     </row>
     <row r="114" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
@@ -5372,20 +5369,20 @@
       <c r="F114" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
-      <c r="R114" s="17"/>
-      <c r="S114" s="17"/>
-      <c r="T114" s="17"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="15"/>
+      <c r="T114" s="15"/>
     </row>
     <row r="115" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
@@ -5406,20 +5403,20 @@
       <c r="F115" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
-      <c r="R115" s="17"/>
-      <c r="S115" s="17"/>
-      <c r="T115" s="17"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="15"/>
     </row>
     <row r="116" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
@@ -5440,20 +5437,20 @@
       <c r="F116" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
-      <c r="R116" s="17"/>
-      <c r="S116" s="17"/>
-      <c r="T116" s="17"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="15"/>
+      <c r="S116" s="15"/>
+      <c r="T116" s="15"/>
     </row>
     <row r="117" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
@@ -5474,20 +5471,20 @@
       <c r="F117" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
-      <c r="R117" s="17"/>
-      <c r="S117" s="17"/>
-      <c r="T117" s="17"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
     </row>
     <row r="118" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
@@ -5508,20 +5505,20 @@
       <c r="F118" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
-      <c r="R118" s="17"/>
-      <c r="S118" s="17"/>
-      <c r="T118" s="17"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="15"/>
+      <c r="T118" s="15"/>
     </row>
     <row r="119" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
@@ -5542,1824 +5539,20 @@
       <c r="F119" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
-      <c r="R119" s="17"/>
-      <c r="S119" s="17"/>
-      <c r="T119" s="17"/>
-    </row>
-    <row r="120" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
-      <c r="T120" s="15"/>
-    </row>
-    <row r="121" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-      <c r="O121" s="15"/>
-      <c r="P121" s="15"/>
-      <c r="Q121" s="15"/>
-      <c r="R121" s="15"/>
-      <c r="S121" s="15"/>
-      <c r="T121" s="15"/>
-    </row>
-    <row r="122" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="15"/>
-    </row>
-    <row r="123" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="15"/>
-      <c r="S123" s="15"/>
-      <c r="T123" s="15"/>
-    </row>
-    <row r="124" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="15"/>
-      <c r="S124" s="15"/>
-      <c r="T124" s="15"/>
-    </row>
-    <row r="125" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
-      <c r="T125" s="15"/>
-    </row>
-    <row r="126" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-      <c r="S126" s="15"/>
-      <c r="T126" s="15"/>
-    </row>
-    <row r="127" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="15"/>
-      <c r="R127" s="15"/>
-      <c r="S127" s="15"/>
-      <c r="T127" s="15"/>
-    </row>
-    <row r="128" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
-      <c r="O128" s="15"/>
-      <c r="P128" s="15"/>
-      <c r="Q128" s="15"/>
-      <c r="R128" s="15"/>
-      <c r="S128" s="15"/>
-      <c r="T128" s="15"/>
-    </row>
-    <row r="129" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
-      <c r="T129" s="15"/>
-    </row>
-    <row r="130" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
-      <c r="P130" s="15"/>
-      <c r="Q130" s="15"/>
-      <c r="R130" s="15"/>
-      <c r="S130" s="15"/>
-      <c r="T130" s="15"/>
-    </row>
-    <row r="131" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-      <c r="O131" s="15"/>
-      <c r="P131" s="15"/>
-      <c r="Q131" s="15"/>
-      <c r="R131" s="15"/>
-      <c r="S131" s="15"/>
-      <c r="T131" s="15"/>
-    </row>
-    <row r="132" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="15"/>
-      <c r="R132" s="15"/>
-      <c r="S132" s="15"/>
-      <c r="T132" s="15"/>
-    </row>
-    <row r="133" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="15"/>
-      <c r="S133" s="15"/>
-      <c r="T133" s="15"/>
-    </row>
-    <row r="134" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="15"/>
-      <c r="S134" s="15"/>
-      <c r="T134" s="15"/>
-    </row>
-    <row r="135" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-      <c r="O135" s="15"/>
-      <c r="P135" s="15"/>
-      <c r="Q135" s="15"/>
-      <c r="R135" s="15"/>
-      <c r="S135" s="15"/>
-      <c r="T135" s="15"/>
-    </row>
-    <row r="136" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-      <c r="S136" s="15"/>
-      <c r="T136" s="15"/>
-    </row>
-    <row r="137" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="15"/>
-      <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-      <c r="N137" s="15"/>
-      <c r="O137" s="15"/>
-      <c r="P137" s="15"/>
-      <c r="Q137" s="15"/>
-      <c r="R137" s="15"/>
-      <c r="S137" s="15"/>
-      <c r="T137" s="15"/>
-    </row>
-    <row r="138" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15"/>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-      <c r="N138" s="15"/>
-      <c r="O138" s="15"/>
-      <c r="P138" s="15"/>
-      <c r="Q138" s="15"/>
-      <c r="R138" s="15"/>
-      <c r="S138" s="15"/>
-      <c r="T138" s="15"/>
-    </row>
-    <row r="139" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="15"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-      <c r="N139" s="15"/>
-      <c r="O139" s="15"/>
-      <c r="P139" s="15"/>
-      <c r="Q139" s="15"/>
-      <c r="R139" s="15"/>
-      <c r="S139" s="15"/>
-      <c r="T139" s="15"/>
-    </row>
-    <row r="140" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="15"/>
-      <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-      <c r="N140" s="15"/>
-      <c r="O140" s="15"/>
-      <c r="P140" s="15"/>
-      <c r="Q140" s="15"/>
-      <c r="R140" s="15"/>
-      <c r="S140" s="15"/>
-      <c r="T140" s="15"/>
-    </row>
-    <row r="141" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
-      <c r="O141" s="15"/>
-      <c r="P141" s="15"/>
-      <c r="Q141" s="15"/>
-      <c r="R141" s="15"/>
-      <c r="S141" s="15"/>
-      <c r="T141" s="15"/>
-    </row>
-    <row r="142" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A142" s="10"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-      <c r="O142" s="15"/>
-      <c r="P142" s="15"/>
-      <c r="Q142" s="15"/>
-      <c r="R142" s="15"/>
-      <c r="S142" s="15"/>
-      <c r="T142" s="15"/>
-    </row>
-    <row r="143" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A143" s="10"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15"/>
-      <c r="O143" s="15"/>
-      <c r="P143" s="15"/>
-      <c r="Q143" s="15"/>
-      <c r="R143" s="15"/>
-      <c r="S143" s="15"/>
-      <c r="T143" s="15"/>
-    </row>
-    <row r="144" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A144" s="10"/>
-      <c r="B144" s="10"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
-      <c r="P144" s="15"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="15"/>
-      <c r="S144" s="15"/>
-      <c r="T144" s="15"/>
-    </row>
-    <row r="145" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A145" s="10"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-      <c r="P145" s="15"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="15"/>
-      <c r="S145" s="15"/>
-      <c r="T145" s="15"/>
-    </row>
-    <row r="146" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A146" s="10"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
-      <c r="P146" s="15"/>
-      <c r="Q146" s="15"/>
-      <c r="R146" s="15"/>
-      <c r="S146" s="15"/>
-      <c r="T146" s="15"/>
-    </row>
-    <row r="147" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A147" s="10"/>
-      <c r="B147" s="10"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="15"/>
-      <c r="P147" s="15"/>
-      <c r="Q147" s="15"/>
-      <c r="R147" s="15"/>
-      <c r="S147" s="15"/>
-      <c r="T147" s="15"/>
-    </row>
-    <row r="148" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A148" s="10"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="15"/>
-      <c r="P148" s="15"/>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="15"/>
-      <c r="S148" s="15"/>
-      <c r="T148" s="15"/>
-    </row>
-    <row r="149" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A149" s="10"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="15"/>
-      <c r="P149" s="15"/>
-      <c r="Q149" s="15"/>
-      <c r="R149" s="15"/>
-      <c r="S149" s="15"/>
-      <c r="T149" s="15"/>
-    </row>
-    <row r="150" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A150" s="10"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
-      <c r="P150" s="15"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="15"/>
-      <c r="S150" s="15"/>
-      <c r="T150" s="15"/>
-    </row>
-    <row r="151" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="15"/>
-      <c r="O151" s="15"/>
-      <c r="P151" s="15"/>
-      <c r="Q151" s="15"/>
-      <c r="R151" s="15"/>
-      <c r="S151" s="15"/>
-      <c r="T151" s="15"/>
-    </row>
-    <row r="152" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A152" s="10"/>
-      <c r="B152" s="10"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
-      <c r="P152" s="15"/>
-      <c r="Q152" s="15"/>
-      <c r="R152" s="15"/>
-      <c r="S152" s="15"/>
-      <c r="T152" s="15"/>
-    </row>
-    <row r="153" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-      <c r="N153" s="15"/>
-      <c r="O153" s="15"/>
-      <c r="P153" s="15"/>
-      <c r="Q153" s="15"/>
-      <c r="R153" s="15"/>
-      <c r="S153" s="15"/>
-      <c r="T153" s="15"/>
-    </row>
-    <row r="154" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A154" s="10"/>
-      <c r="B154" s="10"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-      <c r="N154" s="15"/>
-      <c r="O154" s="15"/>
-      <c r="P154" s="15"/>
-      <c r="Q154" s="15"/>
-      <c r="R154" s="15"/>
-      <c r="S154" s="15"/>
-      <c r="T154" s="15"/>
-    </row>
-    <row r="155" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
-      <c r="M155" s="15"/>
-      <c r="N155" s="15"/>
-      <c r="O155" s="15"/>
-      <c r="P155" s="15"/>
-      <c r="Q155" s="15"/>
-      <c r="R155" s="15"/>
-      <c r="S155" s="15"/>
-      <c r="T155" s="15"/>
-    </row>
-    <row r="156" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
-      <c r="O156" s="15"/>
-      <c r="P156" s="15"/>
-      <c r="Q156" s="15"/>
-      <c r="R156" s="15"/>
-      <c r="S156" s="15"/>
-      <c r="T156" s="15"/>
-    </row>
-    <row r="157" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A157" s="10"/>
-      <c r="B157" s="10"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-      <c r="N157" s="15"/>
-      <c r="O157" s="15"/>
-      <c r="P157" s="15"/>
-      <c r="Q157" s="15"/>
-      <c r="R157" s="15"/>
-      <c r="S157" s="15"/>
-      <c r="T157" s="15"/>
-    </row>
-    <row r="158" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A158" s="10"/>
-      <c r="B158" s="10"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
-      <c r="Q158" s="15"/>
-      <c r="R158" s="15"/>
-      <c r="S158" s="15"/>
-      <c r="T158" s="15"/>
-    </row>
-    <row r="159" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-      <c r="N159" s="15"/>
-      <c r="O159" s="15"/>
-      <c r="P159" s="15"/>
-      <c r="Q159" s="15"/>
-      <c r="R159" s="15"/>
-      <c r="S159" s="15"/>
-      <c r="T159" s="15"/>
-    </row>
-    <row r="160" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A160" s="10"/>
-      <c r="B160" s="10"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
-      <c r="O160" s="15"/>
-      <c r="P160" s="15"/>
-      <c r="Q160" s="15"/>
-      <c r="R160" s="15"/>
-      <c r="S160" s="15"/>
-      <c r="T160" s="15"/>
-    </row>
-    <row r="161" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A161" s="10"/>
-      <c r="B161" s="10"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-      <c r="N161" s="15"/>
-      <c r="O161" s="15"/>
-      <c r="P161" s="15"/>
-      <c r="Q161" s="15"/>
-      <c r="R161" s="15"/>
-      <c r="S161" s="15"/>
-      <c r="T161" s="15"/>
-    </row>
-    <row r="162" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A162" s="10"/>
-      <c r="B162" s="10"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
-      <c r="O162" s="15"/>
-      <c r="P162" s="15"/>
-      <c r="Q162" s="15"/>
-      <c r="R162" s="15"/>
-      <c r="S162" s="15"/>
-      <c r="T162" s="15"/>
-    </row>
-    <row r="163" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A163" s="10"/>
-      <c r="B163" s="10"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-      <c r="N163" s="15"/>
-      <c r="O163" s="15"/>
-      <c r="P163" s="15"/>
-      <c r="Q163" s="15"/>
-      <c r="R163" s="15"/>
-      <c r="S163" s="15"/>
-      <c r="T163" s="15"/>
-    </row>
-    <row r="164" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A164" s="10"/>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-      <c r="N164" s="15"/>
-      <c r="O164" s="15"/>
-      <c r="P164" s="15"/>
-      <c r="Q164" s="15"/>
-      <c r="R164" s="15"/>
-      <c r="S164" s="15"/>
-      <c r="T164" s="15"/>
-    </row>
-    <row r="165" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A165" s="10"/>
-      <c r="B165" s="10"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="15"/>
-      <c r="O165" s="15"/>
-      <c r="P165" s="15"/>
-      <c r="Q165" s="15"/>
-      <c r="R165" s="15"/>
-      <c r="S165" s="15"/>
-      <c r="T165" s="15"/>
-    </row>
-    <row r="166" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A166" s="10"/>
-      <c r="B166" s="10"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="10"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
-      <c r="N166" s="15"/>
-      <c r="O166" s="15"/>
-      <c r="P166" s="15"/>
-      <c r="Q166" s="15"/>
-      <c r="R166" s="15"/>
-      <c r="S166" s="15"/>
-      <c r="T166" s="15"/>
-    </row>
-    <row r="167" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A167" s="10"/>
-      <c r="B167" s="10"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
-      <c r="M167" s="15"/>
-      <c r="N167" s="15"/>
-      <c r="O167" s="15"/>
-      <c r="P167" s="15"/>
-      <c r="Q167" s="15"/>
-      <c r="R167" s="15"/>
-      <c r="S167" s="15"/>
-      <c r="T167" s="15"/>
-    </row>
-    <row r="168" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A168" s="10"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
-      <c r="M168" s="15"/>
-      <c r="N168" s="15"/>
-      <c r="O168" s="15"/>
-      <c r="P168" s="15"/>
-      <c r="Q168" s="15"/>
-      <c r="R168" s="15"/>
-      <c r="S168" s="15"/>
-      <c r="T168" s="15"/>
-    </row>
-    <row r="169" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="10"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="15"/>
-      <c r="N169" s="15"/>
-      <c r="O169" s="15"/>
-      <c r="P169" s="15"/>
-      <c r="Q169" s="15"/>
-      <c r="R169" s="15"/>
-      <c r="S169" s="15"/>
-      <c r="T169" s="15"/>
-    </row>
-    <row r="170" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A170" s="10"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="F170" s="10"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="15"/>
-      <c r="M170" s="15"/>
-      <c r="N170" s="15"/>
-      <c r="O170" s="15"/>
-      <c r="P170" s="15"/>
-      <c r="Q170" s="15"/>
-      <c r="R170" s="15"/>
-      <c r="S170" s="15"/>
-      <c r="T170" s="15"/>
-    </row>
-    <row r="171" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A171" s="10"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="10"/>
-      <c r="F171" s="10"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="15"/>
-      <c r="M171" s="15"/>
-      <c r="N171" s="15"/>
-      <c r="O171" s="15"/>
-      <c r="P171" s="15"/>
-      <c r="Q171" s="15"/>
-      <c r="R171" s="15"/>
-      <c r="S171" s="15"/>
-      <c r="T171" s="15"/>
-    </row>
-    <row r="172" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A172" s="10"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="10"/>
-      <c r="F172" s="10"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
-      <c r="M172" s="15"/>
-      <c r="N172" s="15"/>
-      <c r="O172" s="15"/>
-      <c r="P172" s="15"/>
-      <c r="Q172" s="15"/>
-      <c r="R172" s="15"/>
-      <c r="S172" s="15"/>
-      <c r="T172" s="15"/>
-    </row>
-    <row r="173" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="15"/>
-      <c r="M173" s="15"/>
-      <c r="N173" s="15"/>
-      <c r="O173" s="15"/>
-      <c r="P173" s="15"/>
-      <c r="Q173" s="15"/>
-      <c r="R173" s="15"/>
-      <c r="S173" s="15"/>
-      <c r="T173" s="15"/>
-    </row>
-    <row r="174" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="15"/>
-      <c r="M174" s="15"/>
-      <c r="N174" s="15"/>
-      <c r="O174" s="15"/>
-      <c r="P174" s="15"/>
-      <c r="Q174" s="15"/>
-      <c r="R174" s="15"/>
-      <c r="S174" s="15"/>
-      <c r="T174" s="15"/>
-    </row>
-    <row r="175" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="10"/>
-      <c r="F175" s="10"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="15"/>
-      <c r="M175" s="15"/>
-      <c r="N175" s="15"/>
-      <c r="O175" s="15"/>
-      <c r="P175" s="15"/>
-      <c r="Q175" s="15"/>
-      <c r="R175" s="15"/>
-      <c r="S175" s="15"/>
-      <c r="T175" s="15"/>
-    </row>
-    <row r="176" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A176" s="10"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="15"/>
-      <c r="M176" s="15"/>
-      <c r="N176" s="15"/>
-      <c r="O176" s="15"/>
-      <c r="P176" s="15"/>
-      <c r="Q176" s="15"/>
-      <c r="R176" s="15"/>
-      <c r="S176" s="15"/>
-      <c r="T176" s="15"/>
-    </row>
-    <row r="177" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="F177" s="10"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="15"/>
-      <c r="M177" s="15"/>
-      <c r="N177" s="15"/>
-      <c r="O177" s="15"/>
-      <c r="P177" s="15"/>
-      <c r="Q177" s="15"/>
-      <c r="R177" s="15"/>
-      <c r="S177" s="15"/>
-      <c r="T177" s="15"/>
-    </row>
-    <row r="178" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A178" s="10"/>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="10"/>
-      <c r="F178" s="10"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="15"/>
-      <c r="M178" s="15"/>
-      <c r="N178" s="15"/>
-      <c r="O178" s="15"/>
-      <c r="P178" s="15"/>
-      <c r="Q178" s="15"/>
-      <c r="R178" s="15"/>
-      <c r="S178" s="15"/>
-      <c r="T178" s="15"/>
-    </row>
-    <row r="179" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="15"/>
-      <c r="M179" s="15"/>
-      <c r="N179" s="15"/>
-      <c r="O179" s="15"/>
-      <c r="P179" s="15"/>
-      <c r="Q179" s="15"/>
-      <c r="R179" s="15"/>
-      <c r="S179" s="15"/>
-      <c r="T179" s="15"/>
-    </row>
-    <row r="180" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A180" s="10"/>
-      <c r="B180" s="10"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="10"/>
-      <c r="F180" s="10"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="15"/>
-      <c r="P180" s="15"/>
-      <c r="Q180" s="15"/>
-      <c r="R180" s="15"/>
-      <c r="S180" s="15"/>
-      <c r="T180" s="15"/>
-    </row>
-    <row r="181" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="15"/>
-      <c r="M181" s="15"/>
-      <c r="N181" s="15"/>
-      <c r="O181" s="15"/>
-      <c r="P181" s="15"/>
-      <c r="Q181" s="15"/>
-      <c r="R181" s="15"/>
-      <c r="S181" s="15"/>
-      <c r="T181" s="15"/>
-    </row>
-    <row r="182" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="15"/>
-      <c r="M182" s="15"/>
-      <c r="N182" s="15"/>
-      <c r="O182" s="15"/>
-      <c r="P182" s="15"/>
-      <c r="Q182" s="15"/>
-      <c r="R182" s="15"/>
-      <c r="S182" s="15"/>
-      <c r="T182" s="15"/>
-    </row>
-    <row r="183" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
-      <c r="M183" s="15"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="15"/>
-      <c r="P183" s="15"/>
-      <c r="Q183" s="15"/>
-      <c r="R183" s="15"/>
-      <c r="S183" s="15"/>
-      <c r="T183" s="15"/>
-    </row>
-    <row r="184" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A184" s="10"/>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="15"/>
-      <c r="M184" s="15"/>
-      <c r="N184" s="15"/>
-      <c r="O184" s="15"/>
-      <c r="P184" s="15"/>
-      <c r="Q184" s="15"/>
-      <c r="R184" s="15"/>
-      <c r="S184" s="15"/>
-      <c r="T184" s="15"/>
-    </row>
-    <row r="185" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="15"/>
-      <c r="P185" s="15"/>
-      <c r="Q185" s="15"/>
-      <c r="R185" s="15"/>
-      <c r="S185" s="15"/>
-      <c r="T185" s="15"/>
-    </row>
-    <row r="186" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A186" s="10"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10"/>
-      <c r="F186" s="10"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="15"/>
-      <c r="P186" s="15"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15"/>
-      <c r="S186" s="15"/>
-      <c r="T186" s="15"/>
-    </row>
-    <row r="187" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A187" s="10"/>
-      <c r="B187" s="10"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="10"/>
-      <c r="F187" s="10"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="15"/>
-      <c r="M187" s="15"/>
-      <c r="N187" s="15"/>
-      <c r="O187" s="15"/>
-      <c r="P187" s="15"/>
-      <c r="Q187" s="15"/>
-      <c r="R187" s="15"/>
-      <c r="S187" s="15"/>
-      <c r="T187" s="15"/>
-    </row>
-    <row r="188" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="15"/>
-      <c r="M188" s="15"/>
-      <c r="N188" s="15"/>
-      <c r="O188" s="15"/>
-      <c r="P188" s="15"/>
-      <c r="Q188" s="15"/>
-      <c r="R188" s="15"/>
-      <c r="S188" s="15"/>
-      <c r="T188" s="15"/>
-    </row>
-    <row r="189" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A189" s="10"/>
-      <c r="B189" s="10"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="10"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="15"/>
-      <c r="L189" s="15"/>
-      <c r="M189" s="15"/>
-      <c r="N189" s="15"/>
-      <c r="O189" s="15"/>
-      <c r="P189" s="15"/>
-      <c r="Q189" s="15"/>
-      <c r="R189" s="15"/>
-      <c r="S189" s="15"/>
-      <c r="T189" s="15"/>
-    </row>
-    <row r="190" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="15"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="15"/>
-      <c r="M190" s="15"/>
-      <c r="N190" s="15"/>
-      <c r="O190" s="15"/>
-      <c r="P190" s="15"/>
-      <c r="Q190" s="15"/>
-      <c r="R190" s="15"/>
-      <c r="S190" s="15"/>
-      <c r="T190" s="15"/>
-    </row>
-    <row r="191" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A191" s="10"/>
-      <c r="B191" s="10"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="10"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="15"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="15"/>
-      <c r="M191" s="15"/>
-      <c r="N191" s="15"/>
-      <c r="O191" s="15"/>
-      <c r="P191" s="15"/>
-      <c r="Q191" s="15"/>
-      <c r="R191" s="15"/>
-      <c r="S191" s="15"/>
-      <c r="T191" s="15"/>
-    </row>
-    <row r="192" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A192" s="10"/>
-      <c r="B192" s="10"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="15"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="15"/>
-      <c r="L192" s="15"/>
-      <c r="M192" s="15"/>
-      <c r="N192" s="15"/>
-      <c r="O192" s="15"/>
-      <c r="P192" s="15"/>
-      <c r="Q192" s="15"/>
-      <c r="R192" s="15"/>
-      <c r="S192" s="15"/>
-      <c r="T192" s="15"/>
-    </row>
-    <row r="193" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A193" s="10"/>
-      <c r="B193" s="10"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="10"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="15"/>
-      <c r="I193" s="15"/>
-      <c r="J193" s="15"/>
-      <c r="K193" s="15"/>
-      <c r="L193" s="15"/>
-      <c r="M193" s="15"/>
-      <c r="N193" s="15"/>
-      <c r="O193" s="15"/>
-      <c r="P193" s="15"/>
-      <c r="Q193" s="15"/>
-      <c r="R193" s="15"/>
-      <c r="S193" s="15"/>
-      <c r="T193" s="15"/>
-    </row>
-    <row r="194" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A194" s="10"/>
-      <c r="B194" s="10"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="10"/>
-      <c r="F194" s="10"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="15"/>
-      <c r="M194" s="15"/>
-      <c r="N194" s="15"/>
-      <c r="O194" s="15"/>
-      <c r="P194" s="15"/>
-      <c r="Q194" s="15"/>
-      <c r="R194" s="15"/>
-      <c r="S194" s="15"/>
-      <c r="T194" s="15"/>
-    </row>
-    <row r="195" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="15"/>
-      <c r="M195" s="15"/>
-      <c r="N195" s="15"/>
-      <c r="O195" s="15"/>
-      <c r="P195" s="15"/>
-      <c r="Q195" s="15"/>
-      <c r="R195" s="15"/>
-      <c r="S195" s="15"/>
-      <c r="T195" s="15"/>
-    </row>
-    <row r="196" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A196" s="10"/>
-      <c r="B196" s="10"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="10"/>
-      <c r="F196" s="10"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="15"/>
-      <c r="M196" s="15"/>
-      <c r="N196" s="15"/>
-      <c r="O196" s="15"/>
-      <c r="P196" s="15"/>
-      <c r="Q196" s="15"/>
-      <c r="R196" s="15"/>
-      <c r="S196" s="15"/>
-      <c r="T196" s="15"/>
-    </row>
-    <row r="197" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A197" s="10"/>
-      <c r="B197" s="10"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="10"/>
-      <c r="F197" s="10"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="15"/>
-      <c r="M197" s="15"/>
-      <c r="N197" s="15"/>
-      <c r="O197" s="15"/>
-      <c r="P197" s="15"/>
-      <c r="Q197" s="15"/>
-      <c r="R197" s="15"/>
-      <c r="S197" s="15"/>
-      <c r="T197" s="15"/>
-    </row>
-    <row r="198" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A198" s="10"/>
-      <c r="B198" s="10"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="10"/>
-      <c r="F198" s="10"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="15"/>
-      <c r="M198" s="15"/>
-      <c r="N198" s="15"/>
-      <c r="O198" s="15"/>
-      <c r="P198" s="15"/>
-      <c r="Q198" s="15"/>
-      <c r="R198" s="15"/>
-      <c r="S198" s="15"/>
-      <c r="T198" s="15"/>
-    </row>
-    <row r="199" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A199" s="10"/>
-      <c r="B199" s="10"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="10"/>
-      <c r="F199" s="10"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="15"/>
-      <c r="M199" s="15"/>
-      <c r="N199" s="15"/>
-      <c r="O199" s="15"/>
-      <c r="P199" s="15"/>
-      <c r="Q199" s="15"/>
-      <c r="R199" s="15"/>
-      <c r="S199" s="15"/>
-      <c r="T199" s="15"/>
-    </row>
-    <row r="200" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A200" s="10"/>
-      <c r="B200" s="10"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="10"/>
-      <c r="F200" s="10"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="15"/>
-      <c r="M200" s="15"/>
-      <c r="N200" s="15"/>
-      <c r="O200" s="15"/>
-      <c r="P200" s="15"/>
-      <c r="Q200" s="15"/>
-      <c r="R200" s="15"/>
-      <c r="S200" s="15"/>
-      <c r="T200" s="15"/>
-    </row>
-    <row r="201" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="10"/>
-      <c r="F201" s="10"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="15"/>
-      <c r="I201" s="15"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="15"/>
-      <c r="M201" s="15"/>
-      <c r="N201" s="15"/>
-      <c r="O201" s="15"/>
-      <c r="P201" s="15"/>
-      <c r="Q201" s="15"/>
-      <c r="R201" s="15"/>
-      <c r="S201" s="15"/>
-      <c r="T201" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50057E-B806-4353-953E-3E4EE2F31CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAA775A-CFE9-4F51-BDD1-A1421AA5A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,12 +1058,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1125,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,12 +1144,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,8 +1482,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,20 +2019,20 @@
       <c r="F15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
     </row>
     <row r="16" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -2129,20 +2121,20 @@
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
     </row>
     <row r="19" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -2197,20 +2189,20 @@
       <c r="F20" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -2265,20 +2257,20 @@
       <c r="F22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
     </row>
     <row r="23" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -2333,20 +2325,20 @@
       <c r="F24" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
     </row>
     <row r="25" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -2367,20 +2359,20 @@
       <c r="F25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
     </row>
     <row r="26" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -2401,20 +2393,20 @@
       <c r="F26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
     </row>
     <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2435,20 +2427,20 @@
       <c r="F27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
     </row>
     <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2469,20 +2461,20 @@
       <c r="F28" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
     </row>
     <row r="29" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -2503,20 +2495,20 @@
       <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
     </row>
     <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -2537,20 +2529,20 @@
       <c r="F30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
     </row>
     <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -2571,20 +2563,20 @@
       <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
     </row>
     <row r="32" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -2605,20 +2597,20 @@
       <c r="F32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
     </row>
     <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
@@ -2639,20 +2631,20 @@
       <c r="F33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
     </row>
     <row r="34" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
@@ -2673,20 +2665,20 @@
       <c r="F34" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
     </row>
     <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -2707,20 +2699,20 @@
       <c r="F35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
     </row>
     <row r="36" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
@@ -2741,20 +2733,20 @@
       <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
     </row>
     <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
@@ -2775,20 +2767,20 @@
       <c r="F37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
     </row>
     <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
@@ -2945,20 +2937,20 @@
       <c r="F42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
     </row>
     <row r="43" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
@@ -2979,20 +2971,20 @@
       <c r="F43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
     </row>
     <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
@@ -3703,20 +3695,20 @@
       <c r="F65" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="15"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+      <c r="S65" s="13"/>
+      <c r="T65" s="13"/>
     </row>
     <row r="66" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -3737,20 +3729,20 @@
       <c r="F66" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
-      <c r="T66" s="15"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
     </row>
     <row r="67" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
@@ -3771,20 +3763,20 @@
       <c r="F67" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
     </row>
     <row r="68" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
@@ -3839,20 +3831,20 @@
       <c r="F69" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
     </row>
     <row r="70" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
@@ -3873,20 +3865,20 @@
       <c r="F70" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
     </row>
     <row r="71" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
@@ -3907,20 +3899,20 @@
       <c r="F71" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
     </row>
     <row r="72" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
@@ -3941,20 +3933,20 @@
       <c r="F72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
     </row>
     <row r="73" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -3975,20 +3967,20 @@
       <c r="F73" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
-      <c r="T73" s="15"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
     </row>
     <row r="74" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -4009,20 +4001,22 @@
       <c r="F74" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
-      <c r="T74" s="15"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13">
+        <v>1</v>
+      </c>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
     </row>
     <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
@@ -4043,20 +4037,20 @@
       <c r="F75" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="15"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
     </row>
     <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
@@ -4077,20 +4071,20 @@
       <c r="F76" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
-      <c r="T76" s="15"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
     </row>
     <row r="77" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -4213,20 +4207,20 @@
       <c r="F80" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
-      <c r="T80" s="15"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
     </row>
     <row r="81" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -4247,20 +4241,20 @@
       <c r="F81" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
-      <c r="T81" s="15"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
     </row>
     <row r="82" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
@@ -4349,20 +4343,20 @@
       <c r="F84" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
     </row>
     <row r="85" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -4417,20 +4411,20 @@
       <c r="F86" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
     </row>
     <row r="87" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -4519,20 +4513,20 @@
       <c r="F89" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
     </row>
     <row r="90" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
@@ -4553,20 +4547,20 @@
       <c r="F90" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
     </row>
     <row r="91" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -4621,20 +4615,20 @@
       <c r="F92" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
-      <c r="T92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
     </row>
     <row r="93" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -4655,20 +4649,20 @@
       <c r="F93" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
-      <c r="T93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
     </row>
     <row r="94" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -4723,20 +4717,20 @@
       <c r="F95" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
-      <c r="T95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
     </row>
     <row r="96" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
@@ -4757,20 +4751,20 @@
       <c r="F96" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
-      <c r="T96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
     </row>
     <row r="97" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
@@ -4893,20 +4887,20 @@
       <c r="F100" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
-      <c r="T100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
     </row>
     <row r="101" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -4927,20 +4921,20 @@
       <c r="F101" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
     </row>
     <row r="102" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -4961,20 +4955,20 @@
       <c r="F102" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
-      <c r="T102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
     </row>
     <row r="103" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
@@ -4995,20 +4989,20 @@
       <c r="F103" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
-      <c r="T103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
     </row>
     <row r="104" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -5029,20 +5023,20 @@
       <c r="F104" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
-      <c r="T104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
     </row>
     <row r="105" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
@@ -5063,20 +5057,20 @@
       <c r="F105" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
     </row>
     <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
@@ -5097,20 +5091,20 @@
       <c r="F106" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="15"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="15"/>
-      <c r="S106" s="15"/>
-      <c r="T106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13"/>
     </row>
     <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -5131,20 +5125,20 @@
       <c r="F107" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
-      <c r="T107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
     </row>
     <row r="108" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -5165,20 +5159,20 @@
       <c r="F108" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="13"/>
+      <c r="S108" s="13"/>
+      <c r="T108" s="13"/>
     </row>
     <row r="109" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
@@ -5199,20 +5193,20 @@
       <c r="F109" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
-      <c r="T109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13"/>
     </row>
     <row r="110" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
@@ -5233,20 +5227,20 @@
       <c r="F110" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
-      <c r="T110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110" s="13"/>
     </row>
     <row r="111" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
@@ -5267,20 +5261,20 @@
       <c r="F111" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="15"/>
-      <c r="S111" s="15"/>
-      <c r="T111" s="15"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111" s="13"/>
     </row>
     <row r="112" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
@@ -5301,20 +5295,20 @@
       <c r="F112" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="15"/>
-      <c r="S112" s="15"/>
-      <c r="T112" s="15"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
     </row>
     <row r="113" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
@@ -5335,20 +5329,20 @@
       <c r="F113" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
-      <c r="N113" s="15"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="15"/>
-      <c r="R113" s="15"/>
-      <c r="S113" s="15"/>
-      <c r="T113" s="15"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+      <c r="M113" s="13"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13"/>
     </row>
     <row r="114" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
@@ -5369,20 +5363,20 @@
       <c r="F114" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
-      <c r="T114" s="15"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="13"/>
+      <c r="S114" s="13"/>
+      <c r="T114" s="13"/>
     </row>
     <row r="115" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
@@ -5403,20 +5397,20 @@
       <c r="F115" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
-      <c r="T115" s="15"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13"/>
     </row>
     <row r="116" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
@@ -5437,20 +5431,20 @@
       <c r="F116" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="15"/>
-      <c r="R116" s="15"/>
-      <c r="S116" s="15"/>
-      <c r="T116" s="15"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="13"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13"/>
+      <c r="S116" s="13"/>
+      <c r="T116" s="13"/>
     </row>
     <row r="117" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
@@ -5471,20 +5465,20 @@
       <c r="F117" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="15"/>
-      <c r="R117" s="15"/>
-      <c r="S117" s="15"/>
-      <c r="T117" s="15"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+      <c r="M117" s="13"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
+      <c r="P117" s="13"/>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13"/>
     </row>
     <row r="118" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
@@ -5505,20 +5499,20 @@
       <c r="F118" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="15"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="15"/>
-      <c r="T118" s="15"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="13"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
     </row>
     <row r="119" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
@@ -5539,20 +5533,20 @@
       <c r="F119" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
-      <c r="T119" s="15"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAA775A-CFE9-4F51-BDD1-A1421AA5A8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2701CE7-5E81-4F21-9BAC-22C43561322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -960,7 +960,7 @@
     <t>EG</t>
   </si>
   <si>
-    <t>KIT VERÃO</t>
+    <t>KIT INVERNO</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1051,19 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1119,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,15 +1133,10 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1482,8 +1471,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M78" sqref="M78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1554,7 @@
       <c r="B2" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1574,23 +1563,23 @@
       <c r="E2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1599,7 +1588,7 @@
       <c r="B3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1608,91 +1597,91 @@
       <c r="E3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1701,7 +1690,7 @@
       <c r="B6" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1710,23 +1699,23 @@
       <c r="E6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1735,7 +1724,7 @@
       <c r="B7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1744,23 +1733,23 @@
       <c r="E7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1769,7 +1758,7 @@
       <c r="B8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1778,23 +1767,23 @@
       <c r="E8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1803,7 +1792,7 @@
       <c r="B9" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1812,23 +1801,23 @@
       <c r="E9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1837,7 +1826,7 @@
       <c r="B10" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1846,23 +1835,23 @@
       <c r="E10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1871,7 +1860,7 @@
       <c r="B11" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1880,23 +1869,23 @@
       <c r="E11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1905,7 +1894,7 @@
       <c r="B12" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1914,23 +1903,23 @@
       <c r="E12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1939,7 +1928,7 @@
       <c r="B13" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1948,23 +1937,23 @@
       <c r="E13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1973,7 +1962,7 @@
       <c r="B14" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1982,57 +1971,57 @@
       <c r="E14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -2041,7 +2030,7 @@
       <c r="B16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2050,23 +2039,23 @@
       <c r="E16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -2075,7 +2064,7 @@
       <c r="B17" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -2084,23 +2073,23 @@
       <c r="E17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -2109,7 +2098,7 @@
       <c r="B18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2118,23 +2107,23 @@
       <c r="E18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -2143,7 +2132,7 @@
       <c r="B19" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2152,23 +2141,23 @@
       <c r="E19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -2177,7 +2166,7 @@
       <c r="B20" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2186,23 +2175,23 @@
       <c r="E20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -2211,7 +2200,7 @@
       <c r="B21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2220,23 +2209,23 @@
       <c r="E21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -2245,7 +2234,7 @@
       <c r="B22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2254,23 +2243,23 @@
       <c r="E22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -2279,7 +2268,7 @@
       <c r="B23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2288,23 +2277,23 @@
       <c r="E23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -2313,7 +2302,7 @@
       <c r="B24" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2322,23 +2311,23 @@
       <c r="E24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -2347,7 +2336,7 @@
       <c r="B25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2356,23 +2345,23 @@
       <c r="E25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -2381,7 +2370,7 @@
       <c r="B26" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2390,23 +2379,23 @@
       <c r="E26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2415,7 +2404,7 @@
       <c r="B27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2424,23 +2413,23 @@
       <c r="E27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
     </row>
     <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2449,7 +2438,7 @@
       <c r="B28" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2458,23 +2447,23 @@
       <c r="E28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -2483,7 +2472,7 @@
       <c r="B29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -2492,57 +2481,57 @@
       <c r="E29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
     </row>
     <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
     </row>
     <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -2551,7 +2540,7 @@
       <c r="B31" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2560,23 +2549,23 @@
       <c r="E31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
     </row>
     <row r="32" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -2585,7 +2574,7 @@
       <c r="B32" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -2594,23 +2583,23 @@
       <c r="E32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
     </row>
     <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
@@ -2619,7 +2608,7 @@
       <c r="B33" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -2628,23 +2617,23 @@
       <c r="E33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
     </row>
     <row r="34" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
@@ -2653,7 +2642,7 @@
       <c r="B34" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2662,23 +2651,23 @@
       <c r="E34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
     </row>
     <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -2687,7 +2676,7 @@
       <c r="B35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -2696,23 +2685,23 @@
       <c r="E35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
     </row>
     <row r="36" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
@@ -2721,7 +2710,7 @@
       <c r="B36" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -2730,23 +2719,23 @@
       <c r="E36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
     </row>
     <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
@@ -2755,7 +2744,7 @@
       <c r="B37" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2764,23 +2753,23 @@
       <c r="E37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
@@ -2789,7 +2778,7 @@
       <c r="B38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -2798,23 +2787,23 @@
       <c r="E38" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
     </row>
     <row r="39" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
@@ -2823,7 +2812,7 @@
       <c r="B39" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D39" s="5" t="s">
@@ -2832,23 +2821,23 @@
       <c r="E39" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
     </row>
     <row r="40" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
@@ -2857,7 +2846,7 @@
       <c r="B40" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -2866,23 +2855,23 @@
       <c r="E40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
     </row>
     <row r="41" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
@@ -2891,7 +2880,7 @@
       <c r="B41" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2900,23 +2889,23 @@
       <c r="E41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
     </row>
     <row r="42" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
@@ -2925,7 +2914,7 @@
       <c r="B42" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D42" s="5" t="s">
@@ -2934,23 +2923,23 @@
       <c r="E42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
     </row>
     <row r="43" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
@@ -2959,7 +2948,7 @@
       <c r="B43" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2968,45 +2957,45 @@
       <c r="E43" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
     </row>
     <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
     </row>
     <row r="45" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
@@ -3015,7 +3004,7 @@
       <c r="B45" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="5" t="s">
@@ -3024,23 +3013,23 @@
       <c r="E45" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
     </row>
     <row r="46" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
@@ -3049,7 +3038,7 @@
       <c r="B46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -3058,23 +3047,23 @@
       <c r="E46" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
     </row>
     <row r="47" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -3083,7 +3072,7 @@
       <c r="B47" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -3092,23 +3081,23 @@
       <c r="E47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
     </row>
     <row r="48" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
@@ -3117,7 +3106,7 @@
       <c r="B48" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -3126,23 +3115,23 @@
       <c r="E48" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
     </row>
     <row r="49" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
@@ -3151,7 +3140,7 @@
       <c r="B49" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D49" s="5" t="s">
@@ -3160,23 +3149,23 @@
       <c r="E49" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
     </row>
     <row r="50" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
@@ -3185,7 +3174,7 @@
       <c r="B50" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -3194,23 +3183,23 @@
       <c r="E50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
     </row>
     <row r="51" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
@@ -3219,7 +3208,7 @@
       <c r="B51" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D51" s="5" t="s">
@@ -3228,23 +3217,23 @@
       <c r="E51" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
     </row>
     <row r="52" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
@@ -3253,7 +3242,7 @@
       <c r="B52" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>126</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -3262,45 +3251,45 @@
       <c r="E52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
     </row>
     <row r="53" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
@@ -3309,7 +3298,7 @@
       <c r="B54" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D54" s="5" t="s">
@@ -3318,23 +3307,23 @@
       <c r="E54" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
     </row>
     <row r="55" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
@@ -3343,7 +3332,7 @@
       <c r="B55" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -3352,23 +3341,23 @@
       <c r="E55" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
@@ -3377,7 +3366,7 @@
       <c r="B56" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -3386,23 +3375,23 @@
       <c r="E56" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
     </row>
     <row r="57" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
@@ -3411,7 +3400,7 @@
       <c r="B57" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>130</v>
       </c>
       <c r="D57" s="5" t="s">
@@ -3420,125 +3409,125 @@
       <c r="E57" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
     </row>
     <row r="58" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
     </row>
     <row r="59" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="E59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
     </row>
     <row r="60" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" s="8" t="s">
+      <c r="E60" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
     </row>
     <row r="61" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
@@ -3547,7 +3536,7 @@
       <c r="B61" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -3556,23 +3545,23 @@
       <c r="E61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
     </row>
     <row r="62" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -3581,7 +3570,7 @@
       <c r="B62" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -3590,23 +3579,23 @@
       <c r="E62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
     </row>
     <row r="63" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -3615,7 +3604,7 @@
       <c r="B63" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -3624,23 +3613,23 @@
       <c r="E63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
     </row>
     <row r="64" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
@@ -3649,7 +3638,7 @@
       <c r="B64" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -3658,57 +3647,57 @@
       <c r="E64" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
     </row>
     <row r="65" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E65" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="E65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
     </row>
     <row r="66" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -3717,7 +3706,7 @@
       <c r="B66" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -3726,23 +3715,23 @@
       <c r="E66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
     </row>
     <row r="67" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
@@ -3751,7 +3740,7 @@
       <c r="B67" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -3760,57 +3749,57 @@
       <c r="E67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
     </row>
     <row r="68" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="E68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
     </row>
     <row r="69" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
@@ -3819,7 +3808,7 @@
       <c r="B69" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>142</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -3828,23 +3817,23 @@
       <c r="E69" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
     </row>
     <row r="70" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
@@ -3853,7 +3842,7 @@
       <c r="B70" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3862,32 +3851,32 @@
       <c r="E70" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
     </row>
     <row r="71" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -3896,32 +3885,32 @@
       <c r="E71" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="13"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
     </row>
     <row r="72" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -3930,23 +3919,23 @@
       <c r="E72" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
     </row>
     <row r="73" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -3955,7 +3944,7 @@
       <c r="B73" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -3964,23 +3953,23 @@
       <c r="E73" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="13"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
     </row>
     <row r="74" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -3989,7 +3978,7 @@
       <c r="B74" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -3998,25 +3987,23 @@
       <c r="E74" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13">
-        <v>1</v>
-      </c>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="13"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
     </row>
     <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
@@ -4025,7 +4012,7 @@
       <c r="B75" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -4034,23 +4021,23 @@
       <c r="E75" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="13"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
     </row>
     <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
@@ -4059,7 +4046,7 @@
       <c r="B76" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D76" s="5" t="s">
@@ -4068,23 +4055,23 @@
       <c r="E76" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="13"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
     </row>
     <row r="77" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -4093,7 +4080,7 @@
       <c r="B77" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -4102,23 +4089,23 @@
       <c r="E77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="13"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
     </row>
     <row r="78" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
@@ -4127,7 +4114,7 @@
       <c r="B78" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D78" s="5" t="s">
@@ -4136,23 +4123,23 @@
       <c r="E78" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="13"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
     </row>
     <row r="79" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
@@ -4161,7 +4148,7 @@
       <c r="B79" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -4170,23 +4157,23 @@
       <c r="E79" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
     </row>
     <row r="80" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -4195,7 +4182,7 @@
       <c r="B80" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D80" s="5" t="s">
@@ -4204,23 +4191,23 @@
       <c r="E80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
     </row>
     <row r="81" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -4229,7 +4216,7 @@
       <c r="B81" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>233</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -4238,23 +4225,23 @@
       <c r="E81" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="13"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
     </row>
     <row r="82" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
@@ -4263,7 +4250,7 @@
       <c r="B82" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="8" t="s">
         <v>235</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -4272,23 +4259,23 @@
       <c r="E82" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="13"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
     </row>
     <row r="83" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
@@ -4297,7 +4284,7 @@
       <c r="B83" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D83" s="5" t="s">
@@ -4306,23 +4293,23 @@
       <c r="E83" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
     </row>
     <row r="84" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
@@ -4331,7 +4318,7 @@
       <c r="B84" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -4340,23 +4327,23 @@
       <c r="E84" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
     </row>
     <row r="85" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -4365,7 +4352,7 @@
       <c r="B85" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="8" t="s">
         <v>241</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -4374,23 +4361,23 @@
       <c r="E85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
     </row>
     <row r="86" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -4399,7 +4386,7 @@
       <c r="B86" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>243</v>
       </c>
       <c r="D86" s="5" t="s">
@@ -4408,23 +4395,23 @@
       <c r="E86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="13"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
     </row>
     <row r="87" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -4433,7 +4420,7 @@
       <c r="B87" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="8" t="s">
         <v>245</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -4442,23 +4429,23 @@
       <c r="E87" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="13"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
     </row>
     <row r="88" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
@@ -4467,7 +4454,7 @@
       <c r="B88" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D88" s="5" t="s">
@@ -4476,23 +4463,23 @@
       <c r="E88" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="13"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
     </row>
     <row r="89" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
@@ -4501,7 +4488,7 @@
       <c r="B89" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="8" t="s">
         <v>249</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -4510,23 +4497,23 @@
       <c r="E89" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="13"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
     </row>
     <row r="90" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
@@ -4535,7 +4522,7 @@
       <c r="B90" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="8" t="s">
         <v>251</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -4544,23 +4531,23 @@
       <c r="E90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="13"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
     </row>
     <row r="91" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -4569,7 +4556,7 @@
       <c r="B91" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="8" t="s">
         <v>253</v>
       </c>
       <c r="D91" s="5" t="s">
@@ -4578,23 +4565,23 @@
       <c r="E91" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="13"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
     </row>
     <row r="92" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -4603,7 +4590,7 @@
       <c r="B92" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>255</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -4612,23 +4599,23 @@
       <c r="E92" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="13"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
     </row>
     <row r="93" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -4637,7 +4624,7 @@
       <c r="B93" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="8" t="s">
         <v>257</v>
       </c>
       <c r="D93" s="5" t="s">
@@ -4646,23 +4633,23 @@
       <c r="E93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="13"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
     </row>
     <row r="94" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -4671,7 +4658,7 @@
       <c r="B94" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="8" t="s">
         <v>259</v>
       </c>
       <c r="D94" s="5" t="s">
@@ -4680,23 +4667,23 @@
       <c r="E94" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="13"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
     </row>
     <row r="95" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
@@ -4705,7 +4692,7 @@
       <c r="B95" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>261</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -4714,23 +4701,23 @@
       <c r="E95" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="13"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
     </row>
     <row r="96" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
@@ -4739,7 +4726,7 @@
       <c r="B96" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -4748,32 +4735,32 @@
       <c r="E96" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="13"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
     </row>
     <row r="97" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>265</v>
       </c>
       <c r="D97" s="5" t="s">
@@ -4782,23 +4769,23 @@
       <c r="E97" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
     </row>
     <row r="98" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
@@ -4807,7 +4794,7 @@
       <c r="B98" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="8" t="s">
         <v>267</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -4816,23 +4803,23 @@
       <c r="E98" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="13"/>
-      <c r="S98" s="13"/>
-      <c r="T98" s="13"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
     </row>
     <row r="99" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
@@ -4841,7 +4828,7 @@
       <c r="B99" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="8" t="s">
         <v>269</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -4850,23 +4837,23 @@
       <c r="E99" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
     </row>
     <row r="100" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
@@ -4875,7 +4862,7 @@
       <c r="B100" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>271</v>
       </c>
       <c r="D100" s="5" t="s">
@@ -4884,23 +4871,23 @@
       <c r="E100" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="13"/>
-      <c r="S100" s="13"/>
-      <c r="T100" s="13"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
     </row>
     <row r="101" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -4909,7 +4896,7 @@
       <c r="B101" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>273</v>
       </c>
       <c r="D101" s="5" t="s">
@@ -4918,23 +4905,23 @@
       <c r="E101" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-      <c r="R101" s="13"/>
-      <c r="S101" s="13"/>
-      <c r="T101" s="13"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
     </row>
     <row r="102" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -4943,7 +4930,7 @@
       <c r="B102" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>275</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -4952,23 +4939,23 @@
       <c r="E102" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="13"/>
-      <c r="S102" s="13"/>
-      <c r="T102" s="13"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
     </row>
     <row r="103" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
@@ -4977,7 +4964,7 @@
       <c r="B103" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="8" t="s">
         <v>277</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -4986,23 +4973,23 @@
       <c r="E103" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="13"/>
-      <c r="S103" s="13"/>
-      <c r="T103" s="13"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
     </row>
     <row r="104" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -5011,7 +4998,7 @@
       <c r="B104" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D104" s="5" t="s">
@@ -5020,23 +5007,23 @@
       <c r="E104" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="13"/>
-      <c r="S104" s="13"/>
-      <c r="T104" s="13"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7"/>
+      <c r="T104" s="7"/>
     </row>
     <row r="105" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
@@ -5045,7 +5032,7 @@
       <c r="B105" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>281</v>
       </c>
       <c r="D105" s="5" t="s">
@@ -5054,23 +5041,23 @@
       <c r="E105" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-      <c r="R105" s="13"/>
-      <c r="S105" s="13"/>
-      <c r="T105" s="13"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
     </row>
     <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
@@ -5079,7 +5066,7 @@
       <c r="B106" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -5088,23 +5075,23 @@
       <c r="E106" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="13"/>
-      <c r="S106" s="13"/>
-      <c r="T106" s="13"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7"/>
     </row>
     <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -5113,7 +5100,7 @@
       <c r="B107" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="8" t="s">
         <v>285</v>
       </c>
       <c r="D107" s="5" t="s">
@@ -5122,23 +5109,23 @@
       <c r="E107" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
     </row>
     <row r="108" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -5147,7 +5134,7 @@
       <c r="B108" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="8" t="s">
         <v>287</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -5156,23 +5143,23 @@
       <c r="E108" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="13"/>
-      <c r="S108" s="13"/>
-      <c r="T108" s="13"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7"/>
+      <c r="T108" s="7"/>
     </row>
     <row r="109" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
@@ -5181,7 +5168,7 @@
       <c r="B109" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="8" t="s">
         <v>289</v>
       </c>
       <c r="D109" s="5" t="s">
@@ -5190,23 +5177,23 @@
       <c r="E109" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-      <c r="R109" s="13"/>
-      <c r="S109" s="13"/>
-      <c r="T109" s="13"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
     </row>
     <row r="110" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
@@ -5215,7 +5202,7 @@
       <c r="B110" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>291</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -5224,32 +5211,32 @@
       <c r="E110" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="13"/>
-      <c r="S110" s="13"/>
-      <c r="T110" s="13"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="7"/>
     </row>
     <row r="111" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="8" t="s">
         <v>293</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -5258,23 +5245,23 @@
       <c r="E111" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="13"/>
-      <c r="S111" s="13"/>
-      <c r="T111" s="13"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
     </row>
     <row r="112" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
@@ -5283,7 +5270,7 @@
       <c r="B112" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="8" t="s">
         <v>295</v>
       </c>
       <c r="D112" s="5" t="s">
@@ -5292,23 +5279,23 @@
       <c r="E112" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F112" s="8" t="s">
+      <c r="F112" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="13"/>
-      <c r="S112" s="13"/>
-      <c r="T112" s="13"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7"/>
+      <c r="T112" s="7"/>
     </row>
     <row r="113" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
@@ -5317,7 +5304,7 @@
       <c r="B113" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>297</v>
       </c>
       <c r="D113" s="5" t="s">
@@ -5326,23 +5313,23 @@
       <c r="E113" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="13"/>
-      <c r="S113" s="13"/>
-      <c r="T113" s="13"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
     </row>
     <row r="114" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
@@ -5351,7 +5338,7 @@
       <c r="B114" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>299</v>
       </c>
       <c r="D114" s="5" t="s">
@@ -5360,23 +5347,23 @@
       <c r="E114" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="13"/>
-      <c r="P114" s="13"/>
-      <c r="Q114" s="13"/>
-      <c r="R114" s="13"/>
-      <c r="S114" s="13"/>
-      <c r="T114" s="13"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
     </row>
     <row r="115" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
@@ -5385,7 +5372,7 @@
       <c r="B115" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="8" t="s">
         <v>301</v>
       </c>
       <c r="D115" s="5" t="s">
@@ -5394,23 +5381,23 @@
       <c r="E115" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="13"/>
-      <c r="S115" s="13"/>
-      <c r="T115" s="13"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
     </row>
     <row r="116" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
@@ -5419,7 +5406,7 @@
       <c r="B116" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>303</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5428,23 +5415,23 @@
       <c r="E116" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="13"/>
-      <c r="S116" s="13"/>
-      <c r="T116" s="13"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
     </row>
     <row r="117" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
@@ -5453,7 +5440,7 @@
       <c r="B117" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="8" t="s">
         <v>305</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -5462,23 +5449,23 @@
       <c r="E117" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="13"/>
-      <c r="S117" s="13"/>
-      <c r="T117" s="13"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
     </row>
     <row r="118" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
@@ -5487,7 +5474,7 @@
       <c r="B118" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>307</v>
       </c>
       <c r="D118" s="5" t="s">
@@ -5496,23 +5483,23 @@
       <c r="E118" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="13"/>
-      <c r="P118" s="13"/>
-      <c r="Q118" s="13"/>
-      <c r="R118" s="13"/>
-      <c r="S118" s="13"/>
-      <c r="T118" s="13"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7"/>
+      <c r="T118" s="7"/>
     </row>
     <row r="119" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
@@ -5521,7 +5508,7 @@
       <c r="B119" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="8" t="s">
         <v>309</v>
       </c>
       <c r="D119" s="5" t="s">
@@ -5530,23 +5517,23 @@
       <c r="E119" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-      <c r="O119" s="13"/>
-      <c r="P119" s="13"/>
-      <c r="Q119" s="13"/>
-      <c r="R119" s="13"/>
-      <c r="S119" s="13"/>
-      <c r="T119" s="13"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2701CE7-5E81-4F21-9BAC-22C43561322B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C750F-0471-42B4-A84B-BAF90DB83877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1471,8 +1471,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T114" sqref="T114"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98C750F-0471-42B4-A84B-BAF90DB83877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB229BBF-99F6-4E47-8932-68EABD6427B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1471,8 +1471,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P109" sqref="P109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,20 +1566,48 @@
       <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -1634,20 +1662,48 @@
       <c r="F4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -1668,20 +1724,48 @@
       <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -1702,20 +1786,48 @@
       <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -1736,20 +1848,48 @@
       <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -1770,20 +1910,48 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -1804,20 +1972,48 @@
       <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -1838,20 +2034,48 @@
       <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -1872,20 +2096,48 @@
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -1906,20 +2158,48 @@
       <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -1940,20 +2220,48 @@
       <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -1974,20 +2282,48 @@
       <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -2008,20 +2344,48 @@
       <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -2042,20 +2406,48 @@
       <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -2076,20 +2468,48 @@
       <c r="F17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -2110,20 +2530,48 @@
       <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -2144,20 +2592,48 @@
       <c r="F19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -2178,20 +2654,48 @@
       <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -2212,20 +2716,48 @@
       <c r="F21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4</v>
+      </c>
+      <c r="I21" s="7">
+        <v>11</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -2246,20 +2778,48 @@
       <c r="F22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <v>0</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -2280,20 +2840,48 @@
       <c r="F23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>14</v>
+      </c>
+      <c r="I23" s="7">
+        <v>15</v>
+      </c>
+      <c r="J23" s="7">
+        <v>18</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -2314,20 +2902,48 @@
       <c r="F24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>10</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -2348,20 +2964,48 @@
       <c r="F25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>10</v>
+      </c>
+      <c r="I25" s="7">
+        <v>27</v>
+      </c>
+      <c r="J25" s="7">
+        <v>19</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -2382,20 +3026,48 @@
       <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -2416,20 +3088,48 @@
       <c r="F27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -2450,20 +3150,48 @@
       <c r="F28" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>23</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -2484,20 +3212,48 @@
       <c r="F29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>4</v>
+      </c>
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -2518,20 +3274,48 @@
       <c r="F30" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10</v>
+      </c>
+      <c r="J30" s="7">
+        <v>18</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -2552,20 +3336,48 @@
       <c r="F31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
@@ -2586,20 +3398,48 @@
       <c r="F32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
@@ -2620,20 +3460,48 @@
       <c r="F33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>11</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
@@ -2654,20 +3522,48 @@
       <c r="F34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>2</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
+        <v>0</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
@@ -2688,20 +3584,48 @@
       <c r="F35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7">
+        <v>7</v>
+      </c>
+      <c r="J35" s="7">
+        <v>7</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
@@ -2722,20 +3646,48 @@
       <c r="F36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>3</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
+        <v>0</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
@@ -2756,20 +3708,48 @@
       <c r="F37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>4</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7">
+        <v>0</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
@@ -2790,20 +3770,48 @@
       <c r="F38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>0</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0</v>
+      </c>
+      <c r="T38" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
@@ -2824,20 +3832,48 @@
       <c r="F39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>0</v>
+      </c>
+      <c r="R39" s="7">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
@@ -2858,20 +3894,48 @@
       <c r="F40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>4</v>
+      </c>
+      <c r="J40" s="7">
+        <v>4</v>
+      </c>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="7">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
@@ -2892,20 +3956,48 @@
       <c r="F41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>20</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7">
+        <v>0</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
@@ -2926,20 +4018,48 @@
       <c r="F42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4</v>
+      </c>
+      <c r="I42" s="7">
+        <v>4</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7">
+        <v>0</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="7">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
@@ -2960,20 +4080,48 @@
       <c r="F43" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <v>4</v>
+      </c>
+      <c r="I43" s="7">
+        <v>23</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7">
+        <v>0</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="7">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
@@ -3016,20 +4164,48 @@
       <c r="F45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>4</v>
+      </c>
+      <c r="J45" s="7">
+        <v>5</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0</v>
+      </c>
+      <c r="O45" s="7">
+        <v>0</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="7">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
@@ -3050,20 +4226,48 @@
       <c r="F46" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -3084,20 +4288,48 @@
       <c r="F47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="7">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
@@ -3118,20 +4350,48 @@
       <c r="F48" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0</v>
+      </c>
+      <c r="O48" s="7">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="7">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
@@ -3152,20 +4412,48 @@
       <c r="F49" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <v>20</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <v>0</v>
+      </c>
+      <c r="S49" s="7">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
@@ -3186,20 +4474,48 @@
       <c r="F50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>12</v>
+      </c>
+      <c r="J50" s="7">
+        <v>15</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>0</v>
+      </c>
+      <c r="P50" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <v>0</v>
+      </c>
+      <c r="S50" s="7">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
@@ -3220,20 +4536,46 @@
       <c r="F51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
+      <c r="K51" s="7">
+        <v>20</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0</v>
+      </c>
+      <c r="O51" s="7">
+        <v>0</v>
+      </c>
+      <c r="P51" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>0</v>
+      </c>
+      <c r="R51" s="7">
+        <v>0</v>
+      </c>
+      <c r="S51" s="7">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
@@ -3254,20 +4596,48 @@
       <c r="F52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
+      <c r="I52" s="7">
+        <v>10</v>
+      </c>
+      <c r="J52" s="7">
+        <v>8</v>
+      </c>
+      <c r="K52" s="7">
+        <v>2</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>0</v>
+      </c>
+      <c r="R52" s="7">
+        <v>0</v>
+      </c>
+      <c r="S52" s="7">
+        <v>0</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
@@ -3310,20 +4680,48 @@
       <c r="F54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>14</v>
+      </c>
+      <c r="J54" s="7">
+        <v>5</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0</v>
+      </c>
+      <c r="L54" s="7">
+        <v>5</v>
+      </c>
+      <c r="M54" s="7">
+        <v>1</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0</v>
+      </c>
+      <c r="O54" s="7">
+        <v>0</v>
+      </c>
+      <c r="P54" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <v>1</v>
+      </c>
+      <c r="S54" s="7">
+        <v>1</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
@@ -3344,20 +4742,48 @@
       <c r="F55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>5</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="7">
+        <v>13</v>
+      </c>
+      <c r="L55" s="7">
+        <v>3</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0</v>
+      </c>
+      <c r="N55" s="7">
+        <v>3</v>
+      </c>
+      <c r="O55" s="7">
+        <v>0</v>
+      </c>
+      <c r="P55" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <v>1</v>
+      </c>
+      <c r="S55" s="7">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
@@ -3378,20 +4804,48 @@
       <c r="F56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="7">
+        <v>0</v>
+      </c>
+      <c r="J56" s="7">
+        <v>3</v>
+      </c>
+      <c r="K56" s="7">
+        <v>3</v>
+      </c>
+      <c r="L56" s="7">
+        <v>4</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
+        <v>2</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>1</v>
+      </c>
+      <c r="R56" s="7">
+        <v>0</v>
+      </c>
+      <c r="S56" s="7">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
@@ -3412,20 +4866,48 @@
       <c r="F57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <v>2</v>
+      </c>
+      <c r="J57" s="7">
+        <v>13</v>
+      </c>
+      <c r="K57" s="7">
+        <v>7</v>
+      </c>
+      <c r="L57" s="7">
+        <v>3</v>
+      </c>
+      <c r="M57" s="7">
+        <v>6</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1</v>
+      </c>
+      <c r="O57" s="7">
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="7">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
@@ -3446,20 +4928,48 @@
       <c r="F58" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>15</v>
+      </c>
+      <c r="J58" s="7">
+        <v>22</v>
+      </c>
+      <c r="K58" s="7">
+        <v>13</v>
+      </c>
+      <c r="L58" s="7">
+        <v>9</v>
+      </c>
+      <c r="M58" s="7">
+        <v>8</v>
+      </c>
+      <c r="N58" s="7">
+        <v>2</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>1</v>
+      </c>
+      <c r="R58" s="7">
+        <v>1</v>
+      </c>
+      <c r="S58" s="7">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
@@ -3480,20 +4990,48 @@
       <c r="F59" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <v>4</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="7">
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>0</v>
+      </c>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="7">
+        <v>0</v>
+      </c>
+      <c r="T59" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
@@ -3514,20 +5052,48 @@
       <c r="F60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="7">
+        <v>0</v>
+      </c>
+      <c r="J60" s="7">
+        <v>2</v>
+      </c>
+      <c r="K60" s="7">
+        <v>2</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7">
+        <v>0</v>
+      </c>
+      <c r="P60" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <v>0</v>
+      </c>
+      <c r="S60" s="7">
+        <v>0</v>
+      </c>
+      <c r="T60" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
@@ -3548,20 +5114,48 @@
       <c r="F61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="7">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7">
+        <v>0</v>
+      </c>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="7">
+        <v>0</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0</v>
+      </c>
+      <c r="M61" s="7">
+        <v>9</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0</v>
+      </c>
+      <c r="O61" s="7">
+        <v>3</v>
+      </c>
+      <c r="P61" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>3</v>
+      </c>
+      <c r="R61" s="7">
+        <v>3</v>
+      </c>
+      <c r="S61" s="7">
+        <v>0</v>
+      </c>
+      <c r="T61" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
@@ -3582,20 +5176,48 @@
       <c r="F62" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="7">
+        <v>15</v>
+      </c>
+      <c r="J62" s="7">
+        <v>27</v>
+      </c>
+      <c r="K62" s="7">
+        <v>32</v>
+      </c>
+      <c r="L62" s="7">
+        <v>13</v>
+      </c>
+      <c r="M62" s="7">
+        <v>11</v>
+      </c>
+      <c r="N62" s="7">
+        <v>10</v>
+      </c>
+      <c r="O62" s="7">
+        <v>1</v>
+      </c>
+      <c r="P62" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>0</v>
+      </c>
+      <c r="R62" s="7">
+        <v>0</v>
+      </c>
+      <c r="S62" s="7">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
@@ -3616,20 +5238,48 @@
       <c r="F63" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="7">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7">
+        <v>13</v>
+      </c>
+      <c r="J63" s="7">
+        <v>15</v>
+      </c>
+      <c r="K63" s="7">
+        <v>6</v>
+      </c>
+      <c r="L63" s="7">
+        <v>2</v>
+      </c>
+      <c r="M63" s="7">
+        <v>2</v>
+      </c>
+      <c r="N63" s="7">
+        <v>1</v>
+      </c>
+      <c r="O63" s="7">
+        <v>0</v>
+      </c>
+      <c r="P63" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <v>0</v>
+      </c>
+      <c r="S63" s="7">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
@@ -3650,20 +5300,48 @@
       <c r="F64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="7">
+        <v>0</v>
+      </c>
+      <c r="I64" s="7">
+        <v>5</v>
+      </c>
+      <c r="J64" s="7">
+        <v>4</v>
+      </c>
+      <c r="K64" s="7">
+        <v>2</v>
+      </c>
+      <c r="L64" s="7">
+        <v>3</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0</v>
+      </c>
+      <c r="N64" s="7">
+        <v>5</v>
+      </c>
+      <c r="O64" s="7">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <v>0</v>
+      </c>
+      <c r="S64" s="7">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
@@ -3684,20 +5362,48 @@
       <c r="F65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7">
+        <v>2</v>
+      </c>
+      <c r="I65" s="7">
+        <v>12</v>
+      </c>
+      <c r="J65" s="7">
+        <v>9</v>
+      </c>
+      <c r="K65" s="7">
+        <v>7</v>
+      </c>
+      <c r="L65" s="7">
+        <v>5</v>
+      </c>
+      <c r="M65" s="7">
+        <v>4</v>
+      </c>
+      <c r="N65" s="7">
+        <v>4</v>
+      </c>
+      <c r="O65" s="7">
+        <v>0</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <v>1</v>
+      </c>
+      <c r="S65" s="7">
+        <v>0</v>
+      </c>
+      <c r="T65" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
@@ -3718,20 +5424,48 @@
       <c r="F66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="7">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
+        <v>17</v>
+      </c>
+      <c r="J66" s="7">
+        <v>26</v>
+      </c>
+      <c r="K66" s="7">
+        <v>27</v>
+      </c>
+      <c r="L66" s="7">
+        <v>29</v>
+      </c>
+      <c r="M66" s="7">
+        <v>17</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7">
+        <v>0</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>0</v>
+      </c>
+      <c r="R66" s="7">
+        <v>0</v>
+      </c>
+      <c r="S66" s="7">
+        <v>0</v>
+      </c>
+      <c r="T66" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
@@ -3752,20 +5486,48 @@
       <c r="F67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>14</v>
+      </c>
+      <c r="J67" s="7">
+        <v>16</v>
+      </c>
+      <c r="K67" s="7">
+        <v>16</v>
+      </c>
+      <c r="L67" s="7">
+        <v>7</v>
+      </c>
+      <c r="M67" s="7">
+        <v>8</v>
+      </c>
+      <c r="N67" s="7">
+        <v>1</v>
+      </c>
+      <c r="O67" s="7">
+        <v>1</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>0</v>
+      </c>
+      <c r="R67" s="7">
+        <v>1</v>
+      </c>
+      <c r="S67" s="7">
+        <v>0</v>
+      </c>
+      <c r="T67" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
@@ -3786,20 +5548,48 @@
       <c r="F68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1</v>
+      </c>
+      <c r="J68" s="7">
+        <v>2</v>
+      </c>
+      <c r="K68" s="7">
+        <v>1</v>
+      </c>
+      <c r="L68" s="7">
+        <v>1</v>
+      </c>
+      <c r="M68" s="7">
+        <v>3</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>1</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <v>0</v>
+      </c>
+      <c r="S68" s="7">
+        <v>0</v>
+      </c>
+      <c r="T68" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
@@ -3820,20 +5610,48 @@
       <c r="F69" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="7">
+        <v>11</v>
+      </c>
+      <c r="K69" s="7">
+        <v>10</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+      <c r="O69" s="7">
+        <v>1</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <v>0</v>
+      </c>
+      <c r="S69" s="7">
+        <v>0</v>
+      </c>
+      <c r="T69" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
@@ -3854,20 +5672,48 @@
       <c r="F70" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>8</v>
+      </c>
+      <c r="J70" s="7">
+        <v>28</v>
+      </c>
+      <c r="K70" s="7">
+        <v>37</v>
+      </c>
+      <c r="L70" s="7">
+        <v>32</v>
+      </c>
+      <c r="M70" s="7">
+        <v>21</v>
+      </c>
+      <c r="N70" s="7">
+        <v>3</v>
+      </c>
+      <c r="O70" s="7">
+        <v>3</v>
+      </c>
+      <c r="P70" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <v>0</v>
+      </c>
+      <c r="S70" s="7">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
@@ -3888,20 +5734,48 @@
       <c r="F71" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7">
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <v>2</v>
+      </c>
+      <c r="J71" s="7">
+        <v>13</v>
+      </c>
+      <c r="K71" s="7">
+        <v>14</v>
+      </c>
+      <c r="L71" s="7">
+        <v>9</v>
+      </c>
+      <c r="M71" s="7">
+        <v>6</v>
+      </c>
+      <c r="N71" s="7">
+        <v>4</v>
+      </c>
+      <c r="O71" s="7">
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>0</v>
+      </c>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="7">
+        <v>0</v>
+      </c>
+      <c r="T71" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
@@ -3922,20 +5796,48 @@
       <c r="F72" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
+      <c r="H72" s="7">
+        <v>1</v>
+      </c>
+      <c r="I72" s="7">
+        <v>0</v>
+      </c>
+      <c r="J72" s="7">
+        <v>4</v>
+      </c>
+      <c r="K72" s="7">
+        <v>4</v>
+      </c>
+      <c r="L72" s="7">
+        <v>3</v>
+      </c>
+      <c r="M72" s="7">
+        <v>2</v>
+      </c>
+      <c r="N72" s="7">
+        <v>0</v>
+      </c>
+      <c r="O72" s="7">
+        <v>1</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <v>0</v>
+      </c>
+      <c r="S72" s="7">
+        <v>0</v>
+      </c>
+      <c r="T72" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
@@ -3956,20 +5858,48 @@
       <c r="F73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0</v>
+      </c>
+      <c r="I73" s="7">
+        <v>3</v>
+      </c>
+      <c r="J73" s="7">
+        <v>11</v>
+      </c>
+      <c r="K73" s="7">
+        <v>11</v>
+      </c>
+      <c r="L73" s="7">
+        <v>8</v>
+      </c>
+      <c r="M73" s="7">
+        <v>7</v>
+      </c>
+      <c r="N73" s="7">
+        <v>4</v>
+      </c>
+      <c r="O73" s="7">
+        <v>1</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>0</v>
+      </c>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
@@ -3990,20 +5920,48 @@
       <c r="F74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7">
+        <v>4</v>
+      </c>
+      <c r="J74" s="7">
+        <v>11</v>
+      </c>
+      <c r="K74" s="7">
+        <v>24</v>
+      </c>
+      <c r="L74" s="7">
+        <v>15</v>
+      </c>
+      <c r="M74" s="7">
+        <v>3</v>
+      </c>
+      <c r="N74" s="7">
+        <v>1</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>0</v>
+      </c>
+      <c r="R74" s="7">
+        <v>0</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
@@ -4024,20 +5982,48 @@
       <c r="F75" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7">
+        <v>5</v>
+      </c>
+      <c r="I75" s="7">
+        <v>18</v>
+      </c>
+      <c r="J75" s="7">
+        <v>37</v>
+      </c>
+      <c r="K75" s="7">
+        <v>29</v>
+      </c>
+      <c r="L75" s="7">
+        <v>24</v>
+      </c>
+      <c r="M75" s="7">
+        <v>15</v>
+      </c>
+      <c r="N75" s="7">
+        <v>7</v>
+      </c>
+      <c r="O75" s="7">
+        <v>3</v>
+      </c>
+      <c r="P75" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>2</v>
+      </c>
+      <c r="R75" s="7">
+        <v>1</v>
+      </c>
+      <c r="S75" s="7">
+        <v>3</v>
+      </c>
+      <c r="T75" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
@@ -4058,20 +6044,48 @@
       <c r="F76" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="7">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+      <c r="J76" s="7">
+        <v>4</v>
+      </c>
+      <c r="K76" s="7">
+        <v>2</v>
+      </c>
+      <c r="L76" s="7">
+        <v>11</v>
+      </c>
+      <c r="M76" s="7">
+        <v>13</v>
+      </c>
+      <c r="N76" s="7">
+        <v>0</v>
+      </c>
+      <c r="O76" s="7">
+        <v>1</v>
+      </c>
+      <c r="P76" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>0</v>
+      </c>
+      <c r="R76" s="7">
+        <v>0</v>
+      </c>
+      <c r="S76" s="7">
+        <v>0</v>
+      </c>
+      <c r="T76" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -4092,20 +6106,48 @@
       <c r="F77" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>5</v>
+      </c>
+      <c r="J77" s="7">
+        <v>24</v>
+      </c>
+      <c r="K77" s="7">
+        <v>10</v>
+      </c>
+      <c r="L77" s="7">
+        <v>10</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>0</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
@@ -4126,20 +6168,48 @@
       <c r="F78" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
+      <c r="H78" s="7">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <v>10</v>
+      </c>
+      <c r="J78" s="7">
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <v>0</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0</v>
+      </c>
+      <c r="M78" s="7">
+        <v>1</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>0</v>
+      </c>
+      <c r="R78" s="7">
+        <v>0</v>
+      </c>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
@@ -4160,20 +6230,48 @@
       <c r="F79" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="7">
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <v>11</v>
+      </c>
+      <c r="J79" s="7">
+        <v>19</v>
+      </c>
+      <c r="K79" s="7">
+        <v>44</v>
+      </c>
+      <c r="L79" s="7">
+        <v>41</v>
+      </c>
+      <c r="M79" s="7">
+        <v>17</v>
+      </c>
+      <c r="N79" s="7">
+        <v>6</v>
+      </c>
+      <c r="O79" s="7">
+        <v>6</v>
+      </c>
+      <c r="P79" s="7">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>0</v>
+      </c>
+      <c r="R79" s="7">
+        <v>0</v>
+      </c>
+      <c r="S79" s="7">
+        <v>0</v>
+      </c>
+      <c r="T79" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -4194,20 +6292,48 @@
       <c r="F80" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0</v>
+      </c>
+      <c r="J80" s="7">
+        <v>5</v>
+      </c>
+      <c r="K80" s="7">
+        <v>2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>1</v>
+      </c>
+      <c r="M80" s="7">
+        <v>3</v>
+      </c>
+      <c r="N80" s="7">
+        <v>0</v>
+      </c>
+      <c r="O80" s="7">
+        <v>0</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>0</v>
+      </c>
+      <c r="R80" s="7">
+        <v>0</v>
+      </c>
+      <c r="S80" s="7">
+        <v>0</v>
+      </c>
+      <c r="T80" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
@@ -4228,20 +6354,48 @@
       <c r="F81" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="7">
+        <v>6</v>
+      </c>
+      <c r="J81" s="7">
+        <v>7</v>
+      </c>
+      <c r="K81" s="7">
+        <v>5</v>
+      </c>
+      <c r="L81" s="7">
+        <v>1</v>
+      </c>
+      <c r="M81" s="7">
+        <v>3</v>
+      </c>
+      <c r="N81" s="7">
+        <v>3</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
@@ -4262,20 +6416,48 @@
       <c r="F82" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="7">
+        <v>0</v>
+      </c>
+      <c r="I82" s="7">
+        <v>6</v>
+      </c>
+      <c r="J82" s="7">
+        <v>9</v>
+      </c>
+      <c r="K82" s="7">
+        <v>7</v>
+      </c>
+      <c r="L82" s="7">
+        <v>8</v>
+      </c>
+      <c r="M82" s="7">
+        <v>5</v>
+      </c>
+      <c r="N82" s="7">
+        <v>5</v>
+      </c>
+      <c r="O82" s="7">
+        <v>2</v>
+      </c>
+      <c r="P82" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>1</v>
+      </c>
+      <c r="R82" s="7">
+        <v>0</v>
+      </c>
+      <c r="S82" s="7">
+        <v>0</v>
+      </c>
+      <c r="T82" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
@@ -4296,20 +6478,48 @@
       <c r="F83" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+      <c r="K83" s="7">
+        <v>0</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0</v>
+      </c>
+      <c r="N83" s="7">
+        <v>1</v>
+      </c>
+      <c r="O83" s="7">
+        <v>0</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0</v>
+      </c>
+      <c r="R83" s="7">
+        <v>0</v>
+      </c>
+      <c r="S83" s="7">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
@@ -4330,20 +6540,48 @@
       <c r="F84" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0</v>
+      </c>
+      <c r="K84" s="7">
+        <v>3</v>
+      </c>
+      <c r="L84" s="7">
+        <v>1</v>
+      </c>
+      <c r="M84" s="7">
+        <v>1</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+      <c r="O84" s="7">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0</v>
+      </c>
+      <c r="R84" s="7">
+        <v>0</v>
+      </c>
+      <c r="S84" s="7">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -4364,20 +6602,48 @@
       <c r="F85" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="7">
+        <v>6</v>
+      </c>
+      <c r="K85" s="7">
+        <v>0</v>
+      </c>
+      <c r="L85" s="7">
+        <v>5</v>
+      </c>
+      <c r="M85" s="7">
+        <v>5</v>
+      </c>
+      <c r="N85" s="7">
+        <v>2</v>
+      </c>
+      <c r="O85" s="7">
+        <v>0</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0</v>
+      </c>
+      <c r="R85" s="7">
+        <v>0</v>
+      </c>
+      <c r="S85" s="7">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
@@ -4398,20 +6664,48 @@
       <c r="F86" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>2</v>
+      </c>
+      <c r="J86" s="7">
+        <v>8</v>
+      </c>
+      <c r="K86" s="7">
+        <v>8</v>
+      </c>
+      <c r="L86" s="7">
+        <v>6</v>
+      </c>
+      <c r="M86" s="7">
+        <v>2</v>
+      </c>
+      <c r="N86" s="7">
+        <v>2</v>
+      </c>
+      <c r="O86" s="7">
+        <v>2</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0</v>
+      </c>
+      <c r="R86" s="7">
+        <v>0</v>
+      </c>
+      <c r="S86" s="7">
+        <v>0</v>
+      </c>
+      <c r="T86" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
@@ -4432,20 +6726,48 @@
       <c r="F87" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>1</v>
+      </c>
+      <c r="J87" s="7">
+        <v>7</v>
+      </c>
+      <c r="K87" s="7">
+        <v>16</v>
+      </c>
+      <c r="L87" s="7">
+        <v>17</v>
+      </c>
+      <c r="M87" s="7">
+        <v>10</v>
+      </c>
+      <c r="N87" s="7">
+        <v>4</v>
+      </c>
+      <c r="O87" s="7">
+        <v>2</v>
+      </c>
+      <c r="P87" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>1</v>
+      </c>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="7">
+        <v>0</v>
+      </c>
+      <c r="T87" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
@@ -4466,20 +6788,48 @@
       <c r="F88" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>3</v>
+      </c>
+      <c r="I88" s="7">
+        <v>7</v>
+      </c>
+      <c r="J88" s="7">
+        <v>28</v>
+      </c>
+      <c r="K88" s="7">
+        <v>33</v>
+      </c>
+      <c r="L88" s="7">
+        <v>28</v>
+      </c>
+      <c r="M88" s="7">
+        <v>19</v>
+      </c>
+      <c r="N88" s="7">
+        <v>8</v>
+      </c>
+      <c r="O88" s="7">
+        <v>3</v>
+      </c>
+      <c r="P88" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>3</v>
+      </c>
+      <c r="R88" s="7">
+        <v>1</v>
+      </c>
+      <c r="S88" s="7">
+        <v>0</v>
+      </c>
+      <c r="T88" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
@@ -4500,20 +6850,48 @@
       <c r="F89" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
+      <c r="H89" s="7">
+        <v>0</v>
+      </c>
+      <c r="I89" s="7">
+        <v>4</v>
+      </c>
+      <c r="J89" s="7">
+        <v>12</v>
+      </c>
+      <c r="K89" s="7">
+        <v>20</v>
+      </c>
+      <c r="L89" s="7">
+        <v>17</v>
+      </c>
+      <c r="M89" s="7">
+        <v>8</v>
+      </c>
+      <c r="N89" s="7">
+        <v>3</v>
+      </c>
+      <c r="O89" s="7">
+        <v>0</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>1</v>
+      </c>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7">
+        <v>0</v>
+      </c>
+      <c r="T89" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
@@ -4534,20 +6912,48 @@
       <c r="F90" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
+      <c r="H90" s="7">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7">
+        <v>0</v>
+      </c>
+      <c r="J90" s="7">
+        <v>13</v>
+      </c>
+      <c r="K90" s="7">
+        <v>18</v>
+      </c>
+      <c r="L90" s="7">
+        <v>11</v>
+      </c>
+      <c r="M90" s="7">
+        <v>6</v>
+      </c>
+      <c r="N90" s="7">
+        <v>0</v>
+      </c>
+      <c r="O90" s="7">
+        <v>1</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>0</v>
+      </c>
+      <c r="R90" s="7">
+        <v>0</v>
+      </c>
+      <c r="S90" s="7">
+        <v>0</v>
+      </c>
+      <c r="T90" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -4568,20 +6974,48 @@
       <c r="F91" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
+      <c r="H91" s="7">
+        <v>0</v>
+      </c>
+      <c r="I91" s="7">
+        <v>7</v>
+      </c>
+      <c r="J91" s="7">
+        <v>4</v>
+      </c>
+      <c r="K91" s="7">
+        <v>3</v>
+      </c>
+      <c r="L91" s="7">
+        <v>3</v>
+      </c>
+      <c r="M91" s="7">
+        <v>6</v>
+      </c>
+      <c r="N91" s="7">
+        <v>4</v>
+      </c>
+      <c r="O91" s="7">
+        <v>3</v>
+      </c>
+      <c r="P91" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0</v>
+      </c>
+      <c r="R91" s="7">
+        <v>0</v>
+      </c>
+      <c r="S91" s="7">
+        <v>0</v>
+      </c>
+      <c r="T91" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
@@ -4602,20 +7036,48 @@
       <c r="F92" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7">
+        <v>0</v>
+      </c>
+      <c r="J92" s="7">
+        <v>4</v>
+      </c>
+      <c r="K92" s="7">
+        <v>20</v>
+      </c>
+      <c r="L92" s="7">
+        <v>8</v>
+      </c>
+      <c r="M92" s="7">
+        <v>12</v>
+      </c>
+      <c r="N92" s="7">
+        <v>4</v>
+      </c>
+      <c r="O92" s="7">
+        <v>4</v>
+      </c>
+      <c r="P92" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>1</v>
+      </c>
+      <c r="R92" s="7">
+        <v>1</v>
+      </c>
+      <c r="S92" s="7">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
@@ -4636,20 +7098,48 @@
       <c r="F93" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
+      <c r="G93" s="7">
+        <v>0</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <v>2</v>
+      </c>
+      <c r="J93" s="7">
+        <v>9</v>
+      </c>
+      <c r="K93" s="7">
+        <v>15</v>
+      </c>
+      <c r="L93" s="7">
+        <v>5</v>
+      </c>
+      <c r="M93" s="7">
+        <v>5</v>
+      </c>
+      <c r="N93" s="7">
+        <v>3</v>
+      </c>
+      <c r="O93" s="7">
+        <v>0</v>
+      </c>
+      <c r="P93" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>0</v>
+      </c>
+      <c r="R93" s="7">
+        <v>1</v>
+      </c>
+      <c r="S93" s="7">
+        <v>0</v>
+      </c>
+      <c r="T93" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
@@ -4670,20 +7160,48 @@
       <c r="F94" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+      <c r="H94" s="7">
+        <v>4</v>
+      </c>
+      <c r="I94" s="7">
+        <v>16</v>
+      </c>
+      <c r="J94" s="7">
+        <v>33</v>
+      </c>
+      <c r="K94" s="7">
+        <v>24</v>
+      </c>
+      <c r="L94" s="7">
+        <v>22</v>
+      </c>
+      <c r="M94" s="7">
+        <v>18</v>
+      </c>
+      <c r="N94" s="7">
+        <v>10</v>
+      </c>
+      <c r="O94" s="7">
+        <v>4</v>
+      </c>
+      <c r="P94" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>2</v>
+      </c>
+      <c r="R94" s="7">
+        <v>0</v>
+      </c>
+      <c r="S94" s="7">
+        <v>0</v>
+      </c>
+      <c r="T94" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
@@ -4704,20 +7222,48 @@
       <c r="F95" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+      <c r="H95" s="7">
+        <v>0</v>
+      </c>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+      <c r="J95" s="7">
+        <v>1</v>
+      </c>
+      <c r="K95" s="7">
+        <v>9</v>
+      </c>
+      <c r="L95" s="7">
+        <v>6</v>
+      </c>
+      <c r="M95" s="7">
+        <v>7</v>
+      </c>
+      <c r="N95" s="7">
+        <v>0</v>
+      </c>
+      <c r="O95" s="7">
+        <v>3</v>
+      </c>
+      <c r="P95" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>0</v>
+      </c>
+      <c r="R95" s="7">
+        <v>0</v>
+      </c>
+      <c r="S95" s="7">
+        <v>0</v>
+      </c>
+      <c r="T95" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
@@ -4738,20 +7284,48 @@
       <c r="F96" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+      <c r="H96" s="7">
+        <v>0</v>
+      </c>
+      <c r="I96" s="7">
+        <v>4</v>
+      </c>
+      <c r="J96" s="7">
+        <v>26</v>
+      </c>
+      <c r="K96" s="7">
+        <v>26</v>
+      </c>
+      <c r="L96" s="7">
+        <v>21</v>
+      </c>
+      <c r="M96" s="7">
+        <v>16</v>
+      </c>
+      <c r="N96" s="7">
+        <v>4</v>
+      </c>
+      <c r="O96" s="7">
+        <v>3</v>
+      </c>
+      <c r="P96" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>0</v>
+      </c>
+      <c r="R96" s="7">
+        <v>0</v>
+      </c>
+      <c r="S96" s="7">
+        <v>0</v>
+      </c>
+      <c r="T96" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
@@ -4772,20 +7346,48 @@
       <c r="F97" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
+      <c r="G97" s="7">
+        <v>0</v>
+      </c>
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="7">
+        <v>4</v>
+      </c>
+      <c r="J97" s="7">
+        <v>14</v>
+      </c>
+      <c r="K97" s="7">
+        <v>2</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0</v>
+      </c>
+      <c r="N97" s="7">
+        <v>1</v>
+      </c>
+      <c r="O97" s="7">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>0</v>
+      </c>
+      <c r="R97" s="7">
+        <v>0</v>
+      </c>
+      <c r="S97" s="7">
+        <v>0</v>
+      </c>
+      <c r="T97" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
@@ -4806,20 +7408,48 @@
       <c r="F98" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>3</v>
+      </c>
+      <c r="J98" s="7">
+        <v>9</v>
+      </c>
+      <c r="K98" s="7">
+        <v>13</v>
+      </c>
+      <c r="L98" s="7">
+        <v>11</v>
+      </c>
+      <c r="M98" s="7">
+        <v>3</v>
+      </c>
+      <c r="N98" s="7">
+        <v>2</v>
+      </c>
+      <c r="O98" s="7">
+        <v>1</v>
+      </c>
+      <c r="P98" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>0</v>
+      </c>
+      <c r="R98" s="7">
+        <v>0</v>
+      </c>
+      <c r="S98" s="7">
+        <v>0</v>
+      </c>
+      <c r="T98" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
@@ -4840,20 +7470,48 @@
       <c r="F99" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+      <c r="I99" s="7">
+        <v>6</v>
+      </c>
+      <c r="J99" s="7">
+        <v>15</v>
+      </c>
+      <c r="K99" s="7">
+        <v>9</v>
+      </c>
+      <c r="L99" s="7">
+        <v>3</v>
+      </c>
+      <c r="M99" s="7">
+        <v>4</v>
+      </c>
+      <c r="N99" s="7">
+        <v>0</v>
+      </c>
+      <c r="O99" s="7">
+        <v>1</v>
+      </c>
+      <c r="P99" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>0</v>
+      </c>
+      <c r="R99" s="7">
+        <v>0</v>
+      </c>
+      <c r="S99" s="7">
+        <v>0</v>
+      </c>
+      <c r="T99" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
@@ -4874,20 +7532,48 @@
       <c r="F100" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="7">
+        <v>2</v>
+      </c>
+      <c r="J100" s="7">
+        <v>6</v>
+      </c>
+      <c r="K100" s="7">
+        <v>15</v>
+      </c>
+      <c r="L100" s="7">
+        <v>7</v>
+      </c>
+      <c r="M100" s="7">
+        <v>1</v>
+      </c>
+      <c r="N100" s="7">
+        <v>1</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+      <c r="P100" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>0</v>
+      </c>
+      <c r="R100" s="7">
+        <v>0</v>
+      </c>
+      <c r="S100" s="7">
+        <v>0</v>
+      </c>
+      <c r="T100" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -4908,20 +7594,48 @@
       <c r="F101" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+      <c r="H101" s="7">
+        <v>2</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1</v>
+      </c>
+      <c r="J101" s="7">
+        <v>6</v>
+      </c>
+      <c r="K101" s="7">
+        <v>5</v>
+      </c>
+      <c r="L101" s="7">
+        <v>2</v>
+      </c>
+      <c r="M101" s="7">
+        <v>2</v>
+      </c>
+      <c r="N101" s="7">
+        <v>1</v>
+      </c>
+      <c r="O101" s="7">
+        <v>2</v>
+      </c>
+      <c r="P101" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>0</v>
+      </c>
+      <c r="R101" s="7">
+        <v>0</v>
+      </c>
+      <c r="S101" s="7">
+        <v>0</v>
+      </c>
+      <c r="T101" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
@@ -4942,20 +7656,48 @@
       <c r="F102" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
+      <c r="G102" s="7">
+        <v>0</v>
+      </c>
+      <c r="H102" s="7">
+        <v>0</v>
+      </c>
+      <c r="I102" s="7">
+        <v>5</v>
+      </c>
+      <c r="J102" s="7">
+        <v>24</v>
+      </c>
+      <c r="K102" s="7">
+        <v>34</v>
+      </c>
+      <c r="L102" s="7">
+        <v>22</v>
+      </c>
+      <c r="M102" s="7">
+        <v>16</v>
+      </c>
+      <c r="N102" s="7">
+        <v>3</v>
+      </c>
+      <c r="O102" s="7">
+        <v>2</v>
+      </c>
+      <c r="P102" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>0</v>
+      </c>
+      <c r="R102" s="7">
+        <v>0</v>
+      </c>
+      <c r="S102" s="7">
+        <v>0</v>
+      </c>
+      <c r="T102" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
@@ -4976,20 +7718,48 @@
       <c r="F103" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
+      <c r="G103" s="7">
+        <v>0</v>
+      </c>
+      <c r="H103" s="7">
+        <v>5</v>
+      </c>
+      <c r="I103" s="7">
+        <v>14</v>
+      </c>
+      <c r="J103" s="7">
+        <v>35</v>
+      </c>
+      <c r="K103" s="7">
+        <v>10</v>
+      </c>
+      <c r="L103" s="7">
+        <v>29</v>
+      </c>
+      <c r="M103" s="7">
+        <v>25</v>
+      </c>
+      <c r="N103" s="7">
+        <v>10</v>
+      </c>
+      <c r="O103" s="7">
+        <v>0</v>
+      </c>
+      <c r="P103" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>0</v>
+      </c>
+      <c r="R103" s="7">
+        <v>0</v>
+      </c>
+      <c r="S103" s="7">
+        <v>0</v>
+      </c>
+      <c r="T103" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -5010,20 +7780,48 @@
       <c r="F104" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+      <c r="H104" s="7">
+        <v>2</v>
+      </c>
+      <c r="I104" s="7">
+        <v>14</v>
+      </c>
+      <c r="J104" s="7">
+        <v>26</v>
+      </c>
+      <c r="K104" s="7">
+        <v>29</v>
+      </c>
+      <c r="L104" s="7">
+        <v>7</v>
+      </c>
+      <c r="M104" s="7">
+        <v>6</v>
+      </c>
+      <c r="N104" s="7">
+        <v>2</v>
+      </c>
+      <c r="O104" s="7">
+        <v>2</v>
+      </c>
+      <c r="P104" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>0</v>
+      </c>
+      <c r="R104" s="7">
+        <v>0</v>
+      </c>
+      <c r="S104" s="7">
+        <v>0</v>
+      </c>
+      <c r="T104" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
@@ -5044,20 +7842,48 @@
       <c r="F105" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+      <c r="H105" s="7">
+        <v>0</v>
+      </c>
+      <c r="I105" s="7">
+        <v>2</v>
+      </c>
+      <c r="J105" s="7">
+        <v>30</v>
+      </c>
+      <c r="K105" s="7">
+        <v>40</v>
+      </c>
+      <c r="L105" s="7">
+        <v>25</v>
+      </c>
+      <c r="M105" s="7">
+        <v>25</v>
+      </c>
+      <c r="N105" s="7">
+        <v>5</v>
+      </c>
+      <c r="O105" s="7">
+        <v>5</v>
+      </c>
+      <c r="P105" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>0</v>
+      </c>
+      <c r="R105" s="7">
+        <v>0</v>
+      </c>
+      <c r="S105" s="7">
+        <v>0</v>
+      </c>
+      <c r="T105" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
@@ -5078,20 +7904,48 @@
       <c r="F106" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
+      <c r="G106" s="7">
+        <v>0</v>
+      </c>
+      <c r="H106" s="7">
+        <v>0</v>
+      </c>
+      <c r="I106" s="7">
+        <v>0</v>
+      </c>
+      <c r="J106" s="7">
+        <v>2</v>
+      </c>
+      <c r="K106" s="7">
+        <v>7</v>
+      </c>
+      <c r="L106" s="7">
+        <v>9</v>
+      </c>
+      <c r="M106" s="7">
+        <v>13</v>
+      </c>
+      <c r="N106" s="7">
+        <v>3</v>
+      </c>
+      <c r="O106" s="7">
+        <v>2</v>
+      </c>
+      <c r="P106" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>0</v>
+      </c>
+      <c r="R106" s="7">
+        <v>0</v>
+      </c>
+      <c r="S106" s="7">
+        <v>0</v>
+      </c>
+      <c r="T106" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -5112,20 +7966,48 @@
       <c r="F107" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
+      <c r="G107" s="7">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>1</v>
+      </c>
+      <c r="I107" s="7">
+        <v>3</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
+      <c r="K107" s="7">
+        <v>0</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0</v>
+      </c>
+      <c r="M107" s="7">
+        <v>0</v>
+      </c>
+      <c r="N107" s="7">
+        <v>0</v>
+      </c>
+      <c r="O107" s="7">
+        <v>0</v>
+      </c>
+      <c r="P107" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>0</v>
+      </c>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+      <c r="S107" s="7">
+        <v>0</v>
+      </c>
+      <c r="T107" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
@@ -5146,20 +8028,48 @@
       <c r="F108" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
+      <c r="G108" s="7">
+        <v>0</v>
+      </c>
+      <c r="H108" s="7">
+        <v>0</v>
+      </c>
+      <c r="I108" s="7">
+        <v>6</v>
+      </c>
+      <c r="J108" s="7">
+        <v>15</v>
+      </c>
+      <c r="K108" s="7">
+        <v>12</v>
+      </c>
+      <c r="L108" s="7">
+        <v>6</v>
+      </c>
+      <c r="M108" s="7">
+        <v>5</v>
+      </c>
+      <c r="N108" s="7">
+        <v>4</v>
+      </c>
+      <c r="O108" s="7">
+        <v>0</v>
+      </c>
+      <c r="P108" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>0</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0</v>
+      </c>
+      <c r="S108" s="7">
+        <v>0</v>
+      </c>
+      <c r="T108" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
@@ -5180,20 +8090,48 @@
       <c r="F109" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
+      <c r="G109" s="7">
+        <v>0</v>
+      </c>
+      <c r="H109" s="7">
+        <v>0</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0</v>
+      </c>
+      <c r="J109" s="7">
+        <v>9</v>
+      </c>
+      <c r="K109" s="7">
+        <v>11</v>
+      </c>
+      <c r="L109" s="7">
+        <v>7</v>
+      </c>
+      <c r="M109" s="7">
+        <v>0</v>
+      </c>
+      <c r="N109" s="7">
+        <v>1</v>
+      </c>
+      <c r="O109" s="7">
+        <v>0</v>
+      </c>
+      <c r="P109" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>0</v>
+      </c>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="7">
+        <v>0</v>
+      </c>
+      <c r="T109" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
@@ -5214,20 +8152,48 @@
       <c r="F110" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>8</v>
+      </c>
+      <c r="J110" s="7">
+        <v>13</v>
+      </c>
+      <c r="K110" s="7">
+        <v>7</v>
+      </c>
+      <c r="L110" s="7">
+        <v>4</v>
+      </c>
+      <c r="M110" s="7">
+        <v>5</v>
+      </c>
+      <c r="N110" s="7">
+        <v>0</v>
+      </c>
+      <c r="O110" s="7">
+        <v>1</v>
+      </c>
+      <c r="P110" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>0</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+      <c r="S110" s="7">
+        <v>0</v>
+      </c>
+      <c r="T110" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
@@ -5248,20 +8214,48 @@
       <c r="F111" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
+      <c r="G111" s="7">
+        <v>1</v>
+      </c>
+      <c r="H111" s="7">
+        <v>0</v>
+      </c>
+      <c r="I111" s="7">
+        <v>5</v>
+      </c>
+      <c r="J111" s="7">
+        <v>7</v>
+      </c>
+      <c r="K111" s="7">
+        <v>3</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0</v>
+      </c>
+      <c r="M111" s="7">
+        <v>2</v>
+      </c>
+      <c r="N111" s="7">
+        <v>2</v>
+      </c>
+      <c r="O111" s="7">
+        <v>0</v>
+      </c>
+      <c r="P111" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>0</v>
+      </c>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+      <c r="S111" s="7">
+        <v>0</v>
+      </c>
+      <c r="T111" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
@@ -5282,20 +8276,48 @@
       <c r="F112" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
+      <c r="G112" s="7">
+        <v>0</v>
+      </c>
+      <c r="H112" s="7">
+        <v>2</v>
+      </c>
+      <c r="I112" s="7">
+        <v>10</v>
+      </c>
+      <c r="J112" s="7">
+        <v>9</v>
+      </c>
+      <c r="K112" s="7">
+        <v>10</v>
+      </c>
+      <c r="L112" s="7">
+        <v>3</v>
+      </c>
+      <c r="M112" s="7">
+        <v>3</v>
+      </c>
+      <c r="N112" s="7">
+        <v>2</v>
+      </c>
+      <c r="O112" s="7">
+        <v>1</v>
+      </c>
+      <c r="P112" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="7">
+        <v>0</v>
+      </c>
+      <c r="R112" s="7">
+        <v>0</v>
+      </c>
+      <c r="S112" s="7">
+        <v>0</v>
+      </c>
+      <c r="T112" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
@@ -5316,20 +8338,48 @@
       <c r="F113" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
+      <c r="G113" s="7">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>19</v>
+      </c>
+      <c r="J113" s="7">
+        <v>14</v>
+      </c>
+      <c r="K113" s="7">
+        <v>21</v>
+      </c>
+      <c r="L113" s="7">
+        <v>10</v>
+      </c>
+      <c r="M113" s="7">
+        <v>13</v>
+      </c>
+      <c r="N113" s="7">
+        <v>1</v>
+      </c>
+      <c r="O113" s="7">
+        <v>0</v>
+      </c>
+      <c r="P113" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="7">
+        <v>0</v>
+      </c>
+      <c r="R113" s="7">
+        <v>1</v>
+      </c>
+      <c r="S113" s="7">
+        <v>0</v>
+      </c>
+      <c r="T113" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
@@ -5350,20 +8400,48 @@
       <c r="F114" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
+      <c r="G114" s="7">
+        <v>0</v>
+      </c>
+      <c r="H114" s="7">
+        <v>0</v>
+      </c>
+      <c r="I114" s="7">
+        <v>2</v>
+      </c>
+      <c r="J114" s="7">
+        <v>13</v>
+      </c>
+      <c r="K114" s="7">
+        <v>21</v>
+      </c>
+      <c r="L114" s="7">
+        <v>11</v>
+      </c>
+      <c r="M114" s="7">
+        <v>7</v>
+      </c>
+      <c r="N114" s="7">
+        <v>5</v>
+      </c>
+      <c r="O114" s="7">
+        <v>2</v>
+      </c>
+      <c r="P114" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>0</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0</v>
+      </c>
+      <c r="S114" s="7">
+        <v>0</v>
+      </c>
+      <c r="T114" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
@@ -5384,20 +8462,48 @@
       <c r="F115" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
+      <c r="G115" s="7">
+        <v>0</v>
+      </c>
+      <c r="H115" s="7">
+        <v>1</v>
+      </c>
+      <c r="I115" s="7">
+        <v>6</v>
+      </c>
+      <c r="J115" s="7">
+        <v>9</v>
+      </c>
+      <c r="K115" s="7">
+        <v>8</v>
+      </c>
+      <c r="L115" s="7">
+        <v>8</v>
+      </c>
+      <c r="M115" s="7">
+        <v>4</v>
+      </c>
+      <c r="N115" s="7">
+        <v>0</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0</v>
+      </c>
+      <c r="P115" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>1</v>
+      </c>
+      <c r="R115" s="7">
+        <v>0</v>
+      </c>
+      <c r="S115" s="7">
+        <v>0</v>
+      </c>
+      <c r="T115" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
@@ -5418,20 +8524,48 @@
       <c r="F116" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
+      <c r="G116" s="7">
+        <v>0</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>8</v>
+      </c>
+      <c r="J116" s="7">
+        <v>4</v>
+      </c>
+      <c r="K116" s="7">
+        <v>2</v>
+      </c>
+      <c r="L116" s="7">
+        <v>3</v>
+      </c>
+      <c r="M116" s="7">
+        <v>2</v>
+      </c>
+      <c r="N116" s="7">
+        <v>1</v>
+      </c>
+      <c r="O116" s="7">
+        <v>1</v>
+      </c>
+      <c r="P116" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>0</v>
+      </c>
+      <c r="R116" s="7">
+        <v>0</v>
+      </c>
+      <c r="S116" s="7">
+        <v>0</v>
+      </c>
+      <c r="T116" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
@@ -5452,20 +8586,48 @@
       <c r="F117" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
+      <c r="G117" s="7">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>5</v>
+      </c>
+      <c r="J117" s="7">
+        <v>17</v>
+      </c>
+      <c r="K117" s="7">
+        <v>11</v>
+      </c>
+      <c r="L117" s="7">
+        <v>7</v>
+      </c>
+      <c r="M117" s="7">
+        <v>3</v>
+      </c>
+      <c r="N117" s="7">
+        <v>2</v>
+      </c>
+      <c r="O117" s="7">
+        <v>0</v>
+      </c>
+      <c r="P117" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>1</v>
+      </c>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="7">
+        <v>0</v>
+      </c>
+      <c r="T117" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
@@ -5486,20 +8648,48 @@
       <c r="F118" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
+      <c r="G118" s="7">
+        <v>0</v>
+      </c>
+      <c r="H118" s="7">
+        <v>0</v>
+      </c>
+      <c r="I118" s="7">
+        <v>13</v>
+      </c>
+      <c r="J118" s="7">
+        <v>14</v>
+      </c>
+      <c r="K118" s="7">
+        <v>10</v>
+      </c>
+      <c r="L118" s="7">
+        <v>8</v>
+      </c>
+      <c r="M118" s="7">
+        <v>3</v>
+      </c>
+      <c r="N118" s="7">
+        <v>3</v>
+      </c>
+      <c r="O118" s="7">
+        <v>1</v>
+      </c>
+      <c r="P118" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="7">
+        <v>0</v>
+      </c>
+      <c r="R118" s="7">
+        <v>0</v>
+      </c>
+      <c r="S118" s="7">
+        <v>0</v>
+      </c>
+      <c r="T118" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
@@ -5520,20 +8710,48 @@
       <c r="F119" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
+      <c r="G119" s="7">
+        <v>0</v>
+      </c>
+      <c r="H119" s="7">
+        <v>0</v>
+      </c>
+      <c r="I119" s="7">
+        <v>7</v>
+      </c>
+      <c r="J119" s="7">
+        <v>7</v>
+      </c>
+      <c r="K119" s="7">
+        <v>6</v>
+      </c>
+      <c r="L119" s="7">
+        <v>9</v>
+      </c>
+      <c r="M119" s="7">
+        <v>4</v>
+      </c>
+      <c r="N119" s="7">
+        <v>2</v>
+      </c>
+      <c r="O119" s="7">
+        <v>0</v>
+      </c>
+      <c r="P119" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="7">
+        <v>0</v>
+      </c>
+      <c r="R119" s="7">
+        <v>0</v>
+      </c>
+      <c r="S119" s="7">
+        <v>0</v>
+      </c>
+      <c r="T119" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE71539-AF93-4BCA-AAF8-8C61FAB1310B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B038A-70E3-4851-AFED-19808308F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="313">
   <si>
     <t>PROJETO</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>KIT INVERNO</t>
+  </si>
+  <si>
+    <t>KIT VERÃO</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1474,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,7 +3985,7 @@
         <v>219</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>84</v>
@@ -3998,7 +4001,9 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
+      <c r="O74" s="7">
+        <v>1</v>
+      </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B038A-70E3-4851-AFED-19808308F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFFBC9-14D1-44C0-A468-8203746F069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1474,8 +1474,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q109" sqref="Q109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,9 +4001,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
-      <c r="O74" s="7">
-        <v>1</v>
-      </c>
+      <c r="O74" s="7"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DFFBC9-14D1-44C0-A468-8203746F069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958D932-EE1C-43A6-9590-7A5FB8016AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="312">
   <si>
     <t>PROJETO</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>KIT INVERNO</t>
-  </si>
-  <si>
-    <t>KIT VERÃO</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1471,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q109" sqref="Q109"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3985,7 +3982,7 @@
         <v>219</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>84</v>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958D932-EE1C-43A6-9590-7A5FB8016AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F419B-4479-45FF-AF2E-914178B2EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1471,8 +1471,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F419B-4479-45FF-AF2E-914178B2EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C0433-937E-4334-B057-4608C6EFE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1471,8 +1471,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,7 +3925,9 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
+      <c r="J72" s="7">
+        <v>4</v>
+      </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166C0433-937E-4334-B057-4608C6EFE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB7469-3ECF-49FC-B2D0-DE38101F5BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="313">
   <si>
     <t>PROJETO</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>KIT INVERNO</t>
+  </si>
+  <si>
+    <t>KIT VERÃO</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1474,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,9 +3928,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="7">
-        <v>4</v>
-      </c>
+      <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -4800,7 +4801,7 @@
         <v>267</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>84</v>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB7469-3ECF-49FC-B2D0-DE38101F5BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F050A121-DE43-4333-82EC-B46AFBA8519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1474,8 +1474,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F050A121-DE43-4333-82EC-B46AFBA8519F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862787DB-AB2F-4688-B6C4-CB271B66BDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="315">
   <si>
     <t>PROJETO</t>
   </si>
@@ -964,6 +964,12 @@
   </si>
   <si>
     <t>KIT VERÃO</t>
+  </si>
+  <si>
+    <t>CAMISETA POLO MANGA CURTA</t>
+  </si>
+  <si>
+    <t>CAMISETA MANGA CURTA DECOTE V</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1027,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,6 +1067,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,7 +1134,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1140,6 +1152,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1471,11 +1485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:T119"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P103" sqref="P103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,7 +4203,7 @@
         <v>231</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>84</v>
@@ -4801,7 +4815,7 @@
         <v>267</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>84</v>
@@ -5063,22 +5077,22 @@
       <c r="T105" s="7"/>
     </row>
     <row r="106" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F106" s="5" t="s">
+      <c r="D106" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F106" s="9" t="s">
         <v>70</v>
       </c>
       <c r="G106" s="7"/>
@@ -5088,7 +5102,9 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
+      <c r="N106" s="7">
+        <v>20</v>
+      </c>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
@@ -5097,23 +5113,23 @@
       <c r="T106" s="7"/>
     </row>
     <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>71</v>
+      <c r="A107" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -5122,7 +5138,9 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
+      <c r="N107" s="7">
+        <v>10</v>
+      </c>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -5135,10 +5153,10 @@
         <v>143</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>311</v>
@@ -5147,7 +5165,7 @@
         <v>84</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -5169,10 +5187,10 @@
         <v>143</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>311</v>
@@ -5181,7 +5199,7 @@
         <v>84</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -5203,10 +5221,10 @@
         <v>143</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>311</v>
@@ -5215,7 +5233,7 @@
         <v>84</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -5237,10 +5255,10 @@
         <v>143</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>311</v>
@@ -5249,7 +5267,7 @@
         <v>84</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -5271,10 +5289,10 @@
         <v>143</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>311</v>
@@ -5283,7 +5301,7 @@
         <v>84</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -5305,10 +5323,10 @@
         <v>143</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>311</v>
@@ -5317,7 +5335,7 @@
         <v>84</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -5339,10 +5357,10 @@
         <v>143</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>311</v>
@@ -5351,7 +5369,7 @@
         <v>84</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -5373,10 +5391,10 @@
         <v>143</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>311</v>
@@ -5385,7 +5403,7 @@
         <v>84</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -5407,10 +5425,10 @@
         <v>143</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>311</v>
@@ -5419,7 +5437,7 @@
         <v>84</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -5441,10 +5459,10 @@
         <v>143</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>311</v>
@@ -5453,7 +5471,7 @@
         <v>84</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -5475,10 +5493,10 @@
         <v>143</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>311</v>
@@ -5487,7 +5505,7 @@
         <v>84</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -5509,10 +5527,10 @@
         <v>143</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>311</v>
@@ -5521,7 +5539,7 @@
         <v>84</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -5538,6 +5556,40 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
     </row>
+    <row r="120" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="7"/>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7"/>
+      <c r="T120" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862787DB-AB2F-4688-B6C4-CB271B66BDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49D649-E84E-42D6-94E6-6854E28E3D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="313">
   <si>
     <t>PROJETO</t>
   </si>
@@ -964,12 +964,6 @@
   </si>
   <si>
     <t>KIT VERÃO</t>
-  </si>
-  <si>
-    <t>CAMISETA POLO MANGA CURTA</t>
-  </si>
-  <si>
-    <t>CAMISETA MANGA CURTA DECOTE V</t>
   </si>
 </sst>
 </file>
@@ -1485,11 +1479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414053F0-9035-4345-833E-9715016AA804}">
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P103" sqref="P103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q111" sqref="Q111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,8 +5080,8 @@
       <c r="C106" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>314</v>
+      <c r="D106" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>84</v>
@@ -5102,9 +5096,7 @@
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
-      <c r="N106" s="7">
-        <v>20</v>
-      </c>
+      <c r="N106" s="7"/>
       <c r="O106" s="7"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
@@ -5113,23 +5105,23 @@
       <c r="T106" s="7"/>
     </row>
     <row r="107" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A107" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>70</v>
+      <c r="A107" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -5138,9 +5130,7 @@
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
-      <c r="N107" s="7">
-        <v>10</v>
-      </c>
+      <c r="N107" s="7"/>
       <c r="O107" s="7"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
@@ -5153,10 +5143,10 @@
         <v>143</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>311</v>
@@ -5165,7 +5155,7 @@
         <v>84</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
@@ -5187,10 +5177,10 @@
         <v>143</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>311</v>
@@ -5199,7 +5189,7 @@
         <v>84</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
@@ -5221,10 +5211,10 @@
         <v>143</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>311</v>
@@ -5233,7 +5223,7 @@
         <v>84</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
@@ -5255,10 +5245,10 @@
         <v>143</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>311</v>
@@ -5267,7 +5257,7 @@
         <v>84</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
@@ -5289,10 +5279,10 @@
         <v>143</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>311</v>
@@ -5301,7 +5291,7 @@
         <v>84</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
@@ -5323,10 +5313,10 @@
         <v>143</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>311</v>
@@ -5335,7 +5325,7 @@
         <v>84</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
@@ -5357,10 +5347,10 @@
         <v>143</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>311</v>
@@ -5369,7 +5359,7 @@
         <v>84</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
@@ -5391,10 +5381,10 @@
         <v>143</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>311</v>
@@ -5403,7 +5393,7 @@
         <v>84</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -5425,10 +5415,10 @@
         <v>143</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>311</v>
@@ -5437,7 +5427,7 @@
         <v>84</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -5459,10 +5449,10 @@
         <v>143</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>311</v>
@@ -5471,7 +5461,7 @@
         <v>84</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -5493,10 +5483,10 @@
         <v>143</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>311</v>
@@ -5505,7 +5495,7 @@
         <v>84</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -5527,10 +5517,10 @@
         <v>143</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>311</v>
@@ -5539,7 +5529,7 @@
         <v>84</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
@@ -5556,40 +5546,6 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
     </row>
-    <row r="120" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/core/utils/distgradeunificadaSANTOANDRE.xlsx
+++ b/core/utils/distgradeunificadaSANTOANDRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F49D649-E84E-42D6-94E6-6854E28E3D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEF46B7-2231-45C9-91B2-06CE8668DEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7D8F346-A79E-4C25-BB45-DA9F96A70FA9}"/>
   </bookViews>
@@ -1482,8 +1482,8 @@
   <dimension ref="A1:T119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q111" sqref="Q111"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P122" sqref="P122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
